--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2415BA2E-B9EE-3C40-A9E8-5C2347F20153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092554AD-9FD8-4248-8E0B-BEC8016763DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="27420" windowHeight="16940" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>行政区划代码</t>
   </si>
@@ -211,6 +211,210 @@
   </si>
   <si>
     <t>葫芦岛市</t>
+  </si>
+  <si>
+    <t>吉林省</t>
+  </si>
+  <si>
+    <t>长春市</t>
+  </si>
+  <si>
+    <t>吉林市</t>
+  </si>
+  <si>
+    <t>四平市</t>
+  </si>
+  <si>
+    <t>辽源市</t>
+  </si>
+  <si>
+    <t>通化市</t>
+  </si>
+  <si>
+    <t>白山市</t>
+  </si>
+  <si>
+    <t>松原市</t>
+  </si>
+  <si>
+    <t>白城市</t>
+  </si>
+  <si>
+    <t>延边朝鲜族自治州</t>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>哈尔滨市</t>
+  </si>
+  <si>
+    <t>齐齐哈尔市</t>
+  </si>
+  <si>
+    <t>鸡西市</t>
+  </si>
+  <si>
+    <t>鹤岗市</t>
+  </si>
+  <si>
+    <t>双鸭山市</t>
+  </si>
+  <si>
+    <t>大庆市</t>
+  </si>
+  <si>
+    <t>伊春市</t>
+  </si>
+  <si>
+    <t>佳木斯市</t>
+  </si>
+  <si>
+    <t>七台河市</t>
+  </si>
+  <si>
+    <t>牡丹江市</t>
+  </si>
+  <si>
+    <t>黑河市</t>
+  </si>
+  <si>
+    <t>绥化市</t>
+  </si>
+  <si>
+    <t>大兴安岭地区</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
+    <t>江苏省</t>
+  </si>
+  <si>
+    <t>南京市</t>
+  </si>
+  <si>
+    <t>无锡市</t>
+  </si>
+  <si>
+    <t>徐州市</t>
+  </si>
+  <si>
+    <t>常州市</t>
+  </si>
+  <si>
+    <t>苏州市</t>
+  </si>
+  <si>
+    <t>南通市</t>
+  </si>
+  <si>
+    <t>连云港市</t>
+  </si>
+  <si>
+    <t>淮安市</t>
+  </si>
+  <si>
+    <t>盐城市</t>
+  </si>
+  <si>
+    <t>扬州市</t>
+  </si>
+  <si>
+    <t>镇江市</t>
+  </si>
+  <si>
+    <t>泰州市</t>
+  </si>
+  <si>
+    <t>宿迁市</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>杭州市</t>
+  </si>
+  <si>
+    <t>宁波市</t>
+  </si>
+  <si>
+    <t>温州市</t>
+  </si>
+  <si>
+    <t>嘉兴市</t>
+  </si>
+  <si>
+    <t>湖州市</t>
+  </si>
+  <si>
+    <t>绍兴市</t>
+  </si>
+  <si>
+    <t>金华市</t>
+  </si>
+  <si>
+    <t>衢州市</t>
+  </si>
+  <si>
+    <t>舟山市</t>
+  </si>
+  <si>
+    <t>台州市</t>
+  </si>
+  <si>
+    <t>丽水市</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>合肥市</t>
+  </si>
+  <si>
+    <t>芜湖市</t>
+  </si>
+  <si>
+    <t>蚌埠市</t>
+  </si>
+  <si>
+    <t>淮南市</t>
+  </si>
+  <si>
+    <t>马鞍山市</t>
+  </si>
+  <si>
+    <t>淮北市</t>
+  </si>
+  <si>
+    <t>铜陵市</t>
+  </si>
+  <si>
+    <t>安庆市</t>
+  </si>
+  <si>
+    <t>黄山市</t>
+  </si>
+  <si>
+    <t>滁州市</t>
+  </si>
+  <si>
+    <t>阜阳市</t>
+  </si>
+  <si>
+    <t>宿州市</t>
+  </si>
+  <si>
+    <t>六安市</t>
+  </si>
+  <si>
+    <t>亳州市</t>
+  </si>
+  <si>
+    <t>池州市</t>
+  </si>
+  <si>
+    <t>宣城市</t>
   </si>
 </sst>
 </file>
@@ -219,8 +423,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -280,16 +484,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -608,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1384,6 +1588,856 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3">
+        <v>220000</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="7">
+        <v>12311.32</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3">
+        <v>220100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="7">
+        <v>6638.03</v>
+      </c>
+      <c r="E57" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3">
+        <v>220200</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3">
+        <v>220300</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3">
+        <v>220400</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3">
+        <v>220500</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3">
+        <v>220600</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3">
+        <v>220700</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3">
+        <v>220800</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3">
+        <v>222400</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3">
+        <v>230000</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="7">
+        <v>13698.5</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3">
+        <v>230100</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="7">
+        <v>5183.8</v>
+      </c>
+      <c r="E67" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
+        <v>230200</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3">
+        <v>230300</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="7">
+        <v>572.4</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3">
+        <v>230400</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3">
+        <v>230500</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3">
+        <v>230600</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3">
+        <v>230700</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="7">
+        <v>295.18740000000003</v>
+      </c>
+      <c r="E73" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3">
+        <v>230800</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3">
+        <v>230900</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3">
+        <v>231000</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3">
+        <v>231100</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="7">
+        <v>614.4</v>
+      </c>
+      <c r="E77" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3">
+        <v>231200</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3">
+        <v>232700</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3">
+        <v>310000</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="7">
+        <v>38700.58</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3">
+        <v>320000</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="7">
+        <v>102718.98</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3">
+        <v>320100</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="7">
+        <v>14817.95</v>
+      </c>
+      <c r="E82" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3">
+        <v>320200</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="7">
+        <v>12370.48</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3">
+        <v>320300</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="7">
+        <v>7319.77</v>
+      </c>
+      <c r="E84" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3">
+        <v>320400</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="7">
+        <v>7805.3</v>
+      </c>
+      <c r="E85" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3">
+        <v>320500</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="7">
+        <v>20170.5</v>
+      </c>
+      <c r="E86" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3">
+        <v>320600</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="7">
+        <v>10036.31</v>
+      </c>
+      <c r="E87" s="5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3">
+        <v>320700</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="7">
+        <v>3277.07</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3">
+        <v>320800</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="7">
+        <v>4025.37</v>
+      </c>
+      <c r="E89" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="3">
+        <v>320900</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="7">
+        <v>5953.38</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="3">
+        <v>321000</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="7">
+        <v>6048.33</v>
+      </c>
+      <c r="E91" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="3">
+        <v>321100</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="7">
+        <v>4220.09</v>
+      </c>
+      <c r="E92" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="3">
+        <v>321200</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="7">
+        <v>5312.77</v>
+      </c>
+      <c r="E93" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="3">
+        <v>321300</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="7">
+        <v>3262.37</v>
+      </c>
+      <c r="E94" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="3">
+        <v>330000</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="7">
+        <v>64613</v>
+      </c>
+      <c r="E95" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3">
+        <v>330100</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="7">
+        <v>16105.8</v>
+      </c>
+      <c r="E96" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3">
+        <v>330200</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="7">
+        <v>12408.7</v>
+      </c>
+      <c r="E97" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3">
+        <v>330300</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="7">
+        <v>6870.86</v>
+      </c>
+      <c r="E98" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3">
+        <v>330400</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="7">
+        <v>5509.52</v>
+      </c>
+      <c r="E99" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3">
+        <v>330500</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="7">
+        <v>3201.4</v>
+      </c>
+      <c r="E100" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3">
+        <v>330600</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="7">
+        <v>6000.7</v>
+      </c>
+      <c r="E101" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="3">
+        <v>330700</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="7">
+        <v>4703.95</v>
+      </c>
+      <c r="E102" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3">
+        <v>330800</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1639.12</v>
+      </c>
+      <c r="E103" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="3">
+        <v>330900</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1512.1</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="3">
+        <v>331000</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="7">
+        <v>5262.72</v>
+      </c>
+      <c r="E105" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3">
+        <v>331100</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="7">
+        <v>1540.02</v>
+      </c>
+      <c r="E106" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3">
+        <v>340000</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="7">
+        <v>38680.6</v>
+      </c>
+      <c r="E107" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="3">
+        <v>340100</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="7">
+        <v>10045.719999999999</v>
+      </c>
+      <c r="E108" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="3">
+        <v>340200</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="7">
+        <v>3753.02</v>
+      </c>
+      <c r="E109" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3">
+        <v>340300</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="7">
+        <v>2082.6999999999998</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3">
+        <v>340400</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="7">
+        <v>1337.2</v>
+      </c>
+      <c r="E111" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3">
+        <v>340500</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="7">
+        <v>2186.9</v>
+      </c>
+      <c r="E112" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="3">
+        <v>340600</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="7">
+        <v>1119.0999999999999</v>
+      </c>
+      <c r="E113" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="3">
+        <v>340700</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="7">
+        <v>1003.7</v>
+      </c>
+      <c r="E114" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="3">
+        <v>340800</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="7">
+        <v>2467.6999999999998</v>
+      </c>
+      <c r="E115" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="3">
+        <v>341000</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="7">
+        <v>850.4</v>
+      </c>
+      <c r="E116" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3">
+        <v>341100</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="7">
+        <v>3032.1</v>
+      </c>
+      <c r="E117" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="3">
+        <v>341200</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="7">
+        <v>2805.2</v>
+      </c>
+      <c r="E118" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="3">
+        <v>341300</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="7">
+        <v>2044.99</v>
+      </c>
+      <c r="E119" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="3">
+        <v>341500</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1669.5</v>
+      </c>
+      <c r="E120" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="3">
+        <v>341600</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="7">
+        <v>1806.01</v>
+      </c>
+      <c r="E121" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="3">
+        <v>341700</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="7">
+        <v>868.9</v>
+      </c>
+      <c r="E122" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="3">
+        <v>341800</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" s="7">
+        <v>1607.5</v>
+      </c>
+      <c r="E123" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092554AD-9FD8-4248-8E0B-BEC8016763DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF708BF-CACD-814F-AB2C-8AD3622263C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="27420" windowHeight="16940" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>行政区划代码</t>
   </si>
@@ -415,6 +415,219 @@
   </si>
   <si>
     <t>宣城市</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>福州市</t>
+  </si>
+  <si>
+    <t>厦门市</t>
+  </si>
+  <si>
+    <t>莆田市</t>
+  </si>
+  <si>
+    <t>三明市</t>
+  </si>
+  <si>
+    <t>泉州市</t>
+  </si>
+  <si>
+    <t>漳州市</t>
+  </si>
+  <si>
+    <t>南平市</t>
+  </si>
+  <si>
+    <t>龙岩市</t>
+  </si>
+  <si>
+    <t>宁德市</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>南昌市</t>
+  </si>
+  <si>
+    <t>景德镇市</t>
+  </si>
+  <si>
+    <t>萍乡市</t>
+  </si>
+  <si>
+    <t>九江市</t>
+  </si>
+  <si>
+    <t>新余市</t>
+  </si>
+  <si>
+    <t>鹰潭市</t>
+  </si>
+  <si>
+    <t>赣州市</t>
+  </si>
+  <si>
+    <t>吉安市</t>
+  </si>
+  <si>
+    <t>宜春市</t>
+  </si>
+  <si>
+    <t>抚州市</t>
+  </si>
+  <si>
+    <t>上饶市</t>
+  </si>
+  <si>
+    <t>山东省</t>
+  </si>
+  <si>
+    <t>济南市</t>
+  </si>
+  <si>
+    <t>青岛市</t>
+  </si>
+  <si>
+    <t>淄博市</t>
+  </si>
+  <si>
+    <t>枣庄市</t>
+  </si>
+  <si>
+    <t>东营市</t>
+  </si>
+  <si>
+    <t>烟台市</t>
+  </si>
+  <si>
+    <t>潍坊市</t>
+  </si>
+  <si>
+    <t>济宁市</t>
+  </si>
+  <si>
+    <t>泰安市</t>
+  </si>
+  <si>
+    <t>威海市</t>
+  </si>
+  <si>
+    <t>日照市</t>
+  </si>
+  <si>
+    <t>临沂市</t>
+  </si>
+  <si>
+    <t>德州市</t>
+  </si>
+  <si>
+    <t>聊城市</t>
+  </si>
+  <si>
+    <t>滨州市</t>
+  </si>
+  <si>
+    <t>菏泽市</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>郑州市</t>
+  </si>
+  <si>
+    <t>开封市</t>
+  </si>
+  <si>
+    <t>洛阳市</t>
+  </si>
+  <si>
+    <t>平顶山市</t>
+  </si>
+  <si>
+    <t>安阳市</t>
+  </si>
+  <si>
+    <t>鹤壁市</t>
+  </si>
+  <si>
+    <t>新乡市</t>
+  </si>
+  <si>
+    <t>焦作市</t>
+  </si>
+  <si>
+    <t>濮阳市</t>
+  </si>
+  <si>
+    <t>许昌市</t>
+  </si>
+  <si>
+    <t>漯河市</t>
+  </si>
+  <si>
+    <t>三门峡市</t>
+  </si>
+  <si>
+    <t>南阳市</t>
+  </si>
+  <si>
+    <t>商丘市</t>
+  </si>
+  <si>
+    <t>信阳市</t>
+  </si>
+  <si>
+    <t>周口市</t>
+  </si>
+  <si>
+    <t>驻马店市</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>武汉市</t>
+  </si>
+  <si>
+    <t>黄石市</t>
+  </si>
+  <si>
+    <t>十堰市</t>
+  </si>
+  <si>
+    <t>宜昌市</t>
+  </si>
+  <si>
+    <t>襄阳市</t>
+  </si>
+  <si>
+    <t>鄂州市</t>
+  </si>
+  <si>
+    <t>荆门市</t>
+  </si>
+  <si>
+    <t>孝感市</t>
+  </si>
+  <si>
+    <t>荆州市</t>
+  </si>
+  <si>
+    <t>黄冈市</t>
+  </si>
+  <si>
+    <t>咸宁市</t>
+  </si>
+  <si>
+    <t>随州市</t>
+  </si>
+  <si>
+    <t>恩施土家族苗族自治州</t>
   </si>
 </sst>
 </file>
@@ -812,18 +1025,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -963,9 +1175,6 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>3353.3</v>
-      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
@@ -2436,6 +2645,826 @@
       </c>
       <c r="E123" s="5">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3">
+        <v>350000</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="7">
+        <v>43903.89</v>
+      </c>
+      <c r="E124" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="3">
+        <v>350100</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" s="7">
+        <v>10020.02</v>
+      </c>
+      <c r="E125" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="3">
+        <v>350200</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" s="7">
+        <v>6384.02</v>
+      </c>
+      <c r="E126" s="5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="3">
+        <v>350300</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127" s="7">
+        <v>2643.97</v>
+      </c>
+      <c r="E127" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="3">
+        <v>350400</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="7">
+        <v>2702.19</v>
+      </c>
+      <c r="E128" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3">
+        <v>350500</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" s="7">
+        <v>10158.66</v>
+      </c>
+      <c r="E129" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="3">
+        <v>350600</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="3">
+        <v>350700</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" s="7">
+        <v>2007.4</v>
+      </c>
+      <c r="E131" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="3">
+        <v>350800</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="7">
+        <v>2870.9</v>
+      </c>
+      <c r="E132" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="3">
+        <v>350900</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="7">
+        <v>2619</v>
+      </c>
+      <c r="E133" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="3">
+        <v>360000</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="7">
+        <v>25691.5</v>
+      </c>
+      <c r="E134" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="3">
+        <v>360100</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="7">
+        <v>5745.51</v>
+      </c>
+      <c r="E135" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="3">
+        <v>360200</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="7">
+        <v>957.14</v>
+      </c>
+      <c r="E136" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="3">
+        <v>360300</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="7">
+        <v>963.6</v>
+      </c>
+      <c r="E137" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="3">
+        <v>360400</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="7">
+        <v>3240.5</v>
+      </c>
+      <c r="E138" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="3">
+        <v>360500</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1001.33</v>
+      </c>
+      <c r="E139" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="3">
+        <v>360600</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="7">
+        <v>982.66</v>
+      </c>
+      <c r="E140" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="3">
+        <v>360700</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="7">
+        <v>3645.2</v>
+      </c>
+      <c r="E141" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="3">
+        <v>360800</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="7">
+        <v>2168.83</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="3">
+        <v>360900</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="7">
+        <v>2789.87</v>
+      </c>
+      <c r="E143" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="3">
+        <v>361000</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="7">
+        <v>1572.51</v>
+      </c>
+      <c r="E144" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="3">
+        <v>361100</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" s="7">
+        <v>2624.34</v>
+      </c>
+      <c r="E145" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3">
+        <v>370000</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="7">
+        <v>73129</v>
+      </c>
+      <c r="E146" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="3">
+        <v>370100</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" s="7">
+        <v>10140.91</v>
+      </c>
+      <c r="E147" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>370200</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="7">
+        <v>12400.56</v>
+      </c>
+      <c r="E148" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3">
+        <v>370300</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="7">
+        <v>3673.54</v>
+      </c>
+      <c r="E149" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="3">
+        <v>370400</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="7">
+        <v>1733.25</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="3">
+        <v>370500</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="7">
+        <v>2981.19</v>
+      </c>
+      <c r="E151" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="3">
+        <v>370600</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152" s="7">
+        <v>7816.42</v>
+      </c>
+      <c r="E152" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="3">
+        <v>370700</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" s="7">
+        <v>5872.2</v>
+      </c>
+      <c r="E153" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3">
+        <v>370800</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" s="7">
+        <v>4494.3100000000004</v>
+      </c>
+      <c r="E154" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3">
+        <v>370900</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="7">
+        <v>2766.5</v>
+      </c>
+      <c r="E155" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3">
+        <v>371000</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156" s="7">
+        <v>3017.79</v>
+      </c>
+      <c r="E156" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="3">
+        <v>371100</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" s="7">
+        <v>2006.43</v>
+      </c>
+      <c r="E157" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="3">
+        <v>371300</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="7">
+        <v>4805.25</v>
+      </c>
+      <c r="E158" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="3">
+        <v>371400</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" s="7">
+        <v>3078.99</v>
+      </c>
+      <c r="E159" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3">
+        <v>371500</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" s="7">
+        <v>2316.84</v>
+      </c>
+      <c r="E160" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="3">
+        <v>371600</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" s="7">
+        <v>2508.11</v>
+      </c>
+      <c r="E161" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="3">
+        <v>371700</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D162" s="7">
+        <v>3483.11</v>
+      </c>
+      <c r="E162" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="3">
+        <v>410000</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163" s="7">
+        <v>54997.07</v>
+      </c>
+      <c r="E163" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="3">
+        <v>410100</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164" s="7">
+        <v>12003.04</v>
+      </c>
+      <c r="E164" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="3">
+        <v>410200</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="3">
+        <v>410300</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="3">
+        <v>410400</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="3">
+        <v>410500</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="3">
+        <v>410600</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="3">
+        <v>410700</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="3">
+        <v>410800</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="3">
+        <v>410900</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="3">
+        <v>411000</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="3">
+        <v>411100</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="3">
+        <v>411200</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="3">
+        <v>411300</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="3">
+        <v>411400</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="3">
+        <v>411500</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="3">
+        <v>411600</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="3">
+        <v>411700</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="3">
+        <v>420000</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" s="7">
+        <v>43443.46</v>
+      </c>
+      <c r="E181" s="5">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="3">
+        <v>420100</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D182" s="7">
+        <v>15616.06</v>
+      </c>
+      <c r="E182" s="5">
+        <v>-4.7E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="3">
+        <v>420200</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="3">
+        <v>420300</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="3">
+        <v>420500</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="3">
+        <v>420600</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="3">
+        <v>420700</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="3">
+        <v>420800</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="3">
+        <v>420900</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="3">
+        <v>421000</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="3">
+        <v>421100</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="3">
+        <v>421200</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="3">
+        <v>421300</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="3">
+        <v>422800</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF708BF-CACD-814F-AB2C-8AD3622263C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46E51B-CE27-AD46-8D51-1FF4F65F4FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="27420" windowHeight="16940" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>行政区划代码</t>
   </si>
@@ -628,6 +628,189 @@
   </si>
   <si>
     <t>恩施土家族苗族自治州</t>
+  </si>
+  <si>
+    <t>湖南省</t>
+  </si>
+  <si>
+    <t>长沙市</t>
+  </si>
+  <si>
+    <t>株洲市</t>
+  </si>
+  <si>
+    <t>湘潭市</t>
+  </si>
+  <si>
+    <t>衡阳市</t>
+  </si>
+  <si>
+    <t>邵阳市</t>
+  </si>
+  <si>
+    <t>岳阳市</t>
+  </si>
+  <si>
+    <t>常德市</t>
+  </si>
+  <si>
+    <t>张家界市</t>
+  </si>
+  <si>
+    <t>益阳市</t>
+  </si>
+  <si>
+    <t>永州市</t>
+  </si>
+  <si>
+    <t>怀化市</t>
+  </si>
+  <si>
+    <t>娄底市</t>
+  </si>
+  <si>
+    <t>湘西土家族苗族自治州</t>
+  </si>
+  <si>
+    <t>郴州市</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>广州市</t>
+  </si>
+  <si>
+    <t>韶关市</t>
+  </si>
+  <si>
+    <t>深圳市</t>
+  </si>
+  <si>
+    <t>珠海市</t>
+  </si>
+  <si>
+    <t>汕头市</t>
+  </si>
+  <si>
+    <t>佛山市</t>
+  </si>
+  <si>
+    <t>江门市</t>
+  </si>
+  <si>
+    <t>湛江市</t>
+  </si>
+  <si>
+    <t>茂名市</t>
+  </si>
+  <si>
+    <t>肇庆市</t>
+  </si>
+  <si>
+    <t>惠州市</t>
+  </si>
+  <si>
+    <t>梅州市</t>
+  </si>
+  <si>
+    <t>汕尾市</t>
+  </si>
+  <si>
+    <t>河源市</t>
+  </si>
+  <si>
+    <t>阳江市</t>
+  </si>
+  <si>
+    <t>清远市</t>
+  </si>
+  <si>
+    <t>东莞市</t>
+  </si>
+  <si>
+    <t>中山市</t>
+  </si>
+  <si>
+    <t>潮州市</t>
+  </si>
+  <si>
+    <t>揭阳市</t>
+  </si>
+  <si>
+    <t>云浮市</t>
+  </si>
+  <si>
+    <t>广西壮族自治区</t>
+  </si>
+  <si>
+    <t>南宁市</t>
+  </si>
+  <si>
+    <t>柳州市</t>
+  </si>
+  <si>
+    <t>桂林市</t>
+  </si>
+  <si>
+    <t>梧州市</t>
+  </si>
+  <si>
+    <t>北海市</t>
+  </si>
+  <si>
+    <t>防城港市</t>
+  </si>
+  <si>
+    <t>钦州市</t>
+  </si>
+  <si>
+    <t>贵港市</t>
+  </si>
+  <si>
+    <t>玉林市</t>
+  </si>
+  <si>
+    <t>百色市</t>
+  </si>
+  <si>
+    <t>贺州市</t>
+  </si>
+  <si>
+    <t>河池市</t>
+  </si>
+  <si>
+    <t>来宾市</t>
+  </si>
+  <si>
+    <t>崇左市</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>海口市</t>
+  </si>
+  <si>
+    <t>三亚市</t>
+  </si>
+  <si>
+    <t>三沙市</t>
+  </si>
+  <si>
+    <t>儋州市</t>
+  </si>
+  <si>
+    <t>重庆市</t>
+  </si>
+  <si>
+    <t>四川省</t>
+  </si>
+  <si>
+    <t>成都市</t>
+  </si>
+  <si>
+    <t>自贡市</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3222,6 +3405,12 @@
       <c r="C165" s="3" t="s">
         <v>168</v>
       </c>
+      <c r="D165" s="7">
+        <v>2371.83</v>
+      </c>
+      <c r="E165" s="5">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="3">
@@ -3230,6 +3419,12 @@
       <c r="C166" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="D166" s="7">
+        <v>5128.3999999999996</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="3">
@@ -3238,6 +3433,12 @@
       <c r="C167" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="D167" s="7">
+        <v>2455.84</v>
+      </c>
+      <c r="E167" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="3">
@@ -3246,6 +3447,12 @@
       <c r="C168" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="D168" s="7">
+        <v>2300.5</v>
+      </c>
+      <c r="E168" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="3">
@@ -3254,6 +3461,12 @@
       <c r="C169" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="D169" s="7">
+        <v>980.97</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="3">
@@ -3262,6 +3475,12 @@
       <c r="C170" s="3" t="s">
         <v>173</v>
       </c>
+      <c r="D170" s="7">
+        <v>3014.51</v>
+      </c>
+      <c r="E170" s="5">
+        <v>3.2000000000000001E-2</v>
+      </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="3">
@@ -3278,6 +3497,12 @@
       <c r="C172" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="D172" s="7">
+        <v>1649.99</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="3">
@@ -3286,6 +3511,12 @@
       <c r="C173" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="D173" s="7">
+        <v>3449.2</v>
+      </c>
+      <c r="E173" s="5">
+        <v>2.7E-2</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="3">
@@ -3302,6 +3533,12 @@
       <c r="C175" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="D175" s="7">
+        <v>1450.7</v>
+      </c>
+      <c r="E175" s="5">
+        <v>3.1E-2</v>
+      </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="3">
@@ -3310,6 +3547,12 @@
       <c r="C176" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="D176" s="7">
+        <v>3925.86</v>
+      </c>
+      <c r="E176" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="3">
@@ -3318,6 +3561,9 @@
       <c r="C177" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="D177" s="7">
+        <v>2925.33</v>
+      </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="3">
@@ -3326,6 +3572,12 @@
       <c r="C178" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="D178" s="7">
+        <v>2805.68</v>
+      </c>
+      <c r="E178" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="3">
@@ -3378,6 +3630,9 @@
       <c r="C183" s="3" t="s">
         <v>186</v>
       </c>
+      <c r="D183" s="7">
+        <v>1641.32</v>
+      </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="3">
@@ -3386,6 +3641,12 @@
       <c r="C184" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="D184" s="7">
+        <v>1915.1</v>
+      </c>
+      <c r="E184" s="5">
+        <v>-4.9000000000000002E-2</v>
+      </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="3">
@@ -3402,6 +3663,12 @@
       <c r="C186" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="D186" s="7">
+        <v>4601.97</v>
+      </c>
+      <c r="E186" s="5">
+        <v>-5.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3">
@@ -3410,6 +3677,12 @@
       <c r="C187" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="D187" s="7">
+        <v>1005.23</v>
+      </c>
+      <c r="E187" s="5">
+        <v>-9.8000000000000004E-2</v>
+      </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="3">
@@ -3418,6 +3691,12 @@
       <c r="C188" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="D188" s="7">
+        <v>1906.41</v>
+      </c>
+      <c r="E188" s="5">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="3">
@@ -3426,6 +3705,12 @@
       <c r="C189" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="D189" s="7">
+        <v>2193.5500000000002</v>
+      </c>
+      <c r="E189" s="5">
+        <v>-4.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="3">
@@ -3434,6 +3719,12 @@
       <c r="C190" s="3" t="s">
         <v>193</v>
       </c>
+      <c r="D190" s="7">
+        <v>2369.04</v>
+      </c>
+      <c r="E190" s="5">
+        <v>-5.8999999999999997E-2</v>
+      </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="3">
@@ -3442,6 +3733,12 @@
       <c r="C191" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="D191" s="7">
+        <v>2169.5500000000002</v>
+      </c>
+      <c r="E191" s="5">
+        <v>-6.6000000000000003E-2</v>
+      </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="3">
@@ -3451,7 +3748,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:5">
       <c r="A193" s="3">
         <v>421300</v>
       </c>
@@ -3459,12 +3756,854 @@
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:5">
       <c r="A194" s="3">
         <v>422800</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>197</v>
+      </c>
+      <c r="D194" s="7">
+        <v>1117.7</v>
+      </c>
+      <c r="E194" s="5">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="3">
+        <v>430000</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195" s="7">
+        <v>41781.49</v>
+      </c>
+      <c r="E195" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="3">
+        <v>430100</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D196" s="7">
+        <v>12142.52</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="3">
+        <v>430200</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" s="7">
+        <v>3105.8</v>
+      </c>
+      <c r="E197" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="3">
+        <v>430300</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198" s="7">
+        <v>2343.1</v>
+      </c>
+      <c r="E198" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="3">
+        <v>430400</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D199" s="7">
+        <v>3508.5</v>
+      </c>
+      <c r="E199" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="3">
+        <v>430500</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200" s="7">
+        <v>2250.8090000000002</v>
+      </c>
+      <c r="E200" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="3">
+        <v>430600</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D201" s="7">
+        <v>4001.55</v>
+      </c>
+      <c r="E201" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="3">
+        <v>430700</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D202" s="7">
+        <v>3749.1</v>
+      </c>
+      <c r="E202" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="3">
+        <v>430800</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D203" s="7">
+        <v>556.67960000000005</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="3">
+        <v>430900</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204" s="7">
+        <v>1853.4835</v>
+      </c>
+      <c r="E204" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="3">
+        <v>431000</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D205" s="7">
+        <v>2503.0736999999999</v>
+      </c>
+      <c r="E205" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="3">
+        <v>431100</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D206" s="7">
+        <v>2107.6999999999998</v>
+      </c>
+      <c r="E206" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="3">
+        <v>431200</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D207" s="7">
+        <v>1671.8670999999999</v>
+      </c>
+      <c r="E207" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="3">
+        <v>431300</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D208" s="7">
+        <v>1679.9353000000001</v>
+      </c>
+      <c r="E208" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="3">
+        <v>433100</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="3">
+        <v>440000</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210" s="7">
+        <v>110760.94</v>
+      </c>
+      <c r="E210" s="5">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="3">
+        <v>440100</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D211" s="7">
+        <v>25019.11</v>
+      </c>
+      <c r="E211" s="5">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="3">
+        <v>440200</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212" s="7">
+        <v>1353.49</v>
+      </c>
+      <c r="E212" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="3">
+        <v>440300</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D213" s="7">
+        <v>27670.240000000002</v>
+      </c>
+      <c r="E213" s="5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="3">
+        <v>440400</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D214" s="7">
+        <v>3481.94</v>
+      </c>
+      <c r="E214" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="3">
+        <v>440500</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" s="7">
+        <v>2730.5765999999999</v>
+      </c>
+      <c r="E215" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="3">
+        <v>440600</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D216" s="7">
+        <v>10816.47</v>
+      </c>
+      <c r="E216" s="5">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="3">
+        <v>440700</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D217" s="7">
+        <v>3200.95</v>
+      </c>
+      <c r="E217" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="3">
+        <v>440800</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D218" s="7">
+        <v>3100.22</v>
+      </c>
+      <c r="E218" s="5">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="3">
+        <v>440900</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D219" s="7">
+        <v>3279.31</v>
+      </c>
+      <c r="E219" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="3">
+        <v>441200</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D220" s="7">
+        <v>2311.65</v>
+      </c>
+      <c r="E220" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="3">
+        <v>441300</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221" s="7">
+        <v>4221.79</v>
+      </c>
+      <c r="E221" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="3">
+        <v>441400</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D222" s="7">
+        <v>1207.98</v>
+      </c>
+      <c r="E222" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="3">
+        <v>441500</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D223" s="7">
+        <v>1123.81</v>
+      </c>
+      <c r="E223" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="3">
+        <v>441600</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224" s="7">
+        <v>1102.74</v>
+      </c>
+      <c r="E224" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="3">
+        <v>441700</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D225" s="7">
+        <v>1360.44</v>
+      </c>
+      <c r="E225" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="3">
+        <v>441800</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D226" s="7">
+        <v>1777.2</v>
+      </c>
+      <c r="E226" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="3">
+        <v>441900</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D227" s="7">
+        <v>9650.19</v>
+      </c>
+      <c r="E227" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="3">
+        <v>442000</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D228" s="7">
+        <v>3151.5913999999998</v>
+      </c>
+      <c r="E228" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="3">
+        <v>445100</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D229" s="7">
+        <v>1096.98</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="3">
+        <v>445200</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D230" s="7">
+        <v>2102.14</v>
+      </c>
+      <c r="E230" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="3">
+        <v>445300</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D231" s="7">
+        <v>1002.18</v>
+      </c>
+      <c r="E231" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="3">
+        <v>450000</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D232" s="7">
+        <v>22156.69</v>
+      </c>
+      <c r="E232" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="3">
+        <v>450100</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D233" s="7">
+        <v>4726.34</v>
+      </c>
+      <c r="E233" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="3">
+        <v>450200</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D234" s="7">
+        <v>3176.9</v>
+      </c>
+      <c r="E234" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="3">
+        <v>450300</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D235" s="7">
+        <v>2130.41</v>
+      </c>
+      <c r="E235" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="3">
+        <v>450400</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D236" s="7">
+        <v>1081.3399999999999</v>
+      </c>
+      <c r="E236" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="3">
+        <v>450500</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D237" s="7">
+        <v>1276.9100000000001</v>
+      </c>
+      <c r="E237" s="5">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="3">
+        <v>450600</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D238" s="7">
+        <v>732.81</v>
+      </c>
+      <c r="E238" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="3">
+        <v>450700</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D239" s="7">
+        <v>1388</v>
+      </c>
+      <c r="E239" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="3">
+        <v>450800</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D240" s="7">
+        <v>1352.73</v>
+      </c>
+      <c r="E240" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="3">
+        <v>450900</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D241" s="7">
+        <v>1761.08</v>
+      </c>
+      <c r="E241" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="3">
+        <v>451000</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D242" s="7">
+        <v>1333.73</v>
+      </c>
+      <c r="E242" s="5">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="3">
+        <v>451100</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D243" s="7">
+        <v>753.95100000000002</v>
+      </c>
+      <c r="E243" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="3">
+        <v>451200</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D244" s="7">
+        <v>927.71</v>
+      </c>
+      <c r="E244" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="3">
+        <v>451300</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245" s="7">
+        <v>705.72</v>
+      </c>
+      <c r="E245" s="5">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="3">
+        <v>451400</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D246" s="7">
+        <v>809</v>
+      </c>
+      <c r="E246" s="5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="3">
+        <v>460000</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D247" s="7">
+        <v>5532.39</v>
+      </c>
+      <c r="E247" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="3">
+        <v>460100</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D248" s="7">
+        <v>1791.58</v>
+      </c>
+      <c r="E248" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="3">
+        <v>460200</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D249" s="7">
+        <v>695.41</v>
+      </c>
+      <c r="E249" s="5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="3">
+        <v>460300</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="3">
+        <v>460400</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251" s="7">
+        <v>638.99</v>
+      </c>
+      <c r="E251" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D252" s="7">
+        <v>25002.79</v>
+      </c>
+      <c r="E252" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="3">
+        <v>510000</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D253" s="7">
+        <v>48598.76</v>
+      </c>
+      <c r="E253" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="3">
+        <v>510100</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D254" s="7">
+        <v>17716.68</v>
+      </c>
+      <c r="E254" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="3">
+        <v>510300</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46E51B-CE27-AD46-8D51-1FF4F65F4FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E3C1A-9036-2D4F-A14D-E7485358FF6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>行政区划代码</t>
   </si>
@@ -811,6 +811,345 @@
   </si>
   <si>
     <t>自贡市</t>
+  </si>
+  <si>
+    <t>攀枝花市</t>
+  </si>
+  <si>
+    <t>泸州市</t>
+  </si>
+  <si>
+    <t>德阳市</t>
+  </si>
+  <si>
+    <t>绵阳市</t>
+  </si>
+  <si>
+    <t>广元市</t>
+  </si>
+  <si>
+    <t>遂宁市</t>
+  </si>
+  <si>
+    <t>内江市</t>
+  </si>
+  <si>
+    <t>乐山市</t>
+  </si>
+  <si>
+    <t>南充市</t>
+  </si>
+  <si>
+    <t>眉山市</t>
+  </si>
+  <si>
+    <t>宜宾市</t>
+  </si>
+  <si>
+    <t>广安市</t>
+  </si>
+  <si>
+    <t>达州市</t>
+  </si>
+  <si>
+    <t>雅安市</t>
+  </si>
+  <si>
+    <t>巴中市</t>
+  </si>
+  <si>
+    <t>资阳市</t>
+  </si>
+  <si>
+    <t>阿坝藏族羌族自治州</t>
+  </si>
+  <si>
+    <t>甘孜藏族自治州</t>
+  </si>
+  <si>
+    <t>凉山彝族自治州</t>
+  </si>
+  <si>
+    <t>贵州省</t>
+  </si>
+  <si>
+    <t>贵阳市</t>
+  </si>
+  <si>
+    <t>六盘水市</t>
+  </si>
+  <si>
+    <t>遵义市</t>
+  </si>
+  <si>
+    <t>安顺市</t>
+  </si>
+  <si>
+    <t>毕节市</t>
+  </si>
+  <si>
+    <t>铜仁市</t>
+  </si>
+  <si>
+    <t>黔西南布依族苗族自治州</t>
+  </si>
+  <si>
+    <t>黔东南苗族侗族自治州</t>
+  </si>
+  <si>
+    <t>黔南布依族苗族自治州</t>
+  </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>昆明市</t>
+  </si>
+  <si>
+    <t>曲靖市</t>
+  </si>
+  <si>
+    <t>玉溪市</t>
+  </si>
+  <si>
+    <t>保山市</t>
+  </si>
+  <si>
+    <t>昭通市</t>
+  </si>
+  <si>
+    <t>丽江市</t>
+  </si>
+  <si>
+    <t>普洱市</t>
+  </si>
+  <si>
+    <t>临沧市</t>
+  </si>
+  <si>
+    <t>楚雄彝族自治州</t>
+  </si>
+  <si>
+    <t>红河哈尼族彝族自治州</t>
+  </si>
+  <si>
+    <t>文山壮族苗族自治州</t>
+  </si>
+  <si>
+    <t>西双版纳傣族自治州</t>
+  </si>
+  <si>
+    <t>大理白族自治州</t>
+  </si>
+  <si>
+    <t>怒江傈僳族自治州</t>
+  </si>
+  <si>
+    <t>迪庆藏族自治州</t>
+  </si>
+  <si>
+    <t>德宏傣族景颇族自治州</t>
+  </si>
+  <si>
+    <t>西藏自治区</t>
+  </si>
+  <si>
+    <t>拉萨市</t>
+  </si>
+  <si>
+    <t>日喀则市</t>
+  </si>
+  <si>
+    <t>昌都市</t>
+  </si>
+  <si>
+    <t>林芝市</t>
+  </si>
+  <si>
+    <t>山南市</t>
+  </si>
+  <si>
+    <t>那曲市</t>
+  </si>
+  <si>
+    <t>阿里地区</t>
+  </si>
+  <si>
+    <t>陕西省</t>
+  </si>
+  <si>
+    <t>西安市</t>
+  </si>
+  <si>
+    <t>铜川市</t>
+  </si>
+  <si>
+    <t>宝鸡市</t>
+  </si>
+  <si>
+    <t>咸阳市</t>
+  </si>
+  <si>
+    <t>渭南市</t>
+  </si>
+  <si>
+    <t>延安市</t>
+  </si>
+  <si>
+    <t>汉中市</t>
+  </si>
+  <si>
+    <t>榆林市</t>
+  </si>
+  <si>
+    <t>安康市</t>
+  </si>
+  <si>
+    <t>商洛市</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+  </si>
+  <si>
+    <t>兰州市</t>
+  </si>
+  <si>
+    <t>青海省</t>
+  </si>
+  <si>
+    <t>宁夏回族自治区</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>台湾省</t>
+  </si>
+  <si>
+    <t>香港特别行政区</t>
+  </si>
+  <si>
+    <t>澳门特别行政区</t>
+  </si>
+  <si>
+    <t>西宁市</t>
+  </si>
+  <si>
+    <t>银川市</t>
+  </si>
+  <si>
+    <t>乌鲁木齐市</t>
+  </si>
+  <si>
+    <t>嘉峪关市</t>
+  </si>
+  <si>
+    <t>金昌市</t>
+  </si>
+  <si>
+    <t>白银市</t>
+  </si>
+  <si>
+    <t>天水市</t>
+  </si>
+  <si>
+    <t>武威市</t>
+  </si>
+  <si>
+    <t>张掖市</t>
+  </si>
+  <si>
+    <t>平凉市</t>
+  </si>
+  <si>
+    <t>酒泉市</t>
+  </si>
+  <si>
+    <t>庆阳市</t>
+  </si>
+  <si>
+    <t>定西市</t>
+  </si>
+  <si>
+    <t>陇南市</t>
+  </si>
+  <si>
+    <t>临夏回族自治州</t>
+  </si>
+  <si>
+    <t>甘南藏族自治州</t>
+  </si>
+  <si>
+    <t>海东市</t>
+  </si>
+  <si>
+    <t>海北藏族自治州</t>
+  </si>
+  <si>
+    <t>黄南藏族自治州</t>
+  </si>
+  <si>
+    <t>海南藏族自治州</t>
+  </si>
+  <si>
+    <t>果洛藏族自治州</t>
+  </si>
+  <si>
+    <t>玉树藏族自治州</t>
+  </si>
+  <si>
+    <t>海西蒙古族藏族自治州</t>
+  </si>
+  <si>
+    <t>石嘴山市</t>
+  </si>
+  <si>
+    <t>吴忠市</t>
+  </si>
+  <si>
+    <t>固原市</t>
+  </si>
+  <si>
+    <t>中卫市</t>
+  </si>
+  <si>
+    <t>克拉玛依市</t>
+  </si>
+  <si>
+    <t>吐鲁番市</t>
+  </si>
+  <si>
+    <t>哈密市</t>
+  </si>
+  <si>
+    <t>昌吉回族自治州</t>
+  </si>
+  <si>
+    <t>博尔塔拉蒙古自治州</t>
+  </si>
+  <si>
+    <t>巴音郭楞蒙古自治州</t>
+  </si>
+  <si>
+    <t>阿克苏地区</t>
+  </si>
+  <si>
+    <t>克孜勒苏柯尔克孜自治州</t>
+  </si>
+  <si>
+    <t>喀什地区</t>
+  </si>
+  <si>
+    <t>和田地区</t>
+  </si>
+  <si>
+    <t>伊犁哈萨克自治州</t>
+  </si>
+  <si>
+    <t>塔城地区</t>
+  </si>
+  <si>
+    <t>阿勒泰地区</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D367" sqref="D367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1923,6 +2262,12 @@
       <c r="C51" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D51" s="7">
+        <v>837.7</v>
+      </c>
+      <c r="E51" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
@@ -2071,6 +2416,12 @@
       <c r="C65" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D65" s="7">
+        <v>726.86</v>
+      </c>
+      <c r="E65" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
@@ -4605,6 +4956,1295 @@
       <c r="C255" s="3" t="s">
         <v>258</v>
       </c>
+      <c r="D255" s="7">
+        <v>1458.44</v>
+      </c>
+      <c r="E255" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="3">
+        <v>510400</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D256" s="7">
+        <v>1040.8243</v>
+      </c>
+      <c r="E256" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="3">
+        <v>510500</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D257" s="7">
+        <v>2157.1999999999998</v>
+      </c>
+      <c r="E257" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="3">
+        <v>510600</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D258" s="7">
+        <v>2404.125</v>
+      </c>
+      <c r="E258" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="3">
+        <v>510700</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D259" s="7">
+        <v>3010.08</v>
+      </c>
+      <c r="E259" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="3">
+        <v>510800</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D260" s="7">
+        <v>1008.01</v>
+      </c>
+      <c r="E260" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="3">
+        <v>510900</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D261" s="7">
+        <v>1403.18</v>
+      </c>
+      <c r="E261" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="3">
+        <v>511000</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D262" s="7">
+        <v>1465.88</v>
+      </c>
+      <c r="E262" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="3">
+        <v>511100</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D263" s="7">
+        <v>2003.43</v>
+      </c>
+      <c r="E263" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="3">
+        <v>511300</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D264" s="7">
+        <v>2401.08</v>
+      </c>
+      <c r="E264" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="3">
+        <v>511400</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D265" s="7">
+        <v>1423.74</v>
+      </c>
+      <c r="E265" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="3">
+        <v>511500</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D266" s="7">
+        <v>2802.1248999999998</v>
+      </c>
+      <c r="E266" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="3">
+        <v>511600</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D267" s="7">
+        <v>1301.5999999999999</v>
+      </c>
+      <c r="E267" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="3">
+        <v>511700</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D268" s="7">
+        <v>2118</v>
+      </c>
+      <c r="E268" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="3">
+        <v>511800</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D269" s="7">
+        <v>754.59</v>
+      </c>
+      <c r="E269" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="3">
+        <v>511900</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D270" s="7">
+        <v>766.99</v>
+      </c>
+      <c r="E270" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="3">
+        <v>512000</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D271" s="7">
+        <v>807.5</v>
+      </c>
+      <c r="E271" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="3">
+        <v>513200</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D272" s="7">
+        <v>411.75</v>
+      </c>
+      <c r="E272" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="3">
+        <v>513300</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D273" s="7">
+        <v>410.61</v>
+      </c>
+      <c r="E273" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="3">
+        <v>513400</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D274" s="7">
+        <v>1733.15</v>
+      </c>
+      <c r="E274" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="3">
+        <v>520000</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D275" s="7">
+        <v>11540.08</v>
+      </c>
+      <c r="E275" s="5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="3">
+        <v>520100</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D276" s="7">
+        <v>4311.6499999999996</v>
+      </c>
+      <c r="E276" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="3">
+        <v>520200</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D277" s="7">
+        <v>1339.62</v>
+      </c>
+      <c r="E277" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="3">
+        <v>520300</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D278" s="7">
+        <v>3720.05</v>
+      </c>
+      <c r="E278" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="3">
+        <v>520400</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D279" s="7">
+        <v>966.74</v>
+      </c>
+      <c r="E279" s="5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="3">
+        <v>520500</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D280" s="7">
+        <v>2020.39</v>
+      </c>
+      <c r="E280" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="3">
+        <v>520600</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D281" s="7">
+        <v>1327.79</v>
+      </c>
+      <c r="E281" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="3">
+        <v>522300</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D282" s="7">
+        <v>1353.4</v>
+      </c>
+      <c r="E282" s="5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="3">
+        <v>522600</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D283" s="7">
+        <v>1191.52</v>
+      </c>
+      <c r="E283" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="3">
+        <v>522700</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D284" s="7">
+        <v>1595.4</v>
+      </c>
+      <c r="E284" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="3">
+        <v>530000</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D285" s="7">
+        <v>24521.9</v>
+      </c>
+      <c r="E285" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="3">
+        <v>530100</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D286" s="7">
+        <v>6733.79</v>
+      </c>
+      <c r="E286" s="5">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="3">
+        <v>530300</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D287" s="7">
+        <v>2959.35</v>
+      </c>
+      <c r="E287" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="3">
+        <v>530400</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D288" s="7">
+        <v>2058.1</v>
+      </c>
+      <c r="E288" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="3">
+        <v>530500</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D289" s="7">
+        <v>1052.5799</v>
+      </c>
+      <c r="E289" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="3">
+        <v>530600</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="3">
+        <v>530700</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D291" s="7">
+        <v>521.75</v>
+      </c>
+      <c r="E291" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="3">
+        <v>530800</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D292" s="7">
+        <v>945.42</v>
+      </c>
+      <c r="E292" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="3">
+        <v>530900</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D293" s="7">
+        <v>821.32</v>
+      </c>
+      <c r="E293" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="3">
+        <v>532300</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D294" s="7">
+        <v>1372.16</v>
+      </c>
+      <c r="E294" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="3">
+        <v>532500</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D295" s="7">
+        <v>2417.4699999999998</v>
+      </c>
+      <c r="E295" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="3">
+        <v>532600</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="3">
+        <v>532800</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D297" s="7">
+        <v>604.17999999999995</v>
+      </c>
+      <c r="E297" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="3">
+        <v>532900</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="3">
+        <v>533100</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D299" s="7">
+        <v>575.53620000000001</v>
+      </c>
+      <c r="E299" s="5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="3">
+        <v>533300</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D300" s="7">
+        <v>210.73</v>
+      </c>
+      <c r="E300" s="5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="3">
+        <v>533400</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="3">
+        <v>540000</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D302" s="7">
+        <v>1902.74</v>
+      </c>
+      <c r="E302" s="5">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="3">
+        <v>540100</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="3">
+        <v>540200</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="3">
+        <v>540300</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="3">
+        <v>540400</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="3">
+        <v>540500</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="3">
+        <v>540600</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="3">
+        <v>542500</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="3">
+        <v>610000</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D310" s="7">
+        <v>26181.86</v>
+      </c>
+      <c r="E310" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="3">
+        <v>610100</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D311" s="7">
+        <v>10020.39</v>
+      </c>
+      <c r="E311" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="3">
+        <v>610200</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D312" s="7">
+        <v>381.75</v>
+      </c>
+      <c r="E312" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="3">
+        <v>610300</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313" s="7">
+        <v>2276.9499999999998</v>
+      </c>
+      <c r="E313" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="3">
+        <v>610400</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D314" s="7">
+        <v>2204.81</v>
+      </c>
+      <c r="E314" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="3">
+        <v>610500</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D315" s="7">
+        <v>1866.27</v>
+      </c>
+      <c r="E315" s="5">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="3">
+        <v>610600</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D316" s="7">
+        <v>1601.48</v>
+      </c>
+      <c r="E316" s="5">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="3">
+        <v>610700</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D317" s="7">
+        <v>1593.4</v>
+      </c>
+      <c r="E317" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="3">
+        <v>610800</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D318" s="7">
+        <v>4089.66</v>
+      </c>
+      <c r="E318" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="3">
+        <v>610900</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D319" s="7">
+        <v>1088.78</v>
+      </c>
+      <c r="E319" s="5">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="3">
+        <v>611000</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D320" s="7">
+        <v>739.46</v>
+      </c>
+      <c r="E320" s="5">
+        <v>-0.112</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="3">
+        <v>620000</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D321" s="7">
+        <v>9016.7000000000007</v>
+      </c>
+      <c r="E321" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="3">
+        <v>620100</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D322" s="7">
+        <v>2886.74</v>
+      </c>
+      <c r="E322" s="5">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="3">
+        <v>620200</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D323" s="7">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="E323" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="3">
+        <v>620300</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D324" s="7">
+        <v>358.62</v>
+      </c>
+      <c r="E324" s="5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="3">
+        <v>620400</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D325" s="7">
+        <v>497.27</v>
+      </c>
+      <c r="E325" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="3">
+        <v>620500</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D326" s="7">
+        <v>666.9</v>
+      </c>
+      <c r="E326" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="3">
+        <v>620600</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="3">
+        <v>620700</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="3">
+        <v>620800</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="3">
+        <v>620900</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="3">
+        <v>621000</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="3">
+        <v>621100</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="3">
+        <v>621200</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="3">
+        <v>622900</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="3">
+        <v>623000</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="3">
+        <v>630000</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D336" s="7">
+        <v>3005.92</v>
+      </c>
+      <c r="E336" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="3">
+        <v>630100</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="3">
+        <v>630200</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="3">
+        <v>632200</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="3">
+        <v>632300</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="3">
+        <v>632500</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="3">
+        <v>632600</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="3">
+        <v>632700</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="3">
+        <v>632800</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="3">
+        <v>640000</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D345" s="7">
+        <v>3920.55</v>
+      </c>
+      <c r="E345" s="5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="3">
+        <v>640100</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="3">
+        <v>640200</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="3">
+        <v>640300</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="3">
+        <v>640400</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="3">
+        <v>640500</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="3">
+        <v>650000</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D351" s="7">
+        <v>13797.58</v>
+      </c>
+      <c r="E351" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="3">
+        <v>650100</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="3">
+        <v>650200</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="3">
+        <v>650400</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="3">
+        <v>650500</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="3">
+        <v>652300</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="3">
+        <v>652700</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="3">
+        <v>652800</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="3">
+        <v>652900</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="3">
+        <v>653000</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="3">
+        <v>653100</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="3">
+        <v>653200</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="3">
+        <v>654000</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="3">
+        <v>654200</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="3">
+        <v>654300</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="3">
+        <v>710000</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="3">
+        <v>810000</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="3">
+        <v>820000</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C368" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891EAEED-DB42-F54F-8AD7-759A2B7598CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83053BC1-F07C-C749-A96F-E4C025AC3E65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:E368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83053BC1-F07C-C749-A96F-E4C025AC3E65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C40DF6-EAC4-AA40-9A44-9D0905A11271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:E368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C40DF6-EAC4-AA40-9A44-9D0905A11271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8ADCC6-7FBC-1842-9225-A6D2778F807D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -1161,7 +1161,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1185,11 +1185,6 @@
       <b/>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="Songti SC Regular"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
       <name val="Songti SC Regular"/>
     </font>
     <font>
@@ -1220,7 +1215,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1241,20 +1236,16 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1573,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1602,1057 +1593,1168 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" s="11" customFormat="1">
+      <c r="A2" s="8">
         <v>110000</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9">
         <v>36102.6</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="12" customFormat="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" s="11" customFormat="1">
+      <c r="A3" s="8">
         <v>120000</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
         <v>14083.73</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="12" customFormat="1">
-      <c r="A4" s="9">
+    <row r="4" spans="1:5" s="11" customFormat="1">
+      <c r="A4" s="8">
         <v>130000</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9">
         <v>36206.9</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:5" s="11" customFormat="1">
+      <c r="A5" s="8">
         <v>130100</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>5935.1</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:5" s="11" customFormat="1">
+      <c r="A6" s="8">
         <v>130200</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>7210.9</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:5" s="11" customFormat="1">
+      <c r="A7" s="8">
         <v>130300</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1685.8</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:5" s="11" customFormat="1">
+      <c r="A8" s="8">
         <v>130400</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3636.6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1">
-      <c r="A9" s="9">
+    <row r="9" spans="1:5" s="11" customFormat="1">
+      <c r="A9" s="8">
         <v>130500</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>2200.4</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9">
+    <row r="10" spans="1:5" s="8" customFormat="1">
+      <c r="A10" s="8">
         <v>130600</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>3353.3</v>
       </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
-      <c r="A11" s="9">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1">
+      <c r="A11" s="8">
         <v>130700</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>1600.1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="12" customFormat="1">
-      <c r="A12" s="9">
+    <row r="12" spans="1:5" s="11" customFormat="1">
+      <c r="A12" s="8">
         <v>130800</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1550.3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="12" customFormat="1">
-      <c r="A13" s="9">
+    <row r="13" spans="1:5" s="11" customFormat="1">
+      <c r="A13" s="8">
         <v>130900</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>3699.9</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="12" customFormat="1">
-      <c r="A14" s="9">
+    <row r="14" spans="1:5" s="11" customFormat="1">
+      <c r="A14" s="8">
         <v>131000</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>3301.1</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="12" customFormat="1">
-      <c r="A15" s="9">
+    <row r="15" spans="1:5" s="11" customFormat="1">
+      <c r="A15" s="8">
         <v>131100</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1560.2</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="12" customFormat="1">
-      <c r="A16" s="9">
+    <row r="16" spans="1:5" s="11" customFormat="1">
+      <c r="A16" s="8">
         <v>140000</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9">
         <v>17651.93</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
+    <row r="17" spans="1:5" s="11" customFormat="1">
+      <c r="A17" s="8">
         <v>140100</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4">
-        <v>4153.3</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="9">
+        <v>4153.32</v>
+      </c>
+      <c r="E17" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
+    <row r="18" spans="1:5" s="11" customFormat="1">
+      <c r="A18" s="8">
         <v>140200</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
         <v>1369.9</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5" s="11" customFormat="1">
+      <c r="A19" s="8">
         <v>140300</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="9">
         <v>742.2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1">
-      <c r="A20" s="2">
+    <row r="20" spans="1:5" s="11" customFormat="1">
+      <c r="A20" s="8">
         <v>140400</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="9">
         <v>1711.6</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5" s="11" customFormat="1">
+      <c r="A21" s="8">
         <v>140500</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="9">
         <v>1425.7</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="10">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
+    <row r="22" spans="1:5" s="11" customFormat="1">
+      <c r="A22" s="8">
         <v>140600</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="9">
         <v>1100.5</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
+    <row r="23" spans="1:5" s="11" customFormat="1">
+      <c r="A23" s="8">
         <v>140700</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
         <v>1468.8</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
+    <row r="24" spans="1:5" s="11" customFormat="1">
+      <c r="A24" s="8">
         <v>140800</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="9">
         <v>1643.6</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
+    <row r="25" spans="1:5" s="11" customFormat="1">
+      <c r="A25" s="8">
         <v>140900</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="9">
         <v>1034.5999999999999</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
+    <row r="26" spans="1:5" s="11" customFormat="1">
+      <c r="A26" s="8">
         <v>141000</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="9">
         <v>1505.2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
+    <row r="27" spans="1:5" s="11" customFormat="1">
+      <c r="A27" s="8">
         <v>141100</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="9">
         <v>1538.04</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="10">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="12" customFormat="1">
-      <c r="A28" s="9">
+    <row r="28" spans="1:5" s="11" customFormat="1">
+      <c r="A28" s="8">
         <v>150000</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10">
+      <c r="C28" s="8"/>
+      <c r="D28" s="9">
         <v>17359.8</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
+    <row r="29" spans="1:5" s="11" customFormat="1">
+      <c r="A29" s="8">
         <v>150100</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="4">
-        <v>2800.7</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="9">
+        <v>2800.68</v>
+      </c>
+      <c r="E29" s="10">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
+    <row r="30" spans="1:5" s="11" customFormat="1">
+      <c r="A30" s="8">
         <v>150200</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="9">
         <v>2787.4</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1">
-      <c r="A31" s="2">
+    <row r="31" spans="1:5" s="11" customFormat="1">
+      <c r="A31" s="8">
         <v>150300</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="9">
         <v>563.14</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="10">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
+    <row r="32" spans="1:5" s="11" customFormat="1">
+      <c r="A32" s="8">
         <v>150400</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="9">
         <v>1763.6</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="10">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
+    <row r="33" spans="1:5" s="11" customFormat="1">
+      <c r="A33" s="8">
         <v>150500</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="9">
         <v>1276.6400000000001</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="10">
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
+    <row r="34" spans="1:5" s="11" customFormat="1">
+      <c r="A34" s="8">
         <v>150600</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="9">
         <v>3533.66</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="10">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
+    <row r="35" spans="1:5" s="11" customFormat="1">
+      <c r="A35" s="8">
         <v>150700</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="9">
         <v>1172.2</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="10">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
+    <row r="36" spans="1:5" s="11" customFormat="1">
+      <c r="A36" s="8">
         <v>150800</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="9">
         <v>874</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="10">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2">
+    <row r="37" spans="1:5" s="11" customFormat="1">
+      <c r="A37" s="8">
         <v>150900</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="9">
         <v>826.9</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="10">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
+    <row r="38" spans="1:5" s="11" customFormat="1">
+      <c r="A38" s="8">
         <v>152200</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="9">
         <v>547.91999999999996</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
+    <row r="39" spans="1:5" s="11" customFormat="1">
+      <c r="A39" s="8">
         <v>152500</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="9">
         <v>839.84</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
+    <row r="40" spans="1:5" s="11" customFormat="1">
+      <c r="A40" s="8">
         <v>152900</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="4">
-        <v>304.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="12" customFormat="1">
-      <c r="A41" s="9">
+      <c r="D40" s="9">
+        <v>304.8</v>
+      </c>
+      <c r="E40" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="11" customFormat="1">
+      <c r="A41" s="8">
         <v>210000</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10">
+      <c r="C41" s="8"/>
+      <c r="D41" s="9">
         <v>25115</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
+    <row r="42" spans="1:5" s="11" customFormat="1">
+      <c r="A42" s="8">
         <v>210100</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="9">
         <v>6571.6</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2">
+    <row r="43" spans="1:5" s="11" customFormat="1">
+      <c r="A43" s="8">
         <v>210200</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="9">
         <v>7030.4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2">
+    <row r="44" spans="1:5" s="11" customFormat="1">
+      <c r="A44" s="8">
         <v>210300</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="9">
         <v>1738.78</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2">
+    <row r="45" spans="1:5" s="11" customFormat="1">
+      <c r="A45" s="8">
         <v>210400</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="9">
         <v>827.8</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="10">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2">
+    <row r="46" spans="1:5" s="11" customFormat="1">
+      <c r="A46" s="8">
         <v>210500</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="9">
         <v>810.4</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2">
+    <row r="47" spans="1:5" s="11" customFormat="1">
+      <c r="A47" s="8">
         <v>210600</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="9">
         <v>779.4</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2">
+    <row r="48" spans="1:5" s="11" customFormat="1">
+      <c r="A48" s="8">
         <v>210700</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="9">
         <v>1072.2</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="10">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2">
+    <row r="49" spans="1:5" s="11" customFormat="1">
+      <c r="A49" s="8">
         <v>210800</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="9">
         <v>1325.5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="10">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2">
+    <row r="50" spans="1:5" s="11" customFormat="1">
+      <c r="A50" s="8">
         <v>210900</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="9">
         <v>504.6</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="10">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2">
+    <row r="51" spans="1:5" s="11" customFormat="1">
+      <c r="A51" s="8">
         <v>211000</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="9">
         <v>837.7</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2">
+    <row r="52" spans="1:5" s="11" customFormat="1">
+      <c r="A52" s="8">
         <v>211100</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="9">
         <v>1303.5999999999999</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="10">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
+    <row r="53" spans="1:5" s="11" customFormat="1">
+      <c r="A53" s="8">
         <v>211200</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="9">
         <v>663.1</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="10">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2">
+    <row r="54" spans="1:5" s="11" customFormat="1">
+      <c r="A54" s="8">
         <v>211300</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="9">
         <v>875.6</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2">
+    <row r="55" spans="1:5" s="11" customFormat="1">
+      <c r="A55" s="8">
         <v>211400</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="9">
         <v>770.4</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="10">
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="12" customFormat="1">
-      <c r="A56" s="9">
+    <row r="56" spans="1:5" s="11" customFormat="1">
+      <c r="A56" s="8">
         <v>220000</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10">
+      <c r="C56" s="8"/>
+      <c r="D56" s="9">
         <v>12311.32</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2">
+    <row r="57" spans="1:5" s="11" customFormat="1">
+      <c r="A57" s="8">
         <v>220100</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="9">
         <v>6638.03</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2">
+    <row r="58" spans="1:5" s="11" customFormat="1">
+      <c r="A58" s="8">
         <v>220200</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2">
+      <c r="D58" s="8"/>
+      <c r="E58" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="11" customFormat="1">
+      <c r="A59" s="8">
         <v>220300</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2">
+      <c r="D59" s="8"/>
+      <c r="E59" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="11" customFormat="1">
+      <c r="A60" s="8">
         <v>220400</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2">
+      <c r="D60" s="8"/>
+      <c r="E60" s="10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="11" customFormat="1">
+      <c r="A61" s="8">
         <v>220500</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2">
+      <c r="D61" s="8"/>
+      <c r="E61" s="10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="11" customFormat="1">
+      <c r="A62" s="8">
         <v>220600</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2">
+      <c r="D62" s="8"/>
+      <c r="E62" s="10">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="11" customFormat="1">
+      <c r="A63" s="8">
         <v>220700</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2">
+      <c r="D63" s="8"/>
+      <c r="E63" s="10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="11" customFormat="1">
+      <c r="A64" s="8">
         <v>220800</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2">
+      <c r="D64" s="8"/>
+      <c r="E64" s="10">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="11" customFormat="1">
+      <c r="A65" s="8">
         <v>222400</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="9">
         <v>726.86</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="12" customFormat="1">
-      <c r="A66" s="9">
+    <row r="66" spans="1:5" s="11" customFormat="1">
+      <c r="A66" s="8">
         <v>230000</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10">
+      <c r="C66" s="8"/>
+      <c r="D66" s="9">
         <v>13698.5</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2">
+    <row r="67" spans="1:5" s="11" customFormat="1">
+      <c r="A67" s="8">
         <v>230100</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="9">
         <v>5183.8</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2">
+    <row r="68" spans="1:5" s="11" customFormat="1">
+      <c r="A68" s="8">
         <v>230200</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="9">
         <v>1200.4000000000001</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2">
+    <row r="69" spans="1:5" s="11" customFormat="1">
+      <c r="A69" s="8">
         <v>230300</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="9">
         <v>572.4</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2">
+    <row r="70" spans="1:5" s="11" customFormat="1">
+      <c r="A70" s="8">
         <v>230400</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2">
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" s="11" customFormat="1">
+      <c r="A71" s="8">
         <v>230500</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2">
+      <c r="D71" s="9">
+        <v>493.9</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="11" customFormat="1">
+      <c r="A72" s="8">
         <v>230600</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2">
+      <c r="D72" s="9"/>
+      <c r="E72" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="11" customFormat="1">
+      <c r="A73" s="8">
         <v>230700</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="4">
-        <v>295.18740000000003</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="D73" s="9">
+        <v>295.19</v>
+      </c>
+      <c r="E73" s="10">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2">
+    <row r="74" spans="1:5" s="11" customFormat="1">
+      <c r="A74" s="8">
         <v>230800</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="9">
         <v>811.8</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2">
+    <row r="75" spans="1:5" s="11" customFormat="1">
+      <c r="A75" s="8">
         <v>230900</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2">
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" s="11" customFormat="1">
+      <c r="A76" s="8">
         <v>231000</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2">
+      <c r="D76" s="9">
+        <v>831.74</v>
+      </c>
+      <c r="E76" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="11" customFormat="1">
+      <c r="A77" s="8">
         <v>231100</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="9">
         <v>614.4</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2">
+    <row r="78" spans="1:5" s="11" customFormat="1">
+      <c r="A78" s="8">
         <v>231200</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2">
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" s="11" customFormat="1">
+      <c r="A79" s="8">
         <v>232700</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" s="12" customFormat="1">
-      <c r="A80" s="9">
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" s="11" customFormat="1">
+      <c r="A80" s="8">
         <v>310000</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="10">
+      <c r="C80" s="8"/>
+      <c r="D80" s="9">
         <v>38700.58</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="10">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="12" customFormat="1">
-      <c r="A81" s="9">
+    <row r="81" spans="1:5" s="11" customFormat="1">
+      <c r="A81" s="8">
         <v>320000</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="10">
+      <c r="C81" s="8"/>
+      <c r="D81" s="9">
         <v>102718.98</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -2838,198 +2940,198 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="12" customFormat="1">
-      <c r="A95" s="9">
+    <row r="95" spans="1:5" s="11" customFormat="1">
+      <c r="A95" s="8">
         <v>330000</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="10">
+      <c r="C95" s="8"/>
+      <c r="D95" s="9">
         <v>64613.34</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="12" customFormat="1">
-      <c r="A96" s="9">
+    <row r="96" spans="1:5" s="11" customFormat="1">
+      <c r="A96" s="8">
         <v>330100</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="8"/>
+      <c r="C96" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>16105.83</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="12" customFormat="1">
-      <c r="A97" s="9">
+    <row r="97" spans="1:5" s="11" customFormat="1">
+      <c r="A97" s="8">
         <v>330200</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9" t="s">
+      <c r="B97" s="8"/>
+      <c r="C97" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>12408.66</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="12" customFormat="1">
-      <c r="A98" s="9">
+    <row r="98" spans="1:5" s="11" customFormat="1">
+      <c r="A98" s="8">
         <v>330300</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9" t="s">
+      <c r="B98" s="8"/>
+      <c r="C98" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>6870.86</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="12" customFormat="1">
-      <c r="A99" s="9">
+    <row r="99" spans="1:5" s="11" customFormat="1">
+      <c r="A99" s="8">
         <v>330400</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9" t="s">
+      <c r="B99" s="8"/>
+      <c r="C99" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>5509.52</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="12" customFormat="1">
-      <c r="A100" s="9">
+    <row r="100" spans="1:5" s="11" customFormat="1">
+      <c r="A100" s="8">
         <v>330500</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="8"/>
+      <c r="C100" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>3201.41</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="12" customFormat="1">
-      <c r="A101" s="9">
+    <row r="101" spans="1:5" s="11" customFormat="1">
+      <c r="A101" s="8">
         <v>330600</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9" t="s">
+      <c r="B101" s="8"/>
+      <c r="C101" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>6000.66</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="12" customFormat="1">
-      <c r="A102" s="9">
+    <row r="102" spans="1:5" s="11" customFormat="1">
+      <c r="A102" s="8">
         <v>330700</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9" t="s">
+      <c r="B102" s="8"/>
+      <c r="C102" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="9">
         <v>4703.95</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="12" customFormat="1">
-      <c r="A103" s="9">
+    <row r="103" spans="1:5" s="11" customFormat="1">
+      <c r="A103" s="8">
         <v>330800</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9" t="s">
+      <c r="B103" s="8"/>
+      <c r="C103" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="9">
         <v>1639.12</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="12" customFormat="1">
-      <c r="A104" s="9">
+    <row r="104" spans="1:5" s="11" customFormat="1">
+      <c r="A104" s="8">
         <v>330900</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9" t="s">
+      <c r="B104" s="8"/>
+      <c r="C104" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="9">
         <v>1512.11</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="10">
         <v>0.12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="12" customFormat="1">
-      <c r="A105" s="9">
+    <row r="105" spans="1:5" s="11" customFormat="1">
+      <c r="A105" s="8">
         <v>331000</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9" t="s">
+      <c r="B105" s="8"/>
+      <c r="C105" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="9">
         <v>5262.72</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="12" customFormat="1">
-      <c r="A106" s="9">
+    <row r="106" spans="1:5" s="11" customFormat="1">
+      <c r="A106" s="8">
         <v>331100</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9" t="s">
+      <c r="B106" s="8"/>
+      <c r="C106" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="9">
         <v>1540.02</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="12" customFormat="1">
-      <c r="A107" s="9">
+    <row r="107" spans="1:5" s="11" customFormat="1">
+      <c r="A107" s="8">
         <v>340000</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="10">
+      <c r="C107" s="8"/>
+      <c r="D107" s="9">
         <v>38680.6</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
@@ -3257,18 +3359,18 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="12" customFormat="1">
-      <c r="A124" s="9">
+    <row r="124" spans="1:5" s="11" customFormat="1">
+      <c r="A124" s="8">
         <v>350000</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="10">
+      <c r="C124" s="8"/>
+      <c r="D124" s="9">
         <v>43903.89</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -3392,198 +3494,198 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="12" customFormat="1">
-      <c r="A134" s="9">
+    <row r="134" spans="1:5" s="11" customFormat="1">
+      <c r="A134" s="8">
         <v>360000</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="10">
+      <c r="C134" s="8"/>
+      <c r="D134" s="9">
         <v>25691.5</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="12" customFormat="1">
-      <c r="A135" s="9">
+    <row r="135" spans="1:5" s="11" customFormat="1">
+      <c r="A135" s="8">
         <v>360100</v>
       </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9" t="s">
+      <c r="B135" s="8"/>
+      <c r="C135" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="9">
         <v>5745.51</v>
       </c>
-      <c r="E135" s="11">
+      <c r="E135" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="12" customFormat="1">
-      <c r="A136" s="9">
+    <row r="136" spans="1:5" s="11" customFormat="1">
+      <c r="A136" s="8">
         <v>360200</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9" t="s">
+      <c r="B136" s="8"/>
+      <c r="C136" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="9">
         <v>957.14</v>
       </c>
-      <c r="E136" s="11">
+      <c r="E136" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="12" customFormat="1">
-      <c r="A137" s="9">
+    <row r="137" spans="1:5" s="11" customFormat="1">
+      <c r="A137" s="8">
         <v>360300</v>
       </c>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9" t="s">
+      <c r="B137" s="8"/>
+      <c r="C137" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="9">
         <v>963.6</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="12" customFormat="1">
-      <c r="A138" s="9">
+    <row r="138" spans="1:5" s="11" customFormat="1">
+      <c r="A138" s="8">
         <v>360400</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9" t="s">
+      <c r="B138" s="8"/>
+      <c r="C138" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D138" s="10">
+      <c r="D138" s="9">
         <v>3240.5</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="12" customFormat="1">
-      <c r="A139" s="9">
+    <row r="139" spans="1:5" s="11" customFormat="1">
+      <c r="A139" s="8">
         <v>360500</v>
       </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9" t="s">
+      <c r="B139" s="8"/>
+      <c r="C139" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="9">
         <v>1001.33</v>
       </c>
-      <c r="E139" s="11">
+      <c r="E139" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="12" customFormat="1">
-      <c r="A140" s="9">
+    <row r="140" spans="1:5" s="11" customFormat="1">
+      <c r="A140" s="8">
         <v>360600</v>
       </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9" t="s">
+      <c r="B140" s="8"/>
+      <c r="C140" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="9">
         <v>982.66</v>
       </c>
-      <c r="E140" s="11">
+      <c r="E140" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="12" customFormat="1">
-      <c r="A141" s="9">
+    <row r="141" spans="1:5" s="11" customFormat="1">
+      <c r="A141" s="8">
         <v>360700</v>
       </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9" t="s">
+      <c r="B141" s="8"/>
+      <c r="C141" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="9">
         <v>3645.2</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E141" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="12" customFormat="1">
-      <c r="A142" s="9">
+    <row r="142" spans="1:5" s="11" customFormat="1">
+      <c r="A142" s="8">
         <v>360800</v>
       </c>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9" t="s">
+      <c r="B142" s="8"/>
+      <c r="C142" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="9">
         <v>2168.83</v>
       </c>
-      <c r="E142" s="11">
+      <c r="E142" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="12" customFormat="1">
-      <c r="A143" s="9">
+    <row r="143" spans="1:5" s="11" customFormat="1">
+      <c r="A143" s="8">
         <v>360900</v>
       </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9" t="s">
+      <c r="B143" s="8"/>
+      <c r="C143" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="9">
         <v>2789.87</v>
       </c>
-      <c r="E143" s="11">
+      <c r="E143" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="12" customFormat="1">
-      <c r="A144" s="9">
+    <row r="144" spans="1:5" s="11" customFormat="1">
+      <c r="A144" s="8">
         <v>361000</v>
       </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9" t="s">
+      <c r="B144" s="8"/>
+      <c r="C144" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="9">
         <v>1572.51</v>
       </c>
-      <c r="E144" s="11">
+      <c r="E144" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="12" customFormat="1">
-      <c r="A145" s="9">
+    <row r="145" spans="1:5" s="11" customFormat="1">
+      <c r="A145" s="8">
         <v>361100</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9" t="s">
+      <c r="B145" s="8"/>
+      <c r="C145" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="9">
         <v>2624.34</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E145" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="12" customFormat="1">
-      <c r="A146" s="9">
+    <row r="146" spans="1:5" s="11" customFormat="1">
+      <c r="A146" s="8">
         <v>370000</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="10">
+      <c r="C146" s="8"/>
+      <c r="D146" s="9">
         <v>73129</v>
       </c>
-      <c r="E146" s="11">
+      <c r="E146" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
@@ -3811,18 +3913,18 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="12" customFormat="1">
-      <c r="A163" s="9">
+    <row r="163" spans="1:5" s="11" customFormat="1">
+      <c r="A163" s="8">
         <v>410000</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="10">
+      <c r="C163" s="8"/>
+      <c r="D163" s="9">
         <v>54997.07</v>
       </c>
-      <c r="E163" s="11">
+      <c r="E163" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -4037,18 +4139,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="12" customFormat="1">
-      <c r="A181" s="9">
+    <row r="181" spans="1:5" s="11" customFormat="1">
+      <c r="A181" s="8">
         <v>420000</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="10">
+      <c r="C181" s="8"/>
+      <c r="D181" s="9">
         <v>43443.46</v>
       </c>
-      <c r="E181" s="11">
+      <c r="E181" s="10">
         <v>-0.05</v>
       </c>
     </row>
@@ -4213,18 +4315,18 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="12" customFormat="1">
-      <c r="A195" s="9">
+    <row r="195" spans="1:5" s="11" customFormat="1">
+      <c r="A195" s="8">
         <v>430000</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="10">
+      <c r="C195" s="8"/>
+      <c r="D195" s="9">
         <v>41781.49</v>
       </c>
-      <c r="E195" s="11">
+      <c r="E195" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -4418,18 +4520,18 @@
         <v>211</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="12" customFormat="1">
-      <c r="A210" s="9">
+    <row r="210" spans="1:5" s="11" customFormat="1">
+      <c r="A210" s="8">
         <v>440000</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="10">
+      <c r="C210" s="8"/>
+      <c r="D210" s="9">
         <v>110760.94</v>
       </c>
-      <c r="E210" s="11">
+      <c r="E210" s="10">
         <v>2.3E-2</v>
       </c>
     </row>
@@ -4727,18 +4829,18 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" s="12" customFormat="1">
-      <c r="A232" s="9">
+    <row r="232" spans="1:5" s="11" customFormat="1">
+      <c r="A232" s="8">
         <v>450000</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="10">
+      <c r="C232" s="8"/>
+      <c r="D232" s="9">
         <v>22156.69</v>
       </c>
-      <c r="E232" s="11">
+      <c r="E232" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -4938,104 +5040,104 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" s="12" customFormat="1">
-      <c r="A247" s="9">
+    <row r="247" spans="1:5" s="11" customFormat="1">
+      <c r="A247" s="8">
         <v>460000</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="10">
+      <c r="C247" s="8"/>
+      <c r="D247" s="9">
         <v>5532.39</v>
       </c>
-      <c r="E247" s="11">
+      <c r="E247" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="12" customFormat="1">
-      <c r="A248" s="9">
+    <row r="248" spans="1:5" s="11" customFormat="1">
+      <c r="A248" s="8">
         <v>460100</v>
       </c>
-      <c r="B248" s="9"/>
-      <c r="C248" s="9" t="s">
+      <c r="B248" s="8"/>
+      <c r="C248" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D248" s="10">
+      <c r="D248" s="9">
         <v>1791.58</v>
       </c>
-      <c r="E248" s="11">
+      <c r="E248" s="10">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="12" customFormat="1">
-      <c r="A249" s="9">
+    <row r="249" spans="1:5" s="11" customFormat="1">
+      <c r="A249" s="8">
         <v>460200</v>
       </c>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9" t="s">
+      <c r="B249" s="8"/>
+      <c r="C249" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D249" s="10">
+      <c r="D249" s="9">
         <v>695.41</v>
       </c>
-      <c r="E249" s="11">
+      <c r="E249" s="10">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" s="12" customFormat="1">
-      <c r="A250" s="9">
+    <row r="250" spans="1:5" s="11" customFormat="1">
+      <c r="A250" s="8">
         <v>460300</v>
       </c>
-      <c r="B250" s="9"/>
-      <c r="C250" s="9" t="s">
+      <c r="B250" s="8"/>
+      <c r="C250" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D250" s="10"/>
-      <c r="E250" s="11"/>
-    </row>
-    <row r="251" spans="1:5" s="12" customFormat="1">
-      <c r="A251" s="9">
+      <c r="D250" s="9"/>
+      <c r="E250" s="10"/>
+    </row>
+    <row r="251" spans="1:5" s="11" customFormat="1">
+      <c r="A251" s="8">
         <v>460400</v>
       </c>
-      <c r="B251" s="9"/>
-      <c r="C251" s="9" t="s">
+      <c r="B251" s="8"/>
+      <c r="C251" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D251" s="10">
+      <c r="D251" s="9">
         <v>639</v>
       </c>
-      <c r="E251" s="11">
+      <c r="E251" s="10">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" s="12" customFormat="1">
-      <c r="A252" s="9">
+    <row r="252" spans="1:5" s="11" customFormat="1">
+      <c r="A252" s="8">
         <v>500000</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="10">
+      <c r="C252" s="8"/>
+      <c r="D252" s="9">
         <v>25002.79</v>
       </c>
-      <c r="E252" s="11">
+      <c r="E252" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" s="12" customFormat="1">
-      <c r="A253" s="9">
+    <row r="253" spans="1:5" s="11" customFormat="1">
+      <c r="A253" s="8">
         <v>510000</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="10">
+      <c r="C253" s="8"/>
+      <c r="D253" s="9">
         <v>48598.76</v>
       </c>
-      <c r="E253" s="11">
+      <c r="E253" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -5333,18 +5435,18 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="12" customFormat="1">
-      <c r="A275" s="9">
+    <row r="275" spans="1:5" s="11" customFormat="1">
+      <c r="A275" s="8">
         <v>520000</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C275" s="9"/>
-      <c r="D275" s="10">
+      <c r="C275" s="8"/>
+      <c r="D275" s="9">
         <v>17826.560000000001</v>
       </c>
-      <c r="E275" s="11">
+      <c r="E275" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
@@ -5474,18 +5576,18 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="285" spans="1:5" s="12" customFormat="1">
-      <c r="A285" s="9">
+    <row r="285" spans="1:5" s="11" customFormat="1">
+      <c r="A285" s="8">
         <v>530000</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C285" s="9"/>
-      <c r="D285" s="10">
+      <c r="C285" s="8"/>
+      <c r="D285" s="9">
         <v>24521.9</v>
       </c>
-      <c r="E285" s="11">
+      <c r="E285" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -5689,18 +5791,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="12" customFormat="1">
-      <c r="A302" s="9">
+    <row r="302" spans="1:5" s="11" customFormat="1">
+      <c r="A302" s="8">
         <v>540000</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C302" s="9"/>
-      <c r="D302" s="10">
+      <c r="C302" s="8"/>
+      <c r="D302" s="9">
         <v>1902.74</v>
       </c>
-      <c r="E302" s="11">
+      <c r="E302" s="10">
         <v>7.8E-2</v>
       </c>
     </row>
@@ -5760,18 +5862,18 @@
         <v>312</v>
       </c>
     </row>
-    <row r="310" spans="1:5" s="12" customFormat="1">
-      <c r="A310" s="9">
+    <row r="310" spans="1:5" s="11" customFormat="1">
+      <c r="A310" s="8">
         <v>610000</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C310" s="9"/>
-      <c r="D310" s="10">
+      <c r="C310" s="8"/>
+      <c r="D310" s="9">
         <v>26181.86</v>
       </c>
-      <c r="E310" s="11">
+      <c r="E310" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -5915,18 +6017,18 @@
         <v>-0.112</v>
       </c>
     </row>
-    <row r="321" spans="1:5" s="12" customFormat="1">
-      <c r="A321" s="9">
+    <row r="321" spans="1:5" s="11" customFormat="1">
+      <c r="A321" s="8">
         <v>620000</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C321" s="9"/>
-      <c r="D321" s="10">
+      <c r="C321" s="8"/>
+      <c r="D321" s="9">
         <v>9016.7000000000007</v>
       </c>
-      <c r="E321" s="11">
+      <c r="E321" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
@@ -6126,18 +6228,18 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:5" s="12" customFormat="1">
-      <c r="A336" s="9">
+    <row r="336" spans="1:5" s="11" customFormat="1">
+      <c r="A336" s="8">
         <v>630000</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C336" s="9"/>
-      <c r="D336" s="10">
+      <c r="C336" s="8"/>
+      <c r="D336" s="9">
         <v>3005.92</v>
       </c>
-      <c r="E336" s="11">
+      <c r="E336" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -6220,108 +6322,108 @@
         <v>619.80999999999995</v>
       </c>
     </row>
-    <row r="345" spans="1:5" s="12" customFormat="1">
-      <c r="A345" s="9">
+    <row r="345" spans="1:5" s="11" customFormat="1">
+      <c r="A345" s="8">
         <v>640000</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C345" s="9"/>
-      <c r="D345" s="10">
+      <c r="C345" s="8"/>
+      <c r="D345" s="9">
         <v>3920.55</v>
       </c>
-      <c r="E345" s="11">
+      <c r="E345" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:5" s="12" customFormat="1">
-      <c r="A346" s="9">
+    <row r="346" spans="1:5" s="11" customFormat="1">
+      <c r="A346" s="8">
         <v>640100</v>
       </c>
-      <c r="B346" s="9"/>
-      <c r="C346" s="9" t="s">
+      <c r="B346" s="8"/>
+      <c r="C346" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D346" s="10">
+      <c r="D346" s="9">
         <v>1964.37</v>
       </c>
-      <c r="E346" s="11">
+      <c r="E346" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:5" s="12" customFormat="1">
-      <c r="A347" s="9">
+    <row r="347" spans="1:5" s="11" customFormat="1">
+      <c r="A347" s="8">
         <v>640200</v>
       </c>
-      <c r="B347" s="9"/>
-      <c r="C347" s="9" t="s">
+      <c r="B347" s="8"/>
+      <c r="C347" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D347" s="10">
+      <c r="D347" s="9">
         <v>541.62</v>
       </c>
-      <c r="E347" s="11">
+      <c r="E347" s="10">
         <v>0.06</v>
       </c>
     </row>
-    <row r="348" spans="1:5" s="12" customFormat="1">
-      <c r="A348" s="9">
+    <row r="348" spans="1:5" s="11" customFormat="1">
+      <c r="A348" s="8">
         <v>640300</v>
       </c>
-      <c r="B348" s="9"/>
-      <c r="C348" s="9" t="s">
+      <c r="B348" s="8"/>
+      <c r="C348" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D348" s="10">
+      <c r="D348" s="9">
         <v>621.77</v>
       </c>
-      <c r="E348" s="11">
+      <c r="E348" s="10">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:5" s="12" customFormat="1">
-      <c r="A349" s="9">
+    <row r="349" spans="1:5" s="11" customFormat="1">
+      <c r="A349" s="8">
         <v>640400</v>
       </c>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9" t="s">
+      <c r="B349" s="8"/>
+      <c r="C349" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D349" s="10">
+      <c r="D349" s="9">
         <v>352.46</v>
       </c>
-      <c r="E349" s="11">
+      <c r="E349" s="10">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" s="12" customFormat="1">
-      <c r="A350" s="9">
+    <row r="350" spans="1:5" s="11" customFormat="1">
+      <c r="A350" s="8">
         <v>640500</v>
       </c>
-      <c r="B350" s="9"/>
-      <c r="C350" s="9" t="s">
+      <c r="B350" s="8"/>
+      <c r="C350" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D350" s="10">
+      <c r="D350" s="9">
         <v>440.32</v>
       </c>
-      <c r="E350" s="11">
+      <c r="E350" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:5" s="12" customFormat="1">
-      <c r="A351" s="9">
+    <row r="351" spans="1:5" s="11" customFormat="1">
+      <c r="A351" s="8">
         <v>650000</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="B351" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C351" s="9"/>
-      <c r="D351" s="10">
+      <c r="C351" s="8"/>
+      <c r="D351" s="9">
         <v>13797.58</v>
       </c>
-      <c r="E351" s="11">
+      <c r="E351" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
@@ -6470,37 +6572,37 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="12" customFormat="1">
-      <c r="A366" s="9">
+    <row r="366" spans="1:5" s="11" customFormat="1">
+      <c r="A366" s="8">
         <v>710000</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B366" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C366" s="9"/>
-      <c r="D366" s="10"/>
-      <c r="E366" s="11"/>
-    </row>
-    <row r="367" spans="1:5" s="12" customFormat="1">
-      <c r="A367" s="9">
+      <c r="C366" s="8"/>
+      <c r="D366" s="9"/>
+      <c r="E366" s="10"/>
+    </row>
+    <row r="367" spans="1:5" s="11" customFormat="1">
+      <c r="A367" s="8">
         <v>810000</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B367" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C367" s="9"/>
-      <c r="D367" s="10"/>
-      <c r="E367" s="11"/>
-    </row>
-    <row r="368" spans="1:5" s="12" customFormat="1">
-      <c r="A368" s="9">
+      <c r="C367" s="8"/>
+      <c r="D367" s="9"/>
+      <c r="E367" s="10"/>
+    </row>
+    <row r="368" spans="1:5" s="11" customFormat="1">
+      <c r="A368" s="8">
         <v>820000</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B368" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D368" s="10"/>
-      <c r="E368" s="11"/>
+      <c r="D368" s="9"/>
+      <c r="E368" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E368">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8ADCC6-7FBC-1842-9225-A6D2778F807D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63081A5-91D0-5C4E-89B0-F1F75CC17669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="1340" yWindow="-26980" windowWidth="27800" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2758,185 +2758,198 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2">
+    <row r="82" spans="1:5" s="11" customFormat="1">
+      <c r="A82" s="8">
         <v>320100</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="9">
         <v>14817.95</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="10">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2">
+    <row r="83" spans="1:5" s="11" customFormat="1">
+      <c r="A83" s="8">
         <v>320200</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="9">
         <v>12370.48</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2">
+    <row r="84" spans="1:5" s="11" customFormat="1">
+      <c r="A84" s="8">
         <v>320300</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="9">
         <v>7319.77</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2">
+    <row r="85" spans="1:5" s="11" customFormat="1">
+      <c r="A85" s="8">
         <v>320400</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="9">
         <v>7805.3</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2">
+    <row r="86" spans="1:5" s="11" customFormat="1">
+      <c r="A86" s="8">
         <v>320500</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="9">
         <v>20170.5</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2">
+    <row r="87" spans="1:5" s="11" customFormat="1">
+      <c r="A87" s="8">
         <v>320600</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="9">
         <v>10036.31</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="10">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2">
+    <row r="88" spans="1:5" s="11" customFormat="1">
+      <c r="A88" s="8">
         <v>320700</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="9">
         <v>3277.07</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2">
+    <row r="89" spans="1:5" s="11" customFormat="1">
+      <c r="A89" s="8">
         <v>320800</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="8"/>
+      <c r="C89" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="9">
         <v>4025.37</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2">
+    <row r="90" spans="1:5" s="11" customFormat="1">
+      <c r="A90" s="8">
         <v>320900</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="9">
         <v>5953.38</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2">
+    <row r="91" spans="1:5" s="11" customFormat="1">
+      <c r="A91" s="8">
         <v>321000</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="9">
         <v>6048.33</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="2">
+    <row r="92" spans="1:5" s="11" customFormat="1">
+      <c r="A92" s="8">
         <v>321100</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="9">
         <v>4220.09</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2">
+    <row r="93" spans="1:5" s="11" customFormat="1">
+      <c r="A93" s="8">
         <v>321200</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="9">
         <v>5312.77</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2">
+    <row r="94" spans="1:5" s="11" customFormat="1">
+      <c r="A94" s="8">
         <v>321300</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="B94" s="8"/>
+      <c r="C94" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="9">
         <v>3262.37</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
@@ -3135,227 +3148,243 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="2">
+    <row r="108" spans="1:5" s="11" customFormat="1">
+      <c r="A108" s="8">
         <v>340100</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="B108" s="8"/>
+      <c r="C108" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="9">
         <v>10045.719999999999</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="2">
+    <row r="109" spans="1:5" s="11" customFormat="1">
+      <c r="A109" s="8">
         <v>340200</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="B109" s="8"/>
+      <c r="C109" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="9">
         <v>3753.02</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="2">
+    <row r="110" spans="1:5" s="11" customFormat="1">
+      <c r="A110" s="8">
         <v>340300</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="B110" s="8"/>
+      <c r="C110" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="9">
         <v>2082.6999999999998</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="2">
+    <row r="111" spans="1:5" s="11" customFormat="1">
+      <c r="A111" s="8">
         <v>340400</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="B111" s="8"/>
+      <c r="C111" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="9">
         <v>1337.2</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="2">
+    <row r="112" spans="1:5" s="11" customFormat="1">
+      <c r="A112" s="8">
         <v>340500</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="B112" s="8"/>
+      <c r="C112" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="9">
         <v>2186.9</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2">
+    <row r="113" spans="1:5" s="11" customFormat="1">
+      <c r="A113" s="8">
         <v>340600</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="B113" s="8"/>
+      <c r="C113" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D113" s="4">
-        <v>1119.0999999999999</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="D113" s="9">
+        <v>1119.06</v>
+      </c>
+      <c r="E113" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="2">
+    <row r="114" spans="1:5" s="11" customFormat="1">
+      <c r="A114" s="8">
         <v>340700</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="B114" s="8"/>
+      <c r="C114" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="9">
         <v>1003.7</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="2">
+    <row r="115" spans="1:5" s="11" customFormat="1">
+      <c r="A115" s="8">
         <v>340800</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="B115" s="8"/>
+      <c r="C115" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="9">
         <v>2467.6999999999998</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="2">
+    <row r="116" spans="1:5" s="11" customFormat="1">
+      <c r="A116" s="8">
         <v>341000</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="B116" s="8"/>
+      <c r="C116" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="9">
         <v>850.4</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="2">
+    <row r="117" spans="1:5" s="11" customFormat="1">
+      <c r="A117" s="8">
         <v>341100</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="B117" s="8"/>
+      <c r="C117" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D117" s="4">
-        <v>3032.1</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="D117" s="9">
+        <v>3032.07</v>
+      </c>
+      <c r="E117" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="2">
+    <row r="118" spans="1:5" s="11" customFormat="1">
+      <c r="A118" s="8">
         <v>341200</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="B118" s="8"/>
+      <c r="C118" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="9">
         <v>2805.2</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="2">
+    <row r="119" spans="1:5" s="11" customFormat="1">
+      <c r="A119" s="8">
         <v>341300</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="B119" s="8"/>
+      <c r="C119" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="9">
         <v>2044.99</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2">
+    <row r="120" spans="1:5" s="11" customFormat="1">
+      <c r="A120" s="8">
         <v>341500</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="B120" s="8"/>
+      <c r="C120" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="9">
         <v>1669.5</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="2">
+    <row r="121" spans="1:5" s="11" customFormat="1">
+      <c r="A121" s="8">
         <v>341600</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="B121" s="8"/>
+      <c r="C121" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="9">
         <v>1806.01</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="2">
+    <row r="122" spans="1:5" s="11" customFormat="1">
+      <c r="A122" s="8">
         <v>341700</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="B122" s="8"/>
+      <c r="C122" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="9">
         <v>868.9</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2">
+    <row r="123" spans="1:5" s="11" customFormat="1">
+      <c r="A123" s="8">
         <v>341800</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="B123" s="8"/>
+      <c r="C123" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="9">
         <v>1607.5</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -3374,123 +3403,134 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2">
+    <row r="125" spans="1:5" s="11" customFormat="1">
+      <c r="A125" s="8">
         <v>350100</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="B125" s="8"/>
+      <c r="C125" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="9">
         <v>10020.02</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2">
+    <row r="126" spans="1:5" s="11" customFormat="1">
+      <c r="A126" s="8">
         <v>350200</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="B126" s="8"/>
+      <c r="C126" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="9">
         <v>6384.02</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="10">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2">
+    <row r="127" spans="1:5" s="11" customFormat="1">
+      <c r="A127" s="8">
         <v>350300</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="B127" s="8"/>
+      <c r="C127" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="9">
         <v>2643.97</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2">
+    <row r="128" spans="1:5" s="11" customFormat="1">
+      <c r="A128" s="8">
         <v>350400</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="B128" s="8"/>
+      <c r="C128" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="9">
         <v>2702.19</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2">
+    <row r="129" spans="1:5" s="11" customFormat="1">
+      <c r="A129" s="8">
         <v>350500</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="B129" s="8"/>
+      <c r="C129" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="9">
         <v>10158.66</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="10">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2">
+    <row r="130" spans="1:5" s="11" customFormat="1">
+      <c r="A130" s="8">
         <v>350600</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="B130" s="8"/>
+      <c r="C130" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2">
+      <c r="D130" s="9"/>
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="1:5" s="11" customFormat="1">
+      <c r="A131" s="8">
         <v>350700</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="B131" s="8"/>
+      <c r="C131" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="9">
         <v>2007.4</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2">
+    <row r="132" spans="1:5" s="11" customFormat="1">
+      <c r="A132" s="8">
         <v>350800</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="B132" s="8"/>
+      <c r="C132" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="9">
         <v>2870.9</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="10">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2">
+    <row r="133" spans="1:5" s="11" customFormat="1">
+      <c r="A133" s="8">
         <v>350900</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="B133" s="8"/>
+      <c r="C133" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="9">
         <v>2619</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="10">
         <v>0.06</v>
       </c>
     </row>
@@ -3689,227 +3729,243 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="2">
+    <row r="147" spans="1:5" s="11" customFormat="1">
+      <c r="A147" s="8">
         <v>370100</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="B147" s="8"/>
+      <c r="C147" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="9">
         <v>10140.91</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="10">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="2">
+    <row r="148" spans="1:5" s="11" customFormat="1">
+      <c r="A148" s="8">
         <v>370200</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="B148" s="8"/>
+      <c r="C148" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="9">
         <v>12400.56</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="2">
+    <row r="149" spans="1:5" s="11" customFormat="1">
+      <c r="A149" s="8">
         <v>370300</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="B149" s="8"/>
+      <c r="C149" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="9">
         <v>3673.54</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2">
+    <row r="150" spans="1:5" s="11" customFormat="1">
+      <c r="A150" s="8">
         <v>370400</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="B150" s="8"/>
+      <c r="C150" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="9">
         <v>1733.25</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2">
+    <row r="151" spans="1:5" s="11" customFormat="1">
+      <c r="A151" s="8">
         <v>370500</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="B151" s="8"/>
+      <c r="C151" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="9">
         <v>2981.19</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2">
+    <row r="152" spans="1:5" s="11" customFormat="1">
+      <c r="A152" s="8">
         <v>370600</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="B152" s="8"/>
+      <c r="C152" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="9">
         <v>7816.42</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2">
+    <row r="153" spans="1:5" s="11" customFormat="1">
+      <c r="A153" s="8">
         <v>370700</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="B153" s="8"/>
+      <c r="C153" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="9">
         <v>5872.2</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2">
+    <row r="154" spans="1:5" s="11" customFormat="1">
+      <c r="A154" s="8">
         <v>370800</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="B154" s="8"/>
+      <c r="C154" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="9">
         <v>4494.3100000000004</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="2">
+    <row r="155" spans="1:5" s="11" customFormat="1">
+      <c r="A155" s="8">
         <v>370900</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="B155" s="8"/>
+      <c r="C155" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="9">
         <v>2766.5</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2">
+    <row r="156" spans="1:5" s="11" customFormat="1">
+      <c r="A156" s="8">
         <v>371000</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="B156" s="8"/>
+      <c r="C156" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="9">
         <v>3017.79</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="2">
+    <row r="157" spans="1:5" s="11" customFormat="1">
+      <c r="A157" s="8">
         <v>371100</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="B157" s="8"/>
+      <c r="C157" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="9">
         <v>2006.43</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2">
+    <row r="158" spans="1:5" s="11" customFormat="1">
+      <c r="A158" s="8">
         <v>371300</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="B158" s="8"/>
+      <c r="C158" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="9">
         <v>4805.25</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2">
+    <row r="159" spans="1:5" s="11" customFormat="1">
+      <c r="A159" s="8">
         <v>371400</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="B159" s="8"/>
+      <c r="C159" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="9">
         <v>3078.99</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="2">
+    <row r="160" spans="1:5" s="11" customFormat="1">
+      <c r="A160" s="8">
         <v>371500</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="B160" s="8"/>
+      <c r="C160" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="9">
         <v>2316.84</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2">
+    <row r="161" spans="1:5" s="11" customFormat="1">
+      <c r="A161" s="8">
         <v>371600</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="B161" s="8"/>
+      <c r="C161" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="9">
         <v>2508.11</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="2">
+    <row r="162" spans="1:5" s="11" customFormat="1">
+      <c r="A162" s="8">
         <v>371700</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="B162" s="8"/>
+      <c r="C162" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="9">
         <v>3483.11</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
@@ -3928,215 +3984,259 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2">
+    <row r="164" spans="1:5" s="11" customFormat="1">
+      <c r="A164" s="8">
         <v>410100</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="B164" s="8"/>
+      <c r="C164" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="9">
         <v>12003.04</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="2">
+    <row r="165" spans="1:5" s="11" customFormat="1">
+      <c r="A165" s="8">
         <v>410200</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="B165" s="8"/>
+      <c r="C165" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="9">
         <v>2371.83</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="2">
+    <row r="166" spans="1:5" s="11" customFormat="1">
+      <c r="A166" s="8">
         <v>410300</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="B166" s="8"/>
+      <c r="C166" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D166" s="4">
-        <v>5128.3999999999996</v>
-      </c>
-      <c r="E166" s="3">
+      <c r="D166" s="9">
+        <v>5128.3599999999997</v>
+      </c>
+      <c r="E166" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="2">
+    <row r="167" spans="1:5" s="11" customFormat="1">
+      <c r="A167" s="8">
         <v>410400</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="B167" s="8"/>
+      <c r="C167" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="9">
         <v>2455.84</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="2">
+    <row r="168" spans="1:5" s="11" customFormat="1">
+      <c r="A168" s="8">
         <v>410500</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="B168" s="8"/>
+      <c r="C168" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D168" s="4">
-        <v>2300.5</v>
-      </c>
-      <c r="E168" s="3">
+      <c r="D168" s="9">
+        <v>2300.48</v>
+      </c>
+      <c r="E168" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="2">
+    <row r="169" spans="1:5" s="11" customFormat="1">
+      <c r="A169" s="8">
         <v>410600</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="B169" s="8"/>
+      <c r="C169" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="9">
         <v>980.97</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="2">
+    <row r="170" spans="1:5" s="11" customFormat="1">
+      <c r="A170" s="8">
         <v>410700</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="B170" s="8"/>
+      <c r="C170" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="9">
         <v>3014.51</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="2">
+    <row r="171" spans="1:5" s="11" customFormat="1">
+      <c r="A171" s="8">
         <v>410800</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="B171" s="8"/>
+      <c r="C171" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="2">
+      <c r="D171" s="9">
+        <v>2123.6</v>
+      </c>
+      <c r="E171" s="10">
+        <v>-0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="11" customFormat="1">
+      <c r="A172" s="8">
         <v>410900</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="B172" s="8"/>
+      <c r="C172" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="9">
         <v>1649.99</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="2">
+    <row r="173" spans="1:5" s="11" customFormat="1">
+      <c r="A173" s="8">
         <v>411000</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="B173" s="8"/>
+      <c r="C173" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D173" s="4">
-        <v>3449.2</v>
-      </c>
-      <c r="E173" s="3">
+      <c r="D173" s="9">
+        <v>3449.23</v>
+      </c>
+      <c r="E173" s="10">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="2">
+    <row r="174" spans="1:5" s="11" customFormat="1">
+      <c r="A174" s="8">
         <v>411100</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="B174" s="8"/>
+      <c r="C174" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="2">
+      <c r="D174" s="9">
+        <v>1573.88</v>
+      </c>
+      <c r="E174" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="11" customFormat="1">
+      <c r="A175" s="8">
         <v>411200</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="B175" s="8"/>
+      <c r="C175" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D175" s="4">
-        <v>1450.7</v>
-      </c>
-      <c r="E175" s="3">
+      <c r="D175" s="9">
+        <v>1450.71</v>
+      </c>
+      <c r="E175" s="10">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="2">
+    <row r="176" spans="1:5" s="11" customFormat="1">
+      <c r="A176" s="8">
         <v>411300</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="B176" s="8"/>
+      <c r="C176" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="9">
         <v>3925.86</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="2">
+    <row r="177" spans="1:5" s="11" customFormat="1">
+      <c r="A177" s="8">
         <v>411400</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="B177" s="8"/>
+      <c r="C177" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="9">
         <v>2925.33</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="2">
+      <c r="E177" s="10">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="11" customFormat="1">
+      <c r="A178" s="8">
         <v>411500</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="B178" s="8"/>
+      <c r="C178" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="9">
         <v>2805.68</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="2">
+    <row r="179" spans="1:5" s="11" customFormat="1">
+      <c r="A179" s="8">
         <v>411600</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="B179" s="8"/>
+      <c r="C179" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="2">
+      <c r="D179" s="9">
+        <v>3267.19</v>
+      </c>
+      <c r="E179" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="11" customFormat="1">
+      <c r="A180" s="8">
         <v>411700</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="B180" s="8"/>
+      <c r="C180" s="8" t="s">
         <v>183</v>
+      </c>
+      <c r="D180" s="9">
+        <v>2859.27</v>
+      </c>
+      <c r="E180" s="10">
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="11" customFormat="1">
@@ -4154,164 +4254,196 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="2">
+    <row r="182" spans="1:5" s="11" customFormat="1">
+      <c r="A182" s="8">
         <v>420100</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="B182" s="8"/>
+      <c r="C182" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="9">
         <v>15616.06</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="10">
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="2">
+    <row r="183" spans="1:5" s="11" customFormat="1">
+      <c r="A183" s="8">
         <v>420200</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="B183" s="8"/>
+      <c r="C183" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="9">
         <v>1641.32</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="2">
+      <c r="E183" s="10"/>
+    </row>
+    <row r="184" spans="1:5" s="11" customFormat="1">
+      <c r="A184" s="8">
         <v>420300</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="B184" s="8"/>
+      <c r="C184" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="9">
         <v>1915.1</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="10">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="2">
+    <row r="185" spans="1:5" s="11" customFormat="1">
+      <c r="A185" s="8">
         <v>420500</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="B185" s="8"/>
+      <c r="C185" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="2">
+      <c r="D185" s="9">
+        <v>4261.42</v>
+      </c>
+      <c r="E185" s="10">
+        <v>-4.7E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" s="11" customFormat="1">
+      <c r="A186" s="8">
         <v>420600</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="B186" s="8"/>
+      <c r="C186" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="9">
         <v>4601.97</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="10">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="2">
+    <row r="187" spans="1:5" s="11" customFormat="1">
+      <c r="A187" s="8">
         <v>420700</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="B187" s="8"/>
+      <c r="C187" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="9">
         <v>1005.23</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="10">
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="2">
+    <row r="188" spans="1:5" s="11" customFormat="1">
+      <c r="A188" s="8">
         <v>420800</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="B188" s="8"/>
+      <c r="C188" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="9">
         <v>1906.41</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="10">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="2">
+    <row r="189" spans="1:5" s="11" customFormat="1">
+      <c r="A189" s="8">
         <v>420900</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="B189" s="8"/>
+      <c r="C189" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="9">
         <v>2193.5500000000002</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="10">
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="2">
+    <row r="190" spans="1:5" s="11" customFormat="1">
+      <c r="A190" s="8">
         <v>421000</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="B190" s="8"/>
+      <c r="C190" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="9">
         <v>2369.04</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="10">
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="2">
+    <row r="191" spans="1:5" s="11" customFormat="1">
+      <c r="A191" s="8">
         <v>421100</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="B191" s="8"/>
+      <c r="C191" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="9">
         <v>2169.5500000000002</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="10">
         <v>-6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="2">
+    <row r="192" spans="1:5" s="11" customFormat="1">
+      <c r="A192" s="8">
         <v>421200</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="B192" s="8"/>
+      <c r="C192" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="2">
+      <c r="D192" s="9">
+        <v>1524.67</v>
+      </c>
+      <c r="E192" s="10">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="11" customFormat="1">
+      <c r="A193" s="8">
         <v>421300</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="B193" s="8"/>
+      <c r="C193" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="2">
+      <c r="D193" s="9">
+        <v>1096.72</v>
+      </c>
+      <c r="E193" s="10">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="11" customFormat="1">
+      <c r="A194" s="8">
         <v>422800</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="B194" s="8"/>
+      <c r="C194" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="9">
         <v>1117.7</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="10">
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
@@ -4330,194 +4462,214 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="2">
+    <row r="196" spans="1:5" s="11" customFormat="1">
+      <c r="A196" s="8">
         <v>430100</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="B196" s="8"/>
+      <c r="C196" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="9">
         <v>12142.52</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="2">
+    <row r="197" spans="1:5" s="11" customFormat="1">
+      <c r="A197" s="8">
         <v>430200</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="B197" s="8"/>
+      <c r="C197" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="9">
         <v>3105.8</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="2">
+    <row r="198" spans="1:5" s="11" customFormat="1">
+      <c r="A198" s="8">
         <v>430300</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="B198" s="8"/>
+      <c r="C198" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="9">
         <v>2343.1</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="2">
+    <row r="199" spans="1:5" s="11" customFormat="1">
+      <c r="A199" s="8">
         <v>430400</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="B199" s="8"/>
+      <c r="C199" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="9">
         <v>3508.5</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="2">
+    <row r="200" spans="1:5" s="11" customFormat="1">
+      <c r="A200" s="8">
         <v>430500</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="B200" s="8"/>
+      <c r="C200" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D200" s="4">
-        <v>2250.8090000000002</v>
-      </c>
-      <c r="E200" s="3">
+      <c r="D200" s="9">
+        <v>2250.81</v>
+      </c>
+      <c r="E200" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="2">
+    <row r="201" spans="1:5" s="11" customFormat="1">
+      <c r="A201" s="8">
         <v>430600</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="B201" s="8"/>
+      <c r="C201" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="9">
         <v>4001.55</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="2">
+    <row r="202" spans="1:5" s="11" customFormat="1">
+      <c r="A202" s="8">
         <v>430700</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="B202" s="8"/>
+      <c r="C202" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="9">
         <v>3749.1</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="2">
+    <row r="203" spans="1:5" s="11" customFormat="1">
+      <c r="A203" s="8">
         <v>430800</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="B203" s="8"/>
+      <c r="C203" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D203" s="4">
-        <v>556.67960000000005</v>
-      </c>
-      <c r="E203" s="3">
+      <c r="D203" s="9">
+        <v>556.67999999999995</v>
+      </c>
+      <c r="E203" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="2">
+    <row r="204" spans="1:5" s="11" customFormat="1">
+      <c r="A204" s="8">
         <v>430900</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="B204" s="8"/>
+      <c r="C204" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D204" s="4">
-        <v>1853.4835</v>
-      </c>
-      <c r="E204" s="3">
+      <c r="D204" s="9">
+        <v>1853.48</v>
+      </c>
+      <c r="E204" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="2">
+    <row r="205" spans="1:5" s="11" customFormat="1">
+      <c r="A205" s="8">
         <v>431000</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="B205" s="8"/>
+      <c r="C205" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D205" s="4">
-        <v>2503.0736999999999</v>
-      </c>
-      <c r="E205" s="3">
+      <c r="D205" s="9">
+        <v>2503.0700000000002</v>
+      </c>
+      <c r="E205" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="2">
+    <row r="206" spans="1:5" s="11" customFormat="1">
+      <c r="A206" s="8">
         <v>431100</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="B206" s="8"/>
+      <c r="C206" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="9">
         <v>2107.6999999999998</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="2">
+    <row r="207" spans="1:5" s="11" customFormat="1">
+      <c r="A207" s="8">
         <v>431200</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="B207" s="8"/>
+      <c r="C207" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D207" s="4">
-        <v>1671.8670999999999</v>
-      </c>
-      <c r="E207" s="3">
+      <c r="D207" s="9">
+        <v>1671.87</v>
+      </c>
+      <c r="E207" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="2">
+    <row r="208" spans="1:5" s="11" customFormat="1">
+      <c r="A208" s="8">
         <v>431300</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="B208" s="8"/>
+      <c r="C208" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D208" s="4">
-        <v>1679.9353000000001</v>
-      </c>
-      <c r="E208" s="3">
+      <c r="D208" s="9">
+        <v>1679.94</v>
+      </c>
+      <c r="E208" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="2">
+    <row r="209" spans="1:5" s="11" customFormat="1">
+      <c r="A209" s="8">
         <v>433100</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="B209" s="8"/>
+      <c r="C209" s="8" t="s">
         <v>211</v>
+      </c>
+      <c r="D209" s="9">
+        <v>725</v>
+      </c>
+      <c r="E209" s="10">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="11" customFormat="1">
@@ -4535,297 +4687,318 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="2">
+    <row r="211" spans="1:5" s="11" customFormat="1">
+      <c r="A211" s="8">
         <v>440100</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="B211" s="8"/>
+      <c r="C211" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D211" s="4">
+      <c r="D211" s="9">
         <v>25019.11</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211" s="10">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="2">
+    <row r="212" spans="1:5" s="11" customFormat="1">
+      <c r="A212" s="8">
         <v>440200</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="B212" s="8"/>
+      <c r="C212" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D212" s="4">
+      <c r="D212" s="9">
         <v>1353.49</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="2">
+    <row r="213" spans="1:5" s="11" customFormat="1">
+      <c r="A213" s="8">
         <v>440300</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="B213" s="8"/>
+      <c r="C213" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D213" s="9">
         <v>27670.240000000002</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213" s="10">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="2">
+    <row r="214" spans="1:5" s="11" customFormat="1">
+      <c r="A214" s="8">
         <v>440400</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="B214" s="8"/>
+      <c r="C214" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D214" s="9">
         <v>3481.94</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="2">
+    <row r="215" spans="1:5" s="11" customFormat="1">
+      <c r="A215" s="8">
         <v>440500</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="B215" s="8"/>
+      <c r="C215" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D215" s="4">
-        <v>2730.5765999999999</v>
-      </c>
-      <c r="E215" s="3">
+      <c r="D215" s="9">
+        <v>2730.58</v>
+      </c>
+      <c r="E215" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="2">
+    <row r="216" spans="1:5" s="11" customFormat="1">
+      <c r="A216" s="8">
         <v>440600</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="B216" s="8"/>
+      <c r="C216" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D216" s="9">
         <v>10816.47</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216" s="10">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="2">
+    <row r="217" spans="1:5" s="11" customFormat="1">
+      <c r="A217" s="8">
         <v>440700</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="B217" s="8"/>
+      <c r="C217" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D217" s="4">
+      <c r="D217" s="9">
         <v>3200.95</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="2">
+    <row r="218" spans="1:5" s="11" customFormat="1">
+      <c r="A218" s="8">
         <v>440800</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="B218" s="8"/>
+      <c r="C218" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D218" s="4">
+      <c r="D218" s="9">
         <v>3100.22</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218" s="10">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="2">
+    <row r="219" spans="1:5" s="11" customFormat="1">
+      <c r="A219" s="8">
         <v>440900</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="B219" s="8"/>
+      <c r="C219" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D219" s="4">
+      <c r="D219" s="9">
         <v>3279.31</v>
       </c>
-      <c r="E219" s="3">
+      <c r="E219" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="2">
+    <row r="220" spans="1:5" s="11" customFormat="1">
+      <c r="A220" s="8">
         <v>441200</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="B220" s="8"/>
+      <c r="C220" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D220" s="9">
         <v>2311.65</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E220" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="2">
+    <row r="221" spans="1:5" s="11" customFormat="1">
+      <c r="A221" s="8">
         <v>441300</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="B221" s="8"/>
+      <c r="C221" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D221" s="4">
+      <c r="D221" s="9">
         <v>4221.79</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="2">
+    <row r="222" spans="1:5" s="11" customFormat="1">
+      <c r="A222" s="8">
         <v>441400</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="B222" s="8"/>
+      <c r="C222" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D222" s="4">
+      <c r="D222" s="9">
         <v>1207.98</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="2">
+    <row r="223" spans="1:5" s="11" customFormat="1">
+      <c r="A223" s="8">
         <v>441500</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="B223" s="8"/>
+      <c r="C223" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D223" s="4">
+      <c r="D223" s="9">
         <v>1123.81</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223" s="10">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="2">
+    <row r="224" spans="1:5" s="11" customFormat="1">
+      <c r="A224" s="8">
         <v>441600</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="B224" s="8"/>
+      <c r="C224" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D224" s="4">
+      <c r="D224" s="9">
         <v>1102.74</v>
       </c>
-      <c r="E224" s="3">
+      <c r="E224" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="2">
+    <row r="225" spans="1:5" s="11" customFormat="1">
+      <c r="A225" s="8">
         <v>441700</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="B225" s="8"/>
+      <c r="C225" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D225" s="4">
+      <c r="D225" s="9">
         <v>1360.44</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E225" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="2">
+    <row r="226" spans="1:5" s="11" customFormat="1">
+      <c r="A226" s="8">
         <v>441800</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="B226" s="8"/>
+      <c r="C226" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D226" s="4">
-        <v>1777.2</v>
-      </c>
-      <c r="E226" s="3">
+      <c r="D226" s="9">
+        <v>1777.15</v>
+      </c>
+      <c r="E226" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="2">
+    <row r="227" spans="1:5" s="11" customFormat="1">
+      <c r="A227" s="8">
         <v>441900</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="B227" s="8"/>
+      <c r="C227" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="9">
         <v>9650.19</v>
       </c>
-      <c r="E227" s="3">
+      <c r="E227" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="2">
+    <row r="228" spans="1:5" s="11" customFormat="1">
+      <c r="A228" s="8">
         <v>442000</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="B228" s="8"/>
+      <c r="C228" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D228" s="4">
-        <v>3151.5913999999998</v>
-      </c>
-      <c r="E228" s="3">
+      <c r="D228" s="9">
+        <v>3151.59</v>
+      </c>
+      <c r="E228" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="2">
+    <row r="229" spans="1:5" s="11" customFormat="1">
+      <c r="A229" s="8">
         <v>445100</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="B229" s="8"/>
+      <c r="C229" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D229" s="4">
+      <c r="D229" s="9">
         <v>1096.98</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E229" s="10">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="2">
+    <row r="230" spans="1:5" s="11" customFormat="1">
+      <c r="A230" s="8">
         <v>445200</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="B230" s="8"/>
+      <c r="C230" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D230" s="4">
+      <c r="D230" s="9">
         <v>2102.14</v>
       </c>
-      <c r="E230" s="3">
+      <c r="E230" s="10">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="2">
+    <row r="231" spans="1:5" s="11" customFormat="1">
+      <c r="A231" s="8">
         <v>445300</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="B231" s="8"/>
+      <c r="C231" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="9">
         <v>1002.18</v>
       </c>
-      <c r="E231" s="3">
+      <c r="E231" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
@@ -4844,199 +5017,213 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="2">
+    <row r="233" spans="1:5" s="11" customFormat="1">
+      <c r="A233" s="8">
         <v>450100</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="B233" s="8"/>
+      <c r="C233" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="9">
         <v>4726.34</v>
       </c>
-      <c r="E233" s="3">
+      <c r="E233" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="2">
+    <row r="234" spans="1:5" s="11" customFormat="1">
+      <c r="A234" s="8">
         <v>450200</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="B234" s="8"/>
+      <c r="C234" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D234" s="4">
+      <c r="D234" s="9">
         <v>3176.9</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E234" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="2">
+    <row r="235" spans="1:5" s="11" customFormat="1">
+      <c r="A235" s="8">
         <v>450300</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="B235" s="8"/>
+      <c r="C235" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="9">
         <v>2130.41</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E235" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="2">
+    <row r="236" spans="1:5" s="11" customFormat="1">
+      <c r="A236" s="8">
         <v>450400</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="B236" s="8"/>
+      <c r="C236" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="9">
         <v>1081.3399999999999</v>
       </c>
-      <c r="E236" s="3">
+      <c r="E236" s="10">
         <v>0.08</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2">
+    <row r="237" spans="1:5" s="11" customFormat="1">
+      <c r="A237" s="8">
         <v>450500</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="B237" s="8"/>
+      <c r="C237" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="9">
         <v>1276.9100000000001</v>
       </c>
-      <c r="E237" s="3">
+      <c r="E237" s="10">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="2">
+    <row r="238" spans="1:5" s="11" customFormat="1">
+      <c r="A238" s="8">
         <v>450600</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="B238" s="8"/>
+      <c r="C238" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="9">
         <v>732.81</v>
       </c>
-      <c r="E238" s="3">
+      <c r="E238" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="2">
+    <row r="239" spans="1:5" s="11" customFormat="1">
+      <c r="A239" s="8">
         <v>450700</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="B239" s="8"/>
+      <c r="C239" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="9">
         <v>1388</v>
       </c>
-      <c r="E239" s="3">
+      <c r="E239" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="2">
+    <row r="240" spans="1:5" s="11" customFormat="1">
+      <c r="A240" s="8">
         <v>450800</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="B240" s="8"/>
+      <c r="C240" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="9">
         <v>1352.73</v>
       </c>
-      <c r="E240" s="3">
+      <c r="E240" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="2">
+    <row r="241" spans="1:5" s="11" customFormat="1">
+      <c r="A241" s="8">
         <v>450900</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="B241" s="8"/>
+      <c r="C241" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="9">
         <v>1761.08</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E241" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="2">
+    <row r="242" spans="1:5" s="11" customFormat="1">
+      <c r="A242" s="8">
         <v>451000</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="B242" s="8"/>
+      <c r="C242" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="9">
         <v>1333.73</v>
       </c>
-      <c r="E242" s="3">
+      <c r="E242" s="10">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="2">
+    <row r="243" spans="1:5" s="11" customFormat="1">
+      <c r="A243" s="8">
         <v>451100</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="B243" s="8"/>
+      <c r="C243" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D243" s="4">
-        <v>753.95100000000002</v>
-      </c>
-      <c r="E243" s="3">
+      <c r="D243" s="9">
+        <v>753.95</v>
+      </c>
+      <c r="E243" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="2">
+    <row r="244" spans="1:5" s="11" customFormat="1">
+      <c r="A244" s="8">
         <v>451200</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="B244" s="8"/>
+      <c r="C244" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="9">
         <v>927.71</v>
       </c>
-      <c r="E244" s="3">
+      <c r="E244" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="2">
+    <row r="245" spans="1:5" s="11" customFormat="1">
+      <c r="A245" s="8">
         <v>451300</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="B245" s="8"/>
+      <c r="C245" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="9">
         <v>705.72</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E245" s="10">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="2">
+    <row r="246" spans="1:5" s="11" customFormat="1">
+      <c r="A246" s="8">
         <v>451400</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="B246" s="8"/>
+      <c r="C246" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="9">
         <v>809</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246" s="10">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
@@ -5141,297 +5328,318 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="2">
+    <row r="254" spans="1:5" s="11" customFormat="1">
+      <c r="A254" s="8">
         <v>510100</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="B254" s="8"/>
+      <c r="C254" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="9">
         <v>17716.68</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="2">
+    <row r="255" spans="1:5" s="11" customFormat="1">
+      <c r="A255" s="8">
         <v>510300</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="B255" s="8"/>
+      <c r="C255" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="9">
         <v>1458.44</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="2">
+    <row r="256" spans="1:5" s="11" customFormat="1">
+      <c r="A256" s="8">
         <v>510400</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="B256" s="8"/>
+      <c r="C256" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D256" s="4">
-        <v>1040.8243</v>
-      </c>
-      <c r="E256" s="3">
+      <c r="D256" s="9">
+        <v>1040.82</v>
+      </c>
+      <c r="E256" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="2">
+    <row r="257" spans="1:5" s="11" customFormat="1">
+      <c r="A257" s="8">
         <v>510500</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="B257" s="8"/>
+      <c r="C257" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="9">
         <v>2157.1999999999998</v>
       </c>
-      <c r="E257" s="3">
+      <c r="E257" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="2">
+    <row r="258" spans="1:5" s="11" customFormat="1">
+      <c r="A258" s="8">
         <v>510600</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="B258" s="8"/>
+      <c r="C258" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D258" s="4">
-        <v>2404.125</v>
-      </c>
-      <c r="E258" s="3">
+      <c r="D258" s="9">
+        <v>2404.13</v>
+      </c>
+      <c r="E258" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="2">
+    <row r="259" spans="1:5" s="11" customFormat="1">
+      <c r="A259" s="8">
         <v>510700</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="B259" s="8"/>
+      <c r="C259" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="9">
         <v>3010.08</v>
       </c>
-      <c r="E259" s="3">
+      <c r="E259" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="2">
+    <row r="260" spans="1:5" s="11" customFormat="1">
+      <c r="A260" s="8">
         <v>510800</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="B260" s="8"/>
+      <c r="C260" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="9">
         <v>1008.01</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="2">
+    <row r="261" spans="1:5" s="11" customFormat="1">
+      <c r="A261" s="8">
         <v>510900</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="B261" s="8"/>
+      <c r="C261" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="9">
         <v>1403.18</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="2">
+    <row r="262" spans="1:5" s="11" customFormat="1">
+      <c r="A262" s="8">
         <v>511000</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="B262" s="8"/>
+      <c r="C262" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D262" s="4">
+      <c r="D262" s="9">
         <v>1465.88</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="2">
+    <row r="263" spans="1:5" s="11" customFormat="1">
+      <c r="A263" s="8">
         <v>511100</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="B263" s="8"/>
+      <c r="C263" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D263" s="4">
-        <v>2003.43</v>
-      </c>
-      <c r="E263" s="3">
+      <c r="D263" s="9">
+        <v>2003.42</v>
+      </c>
+      <c r="E263" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="2">
+    <row r="264" spans="1:5" s="11" customFormat="1">
+      <c r="A264" s="8">
         <v>511300</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="B264" s="8"/>
+      <c r="C264" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D264" s="4">
+      <c r="D264" s="9">
         <v>2401.08</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E264" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="2">
+    <row r="265" spans="1:5" s="11" customFormat="1">
+      <c r="A265" s="8">
         <v>511400</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="B265" s="8"/>
+      <c r="C265" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="9">
         <v>1423.74</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E265" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="2">
+    <row r="266" spans="1:5" s="11" customFormat="1">
+      <c r="A266" s="8">
         <v>511500</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="B266" s="8"/>
+      <c r="C266" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D266" s="4">
-        <v>2802.1248999999998</v>
-      </c>
-      <c r="E266" s="3">
+      <c r="D266" s="9">
+        <v>2802.12</v>
+      </c>
+      <c r="E266" s="10">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="2">
+    <row r="267" spans="1:5" s="11" customFormat="1">
+      <c r="A267" s="8">
         <v>511600</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="B267" s="8"/>
+      <c r="C267" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="9">
         <v>1301.5999999999999</v>
       </c>
-      <c r="E267" s="3">
+      <c r="E267" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="2">
+    <row r="268" spans="1:5" s="11" customFormat="1">
+      <c r="A268" s="8">
         <v>511700</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="B268" s="8"/>
+      <c r="C268" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D268" s="4">
+      <c r="D268" s="9">
         <v>2118</v>
       </c>
-      <c r="E268" s="3">
+      <c r="E268" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="2">
+    <row r="269" spans="1:5" s="11" customFormat="1">
+      <c r="A269" s="8">
         <v>511800</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="B269" s="8"/>
+      <c r="C269" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D269" s="4">
+      <c r="D269" s="9">
         <v>754.59</v>
       </c>
-      <c r="E269" s="3">
+      <c r="E269" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="2">
+    <row r="270" spans="1:5" s="11" customFormat="1">
+      <c r="A270" s="8">
         <v>511900</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="B270" s="8"/>
+      <c r="C270" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D270" s="4">
+      <c r="D270" s="9">
         <v>766.99</v>
       </c>
-      <c r="E270" s="3">
+      <c r="E270" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="2">
+    <row r="271" spans="1:5" s="11" customFormat="1">
+      <c r="A271" s="8">
         <v>512000</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="B271" s="8"/>
+      <c r="C271" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D271" s="4">
+      <c r="D271" s="9">
         <v>807.5</v>
       </c>
-      <c r="E271" s="3">
+      <c r="E271" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="2">
+    <row r="272" spans="1:5" s="11" customFormat="1">
+      <c r="A272" s="8">
         <v>513200</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="B272" s="8"/>
+      <c r="C272" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D272" s="4">
+      <c r="D272" s="9">
         <v>411.75</v>
       </c>
-      <c r="E272" s="3">
+      <c r="E272" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="2">
+    <row r="273" spans="1:5" s="11" customFormat="1">
+      <c r="A273" s="8">
         <v>513300</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="B273" s="8"/>
+      <c r="C273" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D273" s="4">
+      <c r="D273" s="9">
         <v>410.61</v>
       </c>
-      <c r="E273" s="3">
+      <c r="E273" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="2">
+    <row r="274" spans="1:5" s="11" customFormat="1">
+      <c r="A274" s="8">
         <v>513400</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="B274" s="8"/>
+      <c r="C274" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D274" s="4">
+      <c r="D274" s="9">
         <v>1733.15</v>
       </c>
-      <c r="E274" s="3">
+      <c r="E274" s="10">
         <v>3.9E-2</v>
       </c>
     </row>
@@ -5450,129 +5658,138 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="2">
+    <row r="276" spans="1:5" s="11" customFormat="1">
+      <c r="A276" s="8">
         <v>520100</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="B276" s="8"/>
+      <c r="C276" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D276" s="4">
+      <c r="D276" s="9">
         <v>4311.6499999999996</v>
       </c>
-      <c r="E276" s="3">
+      <c r="E276" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="2">
+    <row r="277" spans="1:5" s="11" customFormat="1">
+      <c r="A277" s="8">
         <v>520200</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="B277" s="8"/>
+      <c r="C277" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D277" s="4">
+      <c r="D277" s="9">
         <v>1339.62</v>
       </c>
-      <c r="E277" s="3">
+      <c r="E277" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="2">
+    <row r="278" spans="1:5" s="11" customFormat="1">
+      <c r="A278" s="8">
         <v>520300</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="B278" s="8"/>
+      <c r="C278" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D278" s="4">
+      <c r="D278" s="9">
         <v>3720.05</v>
       </c>
-      <c r="E278" s="3">
+      <c r="E278" s="10">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="2">
+    <row r="279" spans="1:5" s="11" customFormat="1">
+      <c r="A279" s="8">
         <v>520400</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="B279" s="8"/>
+      <c r="C279" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D279" s="4">
+      <c r="D279" s="9">
         <v>966.74</v>
       </c>
-      <c r="E279" s="3">
+      <c r="E279" s="10">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="2">
+    <row r="280" spans="1:5" s="11" customFormat="1">
+      <c r="A280" s="8">
         <v>520500</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="B280" s="8"/>
+      <c r="C280" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D280" s="4">
+      <c r="D280" s="9">
         <v>2020.39</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E280" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="2">
+    <row r="281" spans="1:5" s="11" customFormat="1">
+      <c r="A281" s="8">
         <v>520600</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="B281" s="8"/>
+      <c r="C281" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D281" s="4">
+      <c r="D281" s="9">
         <v>1327.79</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E281" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="2">
+    <row r="282" spans="1:5" s="11" customFormat="1">
+      <c r="A282" s="8">
         <v>522300</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="B282" s="8"/>
+      <c r="C282" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D282" s="4">
+      <c r="D282" s="9">
         <v>1353.4</v>
       </c>
-      <c r="E282" s="3">
+      <c r="E282" s="10">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="2">
+    <row r="283" spans="1:5" s="11" customFormat="1">
+      <c r="A283" s="8">
         <v>522600</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="B283" s="8"/>
+      <c r="C283" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D283" s="4">
+      <c r="D283" s="9">
         <v>1191.52</v>
       </c>
-      <c r="E283" s="3">
+      <c r="E283" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="2">
+    <row r="284" spans="1:5" s="11" customFormat="1">
+      <c r="A284" s="8">
         <v>522700</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="B284" s="8"/>
+      <c r="C284" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D284" s="4">
+      <c r="D284" s="9">
         <v>1595.4</v>
       </c>
-      <c r="E284" s="3">
+      <c r="E284" s="10">
         <v>0.04</v>
       </c>
     </row>
@@ -5591,95 +5808,108 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="2">
+    <row r="286" spans="1:5" s="11" customFormat="1">
+      <c r="A286" s="8">
         <v>530100</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="B286" s="8"/>
+      <c r="C286" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D286" s="4">
+      <c r="D286" s="9">
         <v>6733.79</v>
       </c>
-      <c r="E286" s="3">
+      <c r="E286" s="10">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="2">
+    <row r="287" spans="1:5" s="11" customFormat="1">
+      <c r="A287" s="8">
         <v>530300</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="B287" s="8"/>
+      <c r="C287" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D287" s="4">
+      <c r="D287" s="9">
         <v>2959.35</v>
       </c>
-      <c r="E287" s="3">
+      <c r="E287" s="10">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="2">
+    <row r="288" spans="1:5" s="11" customFormat="1">
+      <c r="A288" s="8">
         <v>530400</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="B288" s="8"/>
+      <c r="C288" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D288" s="4">
+      <c r="D288" s="9">
         <v>2058.1</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E288" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="2">
+    <row r="289" spans="1:5" s="11" customFormat="1">
+      <c r="A289" s="8">
         <v>530500</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="B289" s="8"/>
+      <c r="C289" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D289" s="4">
-        <v>1052.5799</v>
-      </c>
-      <c r="E289" s="3">
+      <c r="D289" s="9">
+        <v>1052.58</v>
+      </c>
+      <c r="E289" s="10">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="2">
+    <row r="290" spans="1:5" s="11" customFormat="1">
+      <c r="A290" s="8">
         <v>530600</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="B290" s="8"/>
+      <c r="C290" s="8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="2">
+      <c r="D290" s="9">
+        <v>1288.74</v>
+      </c>
+      <c r="E290" s="10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" s="11" customFormat="1">
+      <c r="A291" s="8">
         <v>530700</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="B291" s="8"/>
+      <c r="C291" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D291" s="4">
+      <c r="D291" s="9">
         <v>521.75</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E291" s="10">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="2">
+    <row r="292" spans="1:5" s="11" customFormat="1">
+      <c r="A292" s="8">
         <v>530800</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="B292" s="8"/>
+      <c r="C292" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D292" s="4">
+      <c r="D292" s="9">
         <v>945.42</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E292" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -6606,7 +6836,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E368">
-    <sortCondition ref="A2:A368"/>
+    <sortCondition ref="A320:A368"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63081A5-91D0-5C4E-89B0-F1F75CC17669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D7553-476F-8047-B6C5-1ED22AA3200E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="-26980" windowWidth="27800" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1246,6 +1246,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1564,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B290" sqref="B290"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -5847,7 +5850,7 @@
         <v>291</v>
       </c>
       <c r="D288" s="9">
-        <v>2058.1</v>
+        <v>2058.14</v>
       </c>
       <c r="E288" s="10">
         <v>2.1000000000000001E-2</v>
@@ -5913,112 +5916,139 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="2">
+    <row r="293" spans="1:5" s="11" customFormat="1">
+      <c r="A293" s="8">
         <v>530900</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="B293" s="8"/>
+      <c r="C293" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D293" s="4">
+      <c r="D293" s="9">
         <v>821.32</v>
       </c>
-      <c r="E293" s="3">
+      <c r="E293" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="2">
+    <row r="294" spans="1:5" s="11" customFormat="1">
+      <c r="A294" s="8">
         <v>532300</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="B294" s="8"/>
+      <c r="C294" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D294" s="4">
+      <c r="D294" s="9">
         <v>1372.16</v>
       </c>
-      <c r="E294" s="3">
+      <c r="E294" s="10">
         <v>0.06</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="2">
+    <row r="295" spans="1:5" s="11" customFormat="1">
+      <c r="A295" s="8">
         <v>532500</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="B295" s="8"/>
+      <c r="C295" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D295" s="4">
+      <c r="D295" s="9">
         <v>2417.4699999999998</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E295" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="2">
+    <row r="296" spans="1:5" s="11" customFormat="1">
+      <c r="A296" s="8">
         <v>532600</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="B296" s="8"/>
+      <c r="C296" s="8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="2">
+      <c r="D296" s="9">
+        <v>1185.1199999999999</v>
+      </c>
+      <c r="E296" s="10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" s="11" customFormat="1">
+      <c r="A297" s="8">
         <v>532800</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="B297" s="8"/>
+      <c r="C297" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D297" s="4">
+      <c r="D297" s="9">
         <v>604.17999999999995</v>
       </c>
-      <c r="E297" s="3">
+      <c r="E297" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="2">
+    <row r="298" spans="1:5" s="11" customFormat="1">
+      <c r="A298" s="8">
         <v>532900</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="B298" s="8"/>
+      <c r="C298" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="2">
+      <c r="D298" s="9">
+        <v>1484.04</v>
+      </c>
+      <c r="E298" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" s="11" customFormat="1">
+      <c r="A299" s="8">
         <v>533100</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="B299" s="8"/>
+      <c r="C299" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D299" s="4">
-        <v>575.53620000000001</v>
-      </c>
-      <c r="E299" s="3">
+      <c r="D299" s="9">
+        <v>575.54</v>
+      </c>
+      <c r="E299" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="2">
+    <row r="300" spans="1:5" s="11" customFormat="1">
+      <c r="A300" s="8">
         <v>533300</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="B300" s="8"/>
+      <c r="C300" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D300" s="4">
+      <c r="D300" s="9">
         <v>210.73</v>
       </c>
-      <c r="E300" s="3">
+      <c r="E300" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="2">
+    <row r="301" spans="1:5" s="11" customFormat="1">
+      <c r="A301" s="8">
         <v>533400</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="B301" s="8"/>
+      <c r="C301" s="8" t="s">
         <v>303</v>
+      </c>
+      <c r="D301" s="9">
+        <v>266.94</v>
+      </c>
+      <c r="E301" s="10">
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="11" customFormat="1">
@@ -6036,61 +6066,82 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="2">
+    <row r="303" spans="1:5" s="11" customFormat="1">
+      <c r="A303" s="8">
         <v>540100</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="B303" s="8"/>
+      <c r="C303" s="8" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="2">
+      <c r="D303" s="9"/>
+      <c r="E303" s="10"/>
+    </row>
+    <row r="304" spans="1:5" s="11" customFormat="1">
+      <c r="A304" s="8">
         <v>540200</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="B304" s="8"/>
+      <c r="C304" s="8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="2">
+      <c r="D304" s="9"/>
+      <c r="E304" s="10"/>
+    </row>
+    <row r="305" spans="1:5" s="11" customFormat="1">
+      <c r="A305" s="8">
         <v>540300</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="B305" s="8"/>
+      <c r="C305" s="8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="2">
+      <c r="D305" s="9"/>
+      <c r="E305" s="10"/>
+    </row>
+    <row r="306" spans="1:5" s="11" customFormat="1">
+      <c r="A306" s="8">
         <v>540400</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="B306" s="8"/>
+      <c r="C306" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="2">
+      <c r="D306" s="9"/>
+      <c r="E306" s="10"/>
+    </row>
+    <row r="307" spans="1:5" s="11" customFormat="1">
+      <c r="A307" s="8">
         <v>540500</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="B307" s="8"/>
+      <c r="C307" s="8" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="2">
+      <c r="D307" s="9"/>
+      <c r="E307" s="10"/>
+    </row>
+    <row r="308" spans="1:5" s="11" customFormat="1">
+      <c r="A308" s="8">
         <v>540600</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="B308" s="8"/>
+      <c r="C308" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="2">
+      <c r="D308" s="9"/>
+      <c r="E308" s="10"/>
+    </row>
+    <row r="309" spans="1:5" s="11" customFormat="1">
+      <c r="A309" s="8">
         <v>542500</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="B309" s="8"/>
+      <c r="C309" s="8" t="s">
         <v>312</v>
       </c>
+      <c r="D309" s="9"/>
+      <c r="E309" s="10"/>
     </row>
     <row r="310" spans="1:5" s="11" customFormat="1">
       <c r="A310" s="8">
@@ -6107,143 +6158,153 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="2">
+    <row r="311" spans="1:5" s="11" customFormat="1">
+      <c r="A311" s="8">
         <v>610100</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="B311" s="8"/>
+      <c r="C311" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D311" s="4">
+      <c r="D311" s="9">
         <v>10020.39</v>
       </c>
-      <c r="E311" s="3">
+      <c r="E311" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="2">
+    <row r="312" spans="1:5" s="11" customFormat="1">
+      <c r="A312" s="8">
         <v>610200</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="B312" s="8"/>
+      <c r="C312" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D312" s="4">
+      <c r="D312" s="9">
         <v>381.75</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E312" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="2">
+    <row r="313" spans="1:5" s="11" customFormat="1">
+      <c r="A313" s="8">
         <v>610300</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="B313" s="8"/>
+      <c r="C313" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D313" s="4">
+      <c r="D313" s="9">
         <v>2276.9499999999998</v>
       </c>
-      <c r="E313" s="3">
+      <c r="E313" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="2">
+    <row r="314" spans="1:5" s="11" customFormat="1">
+      <c r="A314" s="8">
         <v>610400</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="B314" s="8"/>
+      <c r="C314" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D314" s="4">
+      <c r="D314" s="9">
         <v>2204.81</v>
       </c>
-      <c r="E314" s="3">
+      <c r="E314" s="10">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="2">
+    <row r="315" spans="1:5" s="11" customFormat="1">
+      <c r="A315" s="8">
         <v>610500</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="B315" s="8"/>
+      <c r="C315" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D315" s="4">
+      <c r="D315" s="9">
         <v>1866.27</v>
       </c>
-      <c r="E315" s="3">
+      <c r="E315" s="10">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="2">
+    <row r="316" spans="1:5" s="11" customFormat="1">
+      <c r="A316" s="8">
         <v>610600</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="B316" s="8"/>
+      <c r="C316" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D316" s="4">
+      <c r="D316" s="9">
         <v>1601.48</v>
       </c>
-      <c r="E316" s="3">
+      <c r="E316" s="10">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="2">
+    <row r="317" spans="1:5" s="11" customFormat="1">
+      <c r="A317" s="8">
         <v>610700</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="B317" s="8"/>
+      <c r="C317" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D317" s="4">
+      <c r="D317" s="9">
         <v>1593.4</v>
       </c>
-      <c r="E317" s="3">
+      <c r="E317" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="2">
+    <row r="318" spans="1:5" s="11" customFormat="1">
+      <c r="A318" s="8">
         <v>610800</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="B318" s="8"/>
+      <c r="C318" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D318" s="4">
+      <c r="D318" s="9">
         <v>4089.66</v>
       </c>
-      <c r="E318" s="3">
+      <c r="E318" s="10">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="2">
+    <row r="319" spans="1:5" s="11" customFormat="1">
+      <c r="A319" s="8">
         <v>610900</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="B319" s="8"/>
+      <c r="C319" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D319" s="4">
+      <c r="D319" s="9">
         <v>1088.78</v>
       </c>
-      <c r="E319" s="3">
+      <c r="E319" s="10">
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="2">
+    <row r="320" spans="1:5" s="11" customFormat="1">
+      <c r="A320" s="8">
         <v>611000</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="B320" s="8"/>
+      <c r="C320" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D320" s="4">
+      <c r="D320" s="9">
         <v>739.46</v>
       </c>
-      <c r="E320" s="3">
+      <c r="E320" s="10">
         <v>-0.112</v>
       </c>
     </row>
@@ -6262,199 +6323,213 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="2">
+    <row r="322" spans="1:5" s="11" customFormat="1">
+      <c r="A322" s="8">
         <v>620100</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="B322" s="8"/>
+      <c r="C322" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D322" s="4">
+      <c r="D322" s="9">
         <v>2886.74</v>
       </c>
-      <c r="E322" s="3">
+      <c r="E322" s="10">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="2">
+    <row r="323" spans="1:5" s="11" customFormat="1">
+      <c r="A323" s="8">
         <v>620200</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="B323" s="8"/>
+      <c r="C323" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="D323" s="4">
+      <c r="D323" s="9">
         <v>281.60000000000002</v>
       </c>
-      <c r="E323" s="3">
+      <c r="E323" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="2">
+    <row r="324" spans="1:5" s="11" customFormat="1">
+      <c r="A324" s="8">
         <v>620300</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="B324" s="8"/>
+      <c r="C324" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D324" s="4">
+      <c r="D324" s="9">
         <v>358.62</v>
       </c>
-      <c r="E324" s="3">
+      <c r="E324" s="10">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="2">
+    <row r="325" spans="1:5" s="11" customFormat="1">
+      <c r="A325" s="8">
         <v>620400</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="B325" s="8"/>
+      <c r="C325" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="D325" s="4">
+      <c r="D325" s="9">
         <v>497.27</v>
       </c>
-      <c r="E325" s="3">
+      <c r="E325" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="2">
+    <row r="326" spans="1:5" s="11" customFormat="1">
+      <c r="A326" s="8">
         <v>620500</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="B326" s="8"/>
+      <c r="C326" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D326" s="4">
+      <c r="D326" s="9">
         <v>666.9</v>
       </c>
-      <c r="E326" s="3">
+      <c r="E326" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="2">
+    <row r="327" spans="1:5" s="11" customFormat="1">
+      <c r="A327" s="8">
         <v>620600</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="B327" s="8"/>
+      <c r="C327" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="D327" s="4">
+      <c r="D327" s="9">
         <v>526.41</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="2">
+    <row r="328" spans="1:5" s="11" customFormat="1">
+      <c r="A328" s="8">
         <v>620700</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="B328" s="8"/>
+      <c r="C328" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D328" s="4">
+      <c r="D328" s="9">
         <v>467.05</v>
       </c>
-      <c r="E328" s="3">
+      <c r="E328" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="2">
+    <row r="329" spans="1:5" s="11" customFormat="1">
+      <c r="A329" s="8">
         <v>620800</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="B329" s="12"/>
+      <c r="C329" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D329" s="4">
+      <c r="D329" s="9">
         <v>476.16</v>
       </c>
-      <c r="E329" s="3">
+      <c r="E329" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="2">
+    <row r="330" spans="1:5" s="11" customFormat="1">
+      <c r="A330" s="8">
         <v>620900</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="B330" s="8"/>
+      <c r="C330" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D330" s="4">
+      <c r="D330" s="9">
         <v>657.7</v>
       </c>
-      <c r="E330" s="3">
+      <c r="E330" s="10">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="2">
+    <row r="331" spans="1:5" s="11" customFormat="1">
+      <c r="A331" s="8">
         <v>621000</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="B331" s="8"/>
+      <c r="C331" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D331" s="4">
+      <c r="D331" s="9">
         <v>754.73</v>
       </c>
-      <c r="E331" s="3">
+      <c r="E331" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="2">
+    <row r="332" spans="1:5" s="11" customFormat="1">
+      <c r="A332" s="8">
         <v>621100</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="B332" s="8"/>
+      <c r="C332" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D332" s="4">
-        <v>441.35559999999998</v>
-      </c>
-      <c r="E332" s="3">
+      <c r="D332" s="9">
+        <v>441.36</v>
+      </c>
+      <c r="E332" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="2">
+    <row r="333" spans="1:5" s="11" customFormat="1">
+      <c r="A333" s="8">
         <v>621200</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="B333" s="8"/>
+      <c r="C333" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="D333" s="4">
+      <c r="D333" s="9">
         <v>451.8</v>
       </c>
-      <c r="E333" s="3">
+      <c r="E333" s="10">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="2">
+    <row r="334" spans="1:5" s="11" customFormat="1">
+      <c r="A334" s="8">
         <v>622900</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="B334" s="8"/>
+      <c r="C334" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D334" s="4">
+      <c r="D334" s="9">
         <v>331.3</v>
       </c>
-      <c r="E334" s="3">
+      <c r="E334" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="2">
+    <row r="335" spans="1:5" s="11" customFormat="1">
+      <c r="A335" s="8">
         <v>623000</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="B335" s="8"/>
+      <c r="C335" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="D335" s="4">
-        <v>219.0616</v>
-      </c>
-      <c r="E335" s="3">
+      <c r="D335" s="9">
+        <v>219.06</v>
+      </c>
+      <c r="E335" s="10">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -6473,84 +6548,109 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="2">
+    <row r="337" spans="1:5" s="11" customFormat="1">
+      <c r="A337" s="8">
         <v>630100</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="B337" s="8"/>
+      <c r="C337" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D337" s="4">
+      <c r="D337" s="9">
         <v>1732.98</v>
       </c>
-      <c r="E337" s="3">
+      <c r="E337" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="2">
+    <row r="338" spans="1:5" s="11" customFormat="1">
+      <c r="A338" s="8">
         <v>630200</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="B338" s="8"/>
+      <c r="C338" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="D338" s="4">
+      <c r="D338" s="9">
         <v>514.6</v>
       </c>
-      <c r="E338" s="3">
+      <c r="E338" s="10">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="2">
+    <row r="339" spans="1:5" s="11" customFormat="1">
+      <c r="A339" s="8">
         <v>632200</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="B339" s="8"/>
+      <c r="C339" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="2">
+      <c r="D339" s="9">
+        <v>95.09</v>
+      </c>
+      <c r="E339" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" s="11" customFormat="1">
+      <c r="A340" s="8">
         <v>632300</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="B340" s="8"/>
+      <c r="C340" s="8" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="2">
+      <c r="D340" s="9">
+        <v>109.39</v>
+      </c>
+      <c r="E340" s="10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" s="11" customFormat="1">
+      <c r="A341" s="8">
         <v>632500</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="B341" s="8"/>
+      <c r="C341" s="8" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="2">
+      <c r="D341" s="9"/>
+      <c r="E341" s="10"/>
+    </row>
+    <row r="342" spans="1:5" s="11" customFormat="1">
+      <c r="A342" s="8">
         <v>632600</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="B342" s="8"/>
+      <c r="C342" s="8" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="2">
+      <c r="D342" s="9"/>
+      <c r="E342" s="10"/>
+    </row>
+    <row r="343" spans="1:5" s="11" customFormat="1">
+      <c r="A343" s="8">
         <v>632700</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="B343" s="8"/>
+      <c r="C343" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="2">
+      <c r="D343" s="9"/>
+      <c r="E343" s="10"/>
+    </row>
+    <row r="344" spans="1:5" s="11" customFormat="1">
+      <c r="A344" s="8">
         <v>632800</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="B344" s="8"/>
+      <c r="C344" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D344" s="4">
-        <v>619.80999999999995</v>
-      </c>
+      <c r="D344" s="9"/>
+      <c r="E344" s="10"/>
     </row>
     <row r="345" spans="1:5" s="11" customFormat="1">
       <c r="A345" s="8">
@@ -6657,148 +6757,213 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="2">
+    <row r="352" spans="1:5" s="11" customFormat="1">
+      <c r="A352" s="8">
         <v>650100</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="B352" s="8"/>
+      <c r="C352" s="8" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="2">
+      <c r="D352" s="9">
+        <v>3337.32</v>
+      </c>
+      <c r="E352" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" s="11" customFormat="1">
+      <c r="A353" s="8">
         <v>650200</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="B353" s="8"/>
+      <c r="C353" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D353" s="4">
+      <c r="D353" s="9">
         <v>886.9</v>
       </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="2">
+      <c r="E353" s="10">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" s="11" customFormat="1">
+      <c r="A354" s="8">
         <v>650400</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="B354" s="8"/>
+      <c r="C354" s="8" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="2">
+      <c r="D354" s="9">
+        <v>373.41</v>
+      </c>
+      <c r="E354" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" s="11" customFormat="1">
+      <c r="A355" s="8">
         <v>650500</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="B355" s="8"/>
+      <c r="C355" s="8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="2">
+      <c r="D355" s="9">
+        <v>607.91</v>
+      </c>
+      <c r="E355" s="10">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" s="11" customFormat="1">
+      <c r="A356" s="8">
         <v>652300</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="B356" s="8"/>
+      <c r="C356" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D356" s="4">
+      <c r="D356" s="9">
         <v>1387.25</v>
       </c>
-      <c r="E356" s="3">
+      <c r="E356" s="10">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="2">
+    <row r="357" spans="1:5" s="11" customFormat="1">
+      <c r="A357" s="8">
         <v>652700</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="B357" s="8"/>
+      <c r="C357" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D357" s="4">
-        <v>377.1</v>
-      </c>
-      <c r="E357" s="3">
+      <c r="D357" s="9">
+        <v>377.14</v>
+      </c>
+      <c r="E357" s="10">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="2">
+    <row r="358" spans="1:5" s="11" customFormat="1">
+      <c r="A358" s="8">
         <v>652800</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="B358" s="8"/>
+      <c r="C358" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="A359" s="2">
+      <c r="D358" s="9">
+        <v>1106.29</v>
+      </c>
+      <c r="E358" s="10">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" s="11" customFormat="1">
+      <c r="A359" s="8">
         <v>652900</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="B359" s="8"/>
+      <c r="C359" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D359" s="4">
+      <c r="D359" s="9">
         <v>1315.05</v>
       </c>
-      <c r="E359" s="3">
+      <c r="E359" s="10">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="2">
+    <row r="360" spans="1:5" s="11" customFormat="1">
+      <c r="A360" s="8">
         <v>653000</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="B360" s="8"/>
+      <c r="C360" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D360" s="4">
-        <v>169.2389</v>
-      </c>
-      <c r="E360" s="3">
+      <c r="D360" s="9">
+        <v>169.24</v>
+      </c>
+      <c r="E360" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="2">
+    <row r="361" spans="1:5" s="11" customFormat="1">
+      <c r="A361" s="8">
         <v>653100</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="B361" s="8"/>
+      <c r="C361" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="2">
+      <c r="D361" s="9">
+        <v>1130.22</v>
+      </c>
+      <c r="E361" s="10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" s="11" customFormat="1">
+      <c r="A362" s="8">
         <v>653200</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="B362" s="8"/>
+      <c r="C362" s="8" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="2">
+      <c r="D362" s="9">
+        <v>406.32</v>
+      </c>
+      <c r="E362" s="10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" s="11" customFormat="1">
+      <c r="A363" s="8">
         <v>654000</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="B363" s="8"/>
+      <c r="C363" s="8" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="2">
+      <c r="D363" s="9">
+        <v>1266.01</v>
+      </c>
+      <c r="E363" s="10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" s="11" customFormat="1">
+      <c r="A364" s="8">
         <v>654200</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="B364" s="8"/>
+      <c r="C364" s="8" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="2">
+      <c r="D364" s="9">
+        <v>737.57</v>
+      </c>
+      <c r="E364" s="10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" s="11" customFormat="1">
+      <c r="A365" s="8">
         <v>654300</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="B365" s="8"/>
+      <c r="C365" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D365" s="4">
+      <c r="D365" s="9">
         <v>334.53</v>
       </c>
-      <c r="E365" s="3">
+      <c r="E365" s="10">
         <v>2.3E-2</v>
       </c>
     </row>
@@ -6836,7 +7001,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E368">
-    <sortCondition ref="A320:A368"/>
+    <sortCondition ref="A341:A368"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D7553-476F-8047-B6C5-1ED22AA3200E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2CE1AB-0491-EB4E-BBDD-D1225E838549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="-26980" windowWidth="27800" windowHeight="17500" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="1340" yWindow="-26980" windowWidth="27800" windowHeight="22900" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -1182,14 +1182,15 @@
       <name val="Songti SC Regular"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color theme="4"/>
-      <name val="Songti SC Regular"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
+      <color theme="1"/>
       <name val="Songti SC Regular"/>
     </font>
   </fonts>
@@ -1215,38 +1216,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1568,15 +1559,15 @@
   <dimension ref="A1:E368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="3" width="24.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="24.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
@@ -1596,5413 +1587,5008 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1">
-      <c r="A2" s="8">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>110000</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9">
+      <c r="D2" s="3">
         <v>36102.6</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="11" customFormat="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>120000</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>14083.73</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>130000</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
+      <c r="D4" s="3">
         <v>36206.9</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="11" customFormat="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>130100</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="3">
         <v>5935.1</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>130200</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="3">
         <v>7210.9</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1">
-      <c r="A7" s="8">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>130300</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>1685.8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="11" customFormat="1">
-      <c r="A8" s="8">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>130400</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="3">
         <v>3636.6</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="11" customFormat="1">
-      <c r="A9" s="8">
+    <row r="9" spans="1:5" s="1" customFormat="1">
+      <c r="A9" s="1">
         <v>130500</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="3">
         <v>2200.4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>130600</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="1">
         <v>3353.3</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" s="11" customFormat="1">
-      <c r="A11" s="8">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>130700</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="3">
         <v>1600.1</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1">
-      <c r="A12" s="8">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>130800</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="3">
         <v>1550.3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1">
-      <c r="A13" s="8">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
         <v>130900</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="3">
         <v>3699.9</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="11" customFormat="1">
-      <c r="A14" s="8">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
         <v>131000</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="3">
         <v>3301.1</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1">
-      <c r="A15" s="8">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
         <v>131100</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="3">
         <v>1560.2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1">
-      <c r="A16" s="8">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
         <v>140000</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9">
+      <c r="D16" s="3">
         <v>17651.93</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1">
-      <c r="A17" s="8">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>140100</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="3">
         <v>4153.32</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
         <v>140200</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="3">
         <v>1369.9</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1">
-      <c r="A19" s="8">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>140300</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="3">
         <v>742.2</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>140400</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="3">
         <v>1711.6</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>140500</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="3">
         <v>1425.7</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1">
-      <c r="A22" s="8">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>140600</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="3">
         <v>1100.5</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1">
-      <c r="A23" s="8">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>140700</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="3">
         <v>1468.8</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1">
-      <c r="A24" s="8">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>140800</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="3">
         <v>1643.6</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1">
-      <c r="A25" s="8">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
         <v>140900</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="3">
         <v>1034.5999999999999</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1">
-      <c r="A26" s="8">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
         <v>141000</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="3">
         <v>1505.2</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1">
-      <c r="A27" s="8">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
         <v>141100</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="3">
         <v>1538.04</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="4">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1">
-      <c r="A28" s="8">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>150000</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9">
+      <c r="D28" s="3">
         <v>17359.8</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1">
-      <c r="A29" s="8">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
         <v>150100</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="3">
         <v>2800.68</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1">
-      <c r="A30" s="8">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
         <v>150200</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="3">
         <v>2787.4</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1">
-      <c r="A31" s="8">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
         <v>150300</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="3">
         <v>563.14</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1">
-      <c r="A32" s="8">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>150400</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="3">
         <v>1763.6</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="4">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="11" customFormat="1">
-      <c r="A33" s="8">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>150500</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="3">
         <v>1276.6400000000001</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="4">
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="11" customFormat="1">
-      <c r="A34" s="8">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>150600</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="3">
         <v>3533.66</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="11" customFormat="1">
-      <c r="A35" s="8">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>150700</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="3">
         <v>1172.2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="11" customFormat="1">
-      <c r="A36" s="8">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
         <v>150800</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="3">
         <v>874</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="11" customFormat="1">
-      <c r="A37" s="8">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>150900</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="3">
         <v>826.9</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="4">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="11" customFormat="1">
-      <c r="A38" s="8">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>152200</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="3">
         <v>547.91999999999996</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="11" customFormat="1">
-      <c r="A39" s="8">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
         <v>152500</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="3">
         <v>839.84</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="11" customFormat="1">
-      <c r="A40" s="8">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
         <v>152900</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="3">
         <v>304.8</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="11" customFormat="1">
-      <c r="A41" s="8">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
         <v>210000</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9">
+      <c r="D41" s="3">
         <v>25115</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="11" customFormat="1">
-      <c r="A42" s="8">
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>210100</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="3">
         <v>6571.6</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="11" customFormat="1">
-      <c r="A43" s="8">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
         <v>210200</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="3">
         <v>7030.4</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="11" customFormat="1">
-      <c r="A44" s="8">
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
         <v>210300</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="3">
         <v>1738.78</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="11" customFormat="1">
-      <c r="A45" s="8">
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
         <v>210400</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="3">
         <v>827.8</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="4">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="11" customFormat="1">
-      <c r="A46" s="8">
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
         <v>210500</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="3">
         <v>810.4</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="11" customFormat="1">
-      <c r="A47" s="8">
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
         <v>210600</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="3">
         <v>779.4</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="11" customFormat="1">
-      <c r="A48" s="8">
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
         <v>210700</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="3">
         <v>1072.2</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="4">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="11" customFormat="1">
-      <c r="A49" s="8">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
         <v>210800</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="3">
         <v>1325.5</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="4">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="11" customFormat="1">
-      <c r="A50" s="8">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
         <v>210900</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="3">
         <v>504.6</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="11" customFormat="1">
-      <c r="A51" s="8">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
         <v>211000</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="3">
         <v>837.7</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="11" customFormat="1">
-      <c r="A52" s="8">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
         <v>211100</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="3">
         <v>1303.5999999999999</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="11" customFormat="1">
-      <c r="A53" s="8">
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
         <v>211200</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="3">
         <v>663.1</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="11" customFormat="1">
-      <c r="A54" s="8">
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
         <v>211300</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="3">
         <v>875.6</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="11" customFormat="1">
-      <c r="A55" s="8">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
         <v>211400</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="3">
         <v>770.4</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="4">
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="11" customFormat="1">
-      <c r="A56" s="8">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
         <v>220000</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9">
+      <c r="D56" s="3">
         <v>12311.32</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="4">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="11" customFormat="1">
-      <c r="A57" s="8">
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
         <v>220100</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="3">
         <v>6638.03</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="11" customFormat="1">
-      <c r="A58" s="8">
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
         <v>220200</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="10">
+      <c r="D58" s="1"/>
+      <c r="E58" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="11" customFormat="1">
-      <c r="A59" s="8">
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
         <v>220300</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="10">
+      <c r="D59" s="1"/>
+      <c r="E59" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="11" customFormat="1">
-      <c r="A60" s="8">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
         <v>220400</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="10">
+      <c r="D60" s="1"/>
+      <c r="E60" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="11" customFormat="1">
-      <c r="A61" s="8">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
         <v>220500</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="10">
+      <c r="D61" s="1"/>
+      <c r="E61" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="11" customFormat="1">
-      <c r="A62" s="8">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
         <v>220600</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="10">
+      <c r="D62" s="1"/>
+      <c r="E62" s="4">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="11" customFormat="1">
-      <c r="A63" s="8">
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
         <v>220700</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="10">
+      <c r="D63" s="1"/>
+      <c r="E63" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="11" customFormat="1">
-      <c r="A64" s="8">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
         <v>220800</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="10">
+      <c r="D64" s="1"/>
+      <c r="E64" s="4">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="11" customFormat="1">
-      <c r="A65" s="8">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
         <v>222400</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="3">
         <v>726.86</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="11" customFormat="1">
-      <c r="A66" s="8">
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
         <v>230000</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9">
+      <c r="D66" s="3">
         <v>13698.5</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="11" customFormat="1">
-      <c r="A67" s="8">
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
         <v>230100</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="3">
         <v>5183.8</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="11" customFormat="1">
-      <c r="A68" s="8">
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
         <v>230200</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="3">
         <v>1200.4000000000001</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="11" customFormat="1">
-      <c r="A69" s="8">
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
         <v>230300</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="3">
         <v>572.4</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="11" customFormat="1">
-      <c r="A70" s="8">
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
         <v>230400</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:5" s="11" customFormat="1">
-      <c r="A71" s="8">
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
         <v>230500</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="3">
         <v>493.9</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="4">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="11" customFormat="1">
-      <c r="A72" s="8">
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
         <v>230600</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="10">
+      <c r="E72" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="11" customFormat="1">
-      <c r="A73" s="8">
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
         <v>230700</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="3">
         <v>295.19</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="11" customFormat="1">
-      <c r="A74" s="8">
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
         <v>230800</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="3">
         <v>811.8</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="11" customFormat="1">
-      <c r="A75" s="8">
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
         <v>230900</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:5" s="11" customFormat="1">
-      <c r="A76" s="8">
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
         <v>231000</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="3">
         <v>831.74</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="11" customFormat="1">
-      <c r="A77" s="8">
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
         <v>231100</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="3">
         <v>614.4</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="11" customFormat="1">
-      <c r="A78" s="8">
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
         <v>231200</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5" s="11" customFormat="1">
-      <c r="A79" s="8">
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
         <v>232700</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="1:5" s="11" customFormat="1">
-      <c r="A80" s="8">
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
         <v>310000</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="9">
+      <c r="D80" s="3">
         <v>38700.58</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="11" customFormat="1">
-      <c r="A81" s="8">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
         <v>320000</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="9">
+      <c r="D81" s="3">
         <v>102718.98</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="11" customFormat="1">
-      <c r="A82" s="8">
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
         <v>320100</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="3">
         <v>14817.95</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="11" customFormat="1">
-      <c r="A83" s="8">
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
         <v>320200</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="3">
         <v>12370.48</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="11" customFormat="1">
-      <c r="A84" s="8">
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
         <v>320300</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="3">
         <v>7319.77</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="11" customFormat="1">
-      <c r="A85" s="8">
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
         <v>320400</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="3">
         <v>7805.3</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="11" customFormat="1">
-      <c r="A86" s="8">
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
         <v>320500</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="3">
         <v>20170.5</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="11" customFormat="1">
-      <c r="A87" s="8">
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
         <v>320600</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="3">
         <v>10036.31</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="11" customFormat="1">
-      <c r="A88" s="8">
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
         <v>320700</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="3">
         <v>3277.07</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="11" customFormat="1">
-      <c r="A89" s="8">
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
         <v>320800</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="3">
         <v>4025.37</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="11" customFormat="1">
-      <c r="A90" s="8">
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
         <v>320900</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="3">
         <v>5953.38</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="11" customFormat="1">
-      <c r="A91" s="8">
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
         <v>321000</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="3">
         <v>6048.33</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="11" customFormat="1">
-      <c r="A92" s="8">
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
         <v>321100</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="3">
         <v>4220.09</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="11" customFormat="1">
-      <c r="A93" s="8">
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
         <v>321200</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="3">
         <v>5312.77</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="11" customFormat="1">
-      <c r="A94" s="8">
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
         <v>321300</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="3">
         <v>3262.37</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="11" customFormat="1">
-      <c r="A95" s="8">
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
         <v>330000</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="9">
+      <c r="D95" s="3">
         <v>64613.34</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="11" customFormat="1">
-      <c r="A96" s="8">
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
         <v>330100</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="3">
         <v>16105.83</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="11" customFormat="1">
-      <c r="A97" s="8">
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
         <v>330200</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="3">
         <v>12408.66</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="11" customFormat="1">
-      <c r="A98" s="8">
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
         <v>330300</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="3">
         <v>6870.86</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="11" customFormat="1">
-      <c r="A99" s="8">
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
         <v>330400</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="3">
         <v>5509.52</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="11" customFormat="1">
-      <c r="A100" s="8">
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
         <v>330500</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="3">
         <v>3201.41</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="11" customFormat="1">
-      <c r="A101" s="8">
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
         <v>330600</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="3">
         <v>6000.66</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="11" customFormat="1">
-      <c r="A102" s="8">
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
         <v>330700</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="3">
         <v>4703.95</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="11" customFormat="1">
-      <c r="A103" s="8">
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
         <v>330800</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="3">
         <v>1639.12</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="11" customFormat="1">
-      <c r="A104" s="8">
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
         <v>330900</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="3">
         <v>1512.11</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="4">
         <v>0.12</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="11" customFormat="1">
-      <c r="A105" s="8">
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
         <v>331000</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="3">
         <v>5262.72</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="11" customFormat="1">
-      <c r="A106" s="8">
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
         <v>331100</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="3">
         <v>1540.02</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="11" customFormat="1">
-      <c r="A107" s="8">
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
         <v>340000</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="9">
+      <c r="D107" s="3">
         <v>38680.6</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="11" customFormat="1">
-      <c r="A108" s="8">
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
         <v>340100</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="3">
         <v>10045.719999999999</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="11" customFormat="1">
-      <c r="A109" s="8">
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
         <v>340200</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="3">
         <v>3753.02</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="11" customFormat="1">
-      <c r="A110" s="8">
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
         <v>340300</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="3">
         <v>2082.6999999999998</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="11" customFormat="1">
-      <c r="A111" s="8">
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
         <v>340400</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="3">
         <v>1337.2</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="11" customFormat="1">
-      <c r="A112" s="8">
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
         <v>340500</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="3">
         <v>2186.9</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="11" customFormat="1">
-      <c r="A113" s="8">
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
         <v>340600</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="3">
         <v>1119.06</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="11" customFormat="1">
-      <c r="A114" s="8">
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
         <v>340700</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="3">
         <v>1003.7</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="11" customFormat="1">
-      <c r="A115" s="8">
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
         <v>340800</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="3">
         <v>2467.6999999999998</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="11" customFormat="1">
-      <c r="A116" s="8">
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
         <v>341000</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="3">
         <v>850.4</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="11" customFormat="1">
-      <c r="A117" s="8">
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
         <v>341100</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="3">
         <v>3032.07</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="11" customFormat="1">
-      <c r="A118" s="8">
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
         <v>341200</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="3">
         <v>2805.2</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="11" customFormat="1">
-      <c r="A119" s="8">
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
         <v>341300</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="3">
         <v>2044.99</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="11" customFormat="1">
-      <c r="A120" s="8">
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
         <v>341500</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="3">
         <v>1669.5</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="11" customFormat="1">
-      <c r="A121" s="8">
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
         <v>341600</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="3">
         <v>1806.01</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E121" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="11" customFormat="1">
-      <c r="A122" s="8">
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
         <v>341700</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="3">
         <v>868.9</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="11" customFormat="1">
-      <c r="A123" s="8">
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
         <v>341800</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="3">
         <v>1607.5</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="11" customFormat="1">
-      <c r="A124" s="8">
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
         <v>350000</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="9">
+      <c r="D124" s="3">
         <v>43903.89</v>
       </c>
-      <c r="E124" s="10">
+      <c r="E124" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="11" customFormat="1">
-      <c r="A125" s="8">
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
         <v>350100</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="3">
         <v>10020.02</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="11" customFormat="1">
-      <c r="A126" s="8">
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
         <v>350200</v>
       </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="3">
         <v>6384.02</v>
       </c>
-      <c r="E126" s="10">
+      <c r="E126" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="11" customFormat="1">
-      <c r="A127" s="8">
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
         <v>350300</v>
       </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="3">
         <v>2643.97</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="11" customFormat="1">
-      <c r="A128" s="8">
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
         <v>350400</v>
       </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="3">
         <v>2702.19</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="11" customFormat="1">
-      <c r="A129" s="8">
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
         <v>350500</v>
       </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="3">
         <v>10158.66</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="11" customFormat="1">
-      <c r="A130" s="8">
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
         <v>350600</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="10"/>
-    </row>
-    <row r="131" spans="1:5" s="11" customFormat="1">
-      <c r="A131" s="8">
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
         <v>350700</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D131" s="3">
         <v>2007.4</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="11" customFormat="1">
-      <c r="A132" s="8">
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
         <v>350800</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D132" s="3">
         <v>2870.9</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E132" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="11" customFormat="1">
-      <c r="A133" s="8">
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
         <v>350900</v>
       </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D133" s="3">
         <v>2619</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="11" customFormat="1">
-      <c r="A134" s="8">
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
         <v>360000</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="9">
+      <c r="D134" s="3">
         <v>25691.5</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="11" customFormat="1">
-      <c r="A135" s="8">
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
         <v>360100</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D135" s="9">
+      <c r="D135" s="3">
         <v>5745.51</v>
       </c>
-      <c r="E135" s="10">
+      <c r="E135" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="11" customFormat="1">
-      <c r="A136" s="8">
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
         <v>360200</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="3">
         <v>957.14</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="11" customFormat="1">
-      <c r="A137" s="8">
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
         <v>360300</v>
       </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D137" s="3">
         <v>963.6</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="11" customFormat="1">
-      <c r="A138" s="8">
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
         <v>360400</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="3">
         <v>3240.5</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="11" customFormat="1">
-      <c r="A139" s="8">
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
         <v>360500</v>
       </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D139" s="3">
         <v>1001.33</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="11" customFormat="1">
-      <c r="A140" s="8">
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
         <v>360600</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="3">
         <v>982.66</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="11" customFormat="1">
-      <c r="A141" s="8">
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
         <v>360700</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D141" s="9">
+      <c r="D141" s="3">
         <v>3645.2</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="11" customFormat="1">
-      <c r="A142" s="8">
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
         <v>360800</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="3">
         <v>2168.83</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="11" customFormat="1">
-      <c r="A143" s="8">
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
         <v>360900</v>
       </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D143" s="9">
+      <c r="D143" s="3">
         <v>2789.87</v>
       </c>
-      <c r="E143" s="10">
+      <c r="E143" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" s="11" customFormat="1">
-      <c r="A144" s="8">
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
         <v>361000</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D144" s="3">
         <v>1572.51</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E144" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="11" customFormat="1">
-      <c r="A145" s="8">
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
         <v>361100</v>
       </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D145" s="3">
         <v>2624.34</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E145" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="11" customFormat="1">
-      <c r="A146" s="8">
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
         <v>370000</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="9">
+      <c r="D146" s="3">
         <v>73129</v>
       </c>
-      <c r="E146" s="10">
+      <c r="E146" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="11" customFormat="1">
-      <c r="A147" s="8">
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
         <v>370100</v>
       </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D147" s="9">
+      <c r="D147" s="3">
         <v>10140.91</v>
       </c>
-      <c r="E147" s="10">
+      <c r="E147" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" s="11" customFormat="1">
-      <c r="A148" s="8">
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
         <v>370200</v>
       </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D148" s="9">
+      <c r="D148" s="3">
         <v>12400.56</v>
       </c>
-      <c r="E148" s="10">
+      <c r="E148" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="11" customFormat="1">
-      <c r="A149" s="8">
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
         <v>370300</v>
       </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D149" s="9">
+      <c r="D149" s="3">
         <v>3673.54</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="11" customFormat="1">
-      <c r="A150" s="8">
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
         <v>370400</v>
       </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D150" s="9">
+      <c r="D150" s="3">
         <v>1733.25</v>
       </c>
-      <c r="E150" s="10">
+      <c r="E150" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="11" customFormat="1">
-      <c r="A151" s="8">
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
         <v>370500</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D151" s="9">
+      <c r="D151" s="3">
         <v>2981.19</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="11" customFormat="1">
-      <c r="A152" s="8">
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
         <v>370600</v>
       </c>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D152" s="9">
+      <c r="D152" s="3">
         <v>7816.42</v>
       </c>
-      <c r="E152" s="10">
+      <c r="E152" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" s="11" customFormat="1">
-      <c r="A153" s="8">
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
         <v>370700</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D153" s="9">
+      <c r="D153" s="3">
         <v>5872.2</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" s="11" customFormat="1">
-      <c r="A154" s="8">
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
         <v>370800</v>
       </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D154" s="3">
         <v>4494.3100000000004</v>
       </c>
-      <c r="E154" s="10">
+      <c r="E154" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="11" customFormat="1">
-      <c r="A155" s="8">
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
         <v>370900</v>
       </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D155" s="9">
+      <c r="D155" s="3">
         <v>2766.5</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" s="11" customFormat="1">
-      <c r="A156" s="8">
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
         <v>371000</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D156" s="9">
+      <c r="D156" s="3">
         <v>3017.79</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E156" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="11" customFormat="1">
-      <c r="A157" s="8">
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
         <v>371100</v>
       </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D157" s="9">
+      <c r="D157" s="3">
         <v>2006.43</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="11" customFormat="1">
-      <c r="A158" s="8">
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
         <v>371300</v>
       </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D158" s="9">
+      <c r="D158" s="3">
         <v>4805.25</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="11" customFormat="1">
-      <c r="A159" s="8">
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
         <v>371400</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D159" s="9">
+      <c r="D159" s="3">
         <v>3078.99</v>
       </c>
-      <c r="E159" s="10">
+      <c r="E159" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="11" customFormat="1">
-      <c r="A160" s="8">
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
         <v>371500</v>
       </c>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D160" s="9">
+      <c r="D160" s="3">
         <v>2316.84</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="11" customFormat="1">
-      <c r="A161" s="8">
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
         <v>371600</v>
       </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D161" s="9">
+      <c r="D161" s="3">
         <v>2508.11</v>
       </c>
-      <c r="E161" s="10">
+      <c r="E161" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="11" customFormat="1">
-      <c r="A162" s="8">
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
         <v>371700</v>
       </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D162" s="9">
+      <c r="D162" s="3">
         <v>3483.11</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="11" customFormat="1">
-      <c r="A163" s="8">
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
         <v>410000</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="9">
+      <c r="D163" s="3">
         <v>54997.07</v>
       </c>
-      <c r="E163" s="10">
+      <c r="E163" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="11" customFormat="1">
-      <c r="A164" s="8">
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
         <v>410100</v>
       </c>
-      <c r="B164" s="8"/>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D164" s="9">
+      <c r="D164" s="3">
         <v>12003.04</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="11" customFormat="1">
-      <c r="A165" s="8">
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
         <v>410200</v>
       </c>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D165" s="9">
+      <c r="D165" s="3">
         <v>2371.83</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E165" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="11" customFormat="1">
-      <c r="A166" s="8">
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
         <v>410300</v>
       </c>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D166" s="9">
+      <c r="D166" s="3">
         <v>5128.3599999999997</v>
       </c>
-      <c r="E166" s="10">
+      <c r="E166" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="11" customFormat="1">
-      <c r="A167" s="8">
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
         <v>410400</v>
       </c>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D167" s="9">
+      <c r="D167" s="3">
         <v>2455.84</v>
       </c>
-      <c r="E167" s="10">
+      <c r="E167" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="11" customFormat="1">
-      <c r="A168" s="8">
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
         <v>410500</v>
       </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D168" s="9">
+      <c r="D168" s="3">
         <v>2300.48</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E168" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="11" customFormat="1">
-      <c r="A169" s="8">
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
         <v>410600</v>
       </c>
-      <c r="B169" s="8"/>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D169" s="9">
+      <c r="D169" s="3">
         <v>980.97</v>
       </c>
-      <c r="E169" s="10">
+      <c r="E169" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="11" customFormat="1">
-      <c r="A170" s="8">
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
         <v>410700</v>
       </c>
-      <c r="B170" s="8"/>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D170" s="9">
+      <c r="D170" s="3">
         <v>3014.51</v>
       </c>
-      <c r="E170" s="10">
+      <c r="E170" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="11" customFormat="1">
-      <c r="A171" s="8">
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
         <v>410800</v>
       </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D171" s="9">
+      <c r="D171" s="3">
         <v>2123.6</v>
       </c>
-      <c r="E171" s="10">
+      <c r="E171" s="4">
         <v>-0.20599999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="11" customFormat="1">
-      <c r="A172" s="8">
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
         <v>410900</v>
       </c>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D172" s="9">
+      <c r="D172" s="3">
         <v>1649.99</v>
       </c>
-      <c r="E172" s="10">
+      <c r="E172" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="11" customFormat="1">
-      <c r="A173" s="8">
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
         <v>411000</v>
       </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D173" s="9">
+      <c r="D173" s="3">
         <v>3449.23</v>
       </c>
-      <c r="E173" s="10">
+      <c r="E173" s="4">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="11" customFormat="1">
-      <c r="A174" s="8">
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
         <v>411100</v>
       </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D174" s="9">
+      <c r="D174" s="3">
         <v>1573.88</v>
       </c>
-      <c r="E174" s="10">
+      <c r="E174" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="11" customFormat="1">
-      <c r="A175" s="8">
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
         <v>411200</v>
       </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D175" s="9">
+      <c r="D175" s="3">
         <v>1450.71</v>
       </c>
-      <c r="E175" s="10">
+      <c r="E175" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="11" customFormat="1">
-      <c r="A176" s="8">
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
         <v>411300</v>
       </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D176" s="9">
+      <c r="D176" s="3">
         <v>3925.86</v>
       </c>
-      <c r="E176" s="10">
+      <c r="E176" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="11" customFormat="1">
-      <c r="A177" s="8">
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
         <v>411400</v>
       </c>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D177" s="9">
+      <c r="D177" s="3">
         <v>2925.33</v>
       </c>
-      <c r="E177" s="10">
+      <c r="E177" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="11" customFormat="1">
-      <c r="A178" s="8">
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
         <v>411500</v>
       </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D178" s="9">
+      <c r="D178" s="3">
         <v>2805.68</v>
       </c>
-      <c r="E178" s="10">
+      <c r="E178" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="11" customFormat="1">
-      <c r="A179" s="8">
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
         <v>411600</v>
       </c>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D179" s="9">
+      <c r="D179" s="3">
         <v>3267.19</v>
       </c>
-      <c r="E179" s="10">
+      <c r="E179" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="11" customFormat="1">
-      <c r="A180" s="8">
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
         <v>411700</v>
       </c>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D180" s="9">
+      <c r="D180" s="3">
         <v>2859.27</v>
       </c>
-      <c r="E180" s="10">
+      <c r="E180" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="11" customFormat="1">
-      <c r="A181" s="8">
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
         <v>420000</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="9">
+      <c r="D181" s="3">
         <v>43443.46</v>
       </c>
-      <c r="E181" s="10">
+      <c r="E181" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="11" customFormat="1">
-      <c r="A182" s="8">
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
         <v>420100</v>
       </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D182" s="9">
+      <c r="D182" s="3">
         <v>15616.06</v>
       </c>
-      <c r="E182" s="10">
+      <c r="E182" s="4">
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="11" customFormat="1">
-      <c r="A183" s="8">
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
         <v>420200</v>
       </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D183" s="9">
+      <c r="D183" s="3">
         <v>1641.32</v>
       </c>
-      <c r="E183" s="10"/>
-    </row>
-    <row r="184" spans="1:5" s="11" customFormat="1">
-      <c r="A184" s="8">
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
         <v>420300</v>
       </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D184" s="9">
+      <c r="D184" s="3">
         <v>1915.1</v>
       </c>
-      <c r="E184" s="10">
+      <c r="E184" s="4">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="11" customFormat="1">
-      <c r="A185" s="8">
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
         <v>420500</v>
       </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D185" s="9">
+      <c r="D185" s="3">
         <v>4261.42</v>
       </c>
-      <c r="E185" s="10">
+      <c r="E185" s="4">
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="11" customFormat="1">
-      <c r="A186" s="8">
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
         <v>420600</v>
       </c>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D186" s="9">
+      <c r="D186" s="3">
         <v>4601.97</v>
       </c>
-      <c r="E186" s="10">
+      <c r="E186" s="4">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="11" customFormat="1">
-      <c r="A187" s="8">
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
         <v>420700</v>
       </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D187" s="9">
+      <c r="D187" s="3">
         <v>1005.23</v>
       </c>
-      <c r="E187" s="10">
+      <c r="E187" s="4">
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="11" customFormat="1">
-      <c r="A188" s="8">
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
         <v>420800</v>
       </c>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D188" s="3">
         <v>1906.41</v>
       </c>
-      <c r="E188" s="10">
+      <c r="E188" s="4">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="11" customFormat="1">
-      <c r="A189" s="8">
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
         <v>420900</v>
       </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D189" s="9">
+      <c r="D189" s="3">
         <v>2193.5500000000002</v>
       </c>
-      <c r="E189" s="10">
+      <c r="E189" s="4">
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="11" customFormat="1">
-      <c r="A190" s="8">
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
         <v>421000</v>
       </c>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D190" s="3">
         <v>2369.04</v>
       </c>
-      <c r="E190" s="10">
+      <c r="E190" s="4">
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="11" customFormat="1">
-      <c r="A191" s="8">
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
         <v>421100</v>
       </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D191" s="9">
+      <c r="D191" s="3">
         <v>2169.5500000000002</v>
       </c>
-      <c r="E191" s="10">
+      <c r="E191" s="4">
         <v>-6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="11" customFormat="1">
-      <c r="A192" s="8">
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
         <v>421200</v>
       </c>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D192" s="9">
+      <c r="D192" s="3">
         <v>1524.67</v>
       </c>
-      <c r="E192" s="10">
+      <c r="E192" s="4">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="11" customFormat="1">
-      <c r="A193" s="8">
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
         <v>421300</v>
       </c>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D193" s="9">
+      <c r="D193" s="3">
         <v>1096.72</v>
       </c>
-      <c r="E193" s="10">
+      <c r="E193" s="4">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="11" customFormat="1">
-      <c r="A194" s="8">
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
         <v>422800</v>
       </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D194" s="9">
+      <c r="D194" s="3">
         <v>1117.7</v>
       </c>
-      <c r="E194" s="10">
+      <c r="E194" s="4">
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="11" customFormat="1">
-      <c r="A195" s="8">
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
         <v>430000</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="9">
+      <c r="D195" s="3">
         <v>41781.49</v>
       </c>
-      <c r="E195" s="10">
+      <c r="E195" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="11" customFormat="1">
-      <c r="A196" s="8">
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
         <v>430100</v>
       </c>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D196" s="9">
+      <c r="D196" s="3">
         <v>12142.52</v>
       </c>
-      <c r="E196" s="10">
+      <c r="E196" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="11" customFormat="1">
-      <c r="A197" s="8">
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
         <v>430200</v>
       </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D197" s="9">
+      <c r="D197" s="3">
         <v>3105.8</v>
       </c>
-      <c r="E197" s="10">
+      <c r="E197" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="11" customFormat="1">
-      <c r="A198" s="8">
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
         <v>430300</v>
       </c>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D198" s="9">
+      <c r="D198" s="3">
         <v>2343.1</v>
       </c>
-      <c r="E198" s="10">
+      <c r="E198" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="11" customFormat="1">
-      <c r="A199" s="8">
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
         <v>430400</v>
       </c>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D199" s="9">
+      <c r="D199" s="3">
         <v>3508.5</v>
       </c>
-      <c r="E199" s="10">
+      <c r="E199" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="11" customFormat="1">
-      <c r="A200" s="8">
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
         <v>430500</v>
       </c>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D200" s="9">
+      <c r="D200" s="3">
         <v>2250.81</v>
       </c>
-      <c r="E200" s="10">
+      <c r="E200" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="11" customFormat="1">
-      <c r="A201" s="8">
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
         <v>430600</v>
       </c>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D201" s="9">
+      <c r="D201" s="3">
         <v>4001.55</v>
       </c>
-      <c r="E201" s="10">
+      <c r="E201" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="11" customFormat="1">
-      <c r="A202" s="8">
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
         <v>430700</v>
       </c>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D202" s="9">
+      <c r="D202" s="3">
         <v>3749.1</v>
       </c>
-      <c r="E202" s="10">
+      <c r="E202" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="11" customFormat="1">
-      <c r="A203" s="8">
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
         <v>430800</v>
       </c>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="3">
         <v>556.67999999999995</v>
       </c>
-      <c r="E203" s="10">
+      <c r="E203" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="11" customFormat="1">
-      <c r="A204" s="8">
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
         <v>430900</v>
       </c>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="3">
         <v>1853.48</v>
       </c>
-      <c r="E204" s="10">
+      <c r="E204" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="11" customFormat="1">
-      <c r="A205" s="8">
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
         <v>431000</v>
       </c>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="3">
         <v>2503.0700000000002</v>
       </c>
-      <c r="E205" s="10">
+      <c r="E205" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="11" customFormat="1">
-      <c r="A206" s="8">
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
         <v>431100</v>
       </c>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D206" s="9">
+      <c r="D206" s="3">
         <v>2107.6999999999998</v>
       </c>
-      <c r="E206" s="10">
+      <c r="E206" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="11" customFormat="1">
-      <c r="A207" s="8">
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
         <v>431200</v>
       </c>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="3">
         <v>1671.87</v>
       </c>
-      <c r="E207" s="10">
+      <c r="E207" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="11" customFormat="1">
-      <c r="A208" s="8">
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
         <v>431300</v>
       </c>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D208" s="9">
+      <c r="D208" s="3">
         <v>1679.94</v>
       </c>
-      <c r="E208" s="10">
+      <c r="E208" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="11" customFormat="1">
-      <c r="A209" s="8">
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
         <v>433100</v>
       </c>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D209" s="9">
+      <c r="D209" s="3">
         <v>725</v>
       </c>
-      <c r="E209" s="10">
+      <c r="E209" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="11" customFormat="1">
-      <c r="A210" s="8">
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
         <v>440000</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C210" s="8"/>
-      <c r="D210" s="9">
+      <c r="D210" s="3">
         <v>110760.94</v>
       </c>
-      <c r="E210" s="10">
+      <c r="E210" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="11" customFormat="1">
-      <c r="A211" s="8">
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
         <v>440100</v>
       </c>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D211" s="9">
+      <c r="D211" s="3">
         <v>25019.11</v>
       </c>
-      <c r="E211" s="10">
+      <c r="E211" s="4">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="11" customFormat="1">
-      <c r="A212" s="8">
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
         <v>440200</v>
       </c>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="3">
         <v>1353.49</v>
       </c>
-      <c r="E212" s="10">
+      <c r="E212" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="11" customFormat="1">
-      <c r="A213" s="8">
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
         <v>440300</v>
       </c>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D213" s="9">
+      <c r="D213" s="3">
         <v>27670.240000000002</v>
       </c>
-      <c r="E213" s="10">
+      <c r="E213" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="11" customFormat="1">
-      <c r="A214" s="8">
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
         <v>440400</v>
       </c>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D214" s="9">
+      <c r="D214" s="3">
         <v>3481.94</v>
       </c>
-      <c r="E214" s="10">
+      <c r="E214" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="215" spans="1:5" s="11" customFormat="1">
-      <c r="A215" s="8">
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
         <v>440500</v>
       </c>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D215" s="9">
+      <c r="D215" s="3">
         <v>2730.58</v>
       </c>
-      <c r="E215" s="10">
+      <c r="E215" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="11" customFormat="1">
-      <c r="A216" s="8">
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
         <v>440600</v>
       </c>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="3">
         <v>10816.47</v>
       </c>
-      <c r="E216" s="10">
+      <c r="E216" s="4">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="11" customFormat="1">
-      <c r="A217" s="8">
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
         <v>440700</v>
       </c>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="3">
         <v>3200.95</v>
       </c>
-      <c r="E217" s="10">
+      <c r="E217" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="11" customFormat="1">
-      <c r="A218" s="8">
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
         <v>440800</v>
       </c>
-      <c r="B218" s="8"/>
-      <c r="C218" s="8" t="s">
+      <c r="C218" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D218" s="9">
+      <c r="D218" s="3">
         <v>3100.22</v>
       </c>
-      <c r="E218" s="10">
+      <c r="E218" s="4">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" s="11" customFormat="1">
-      <c r="A219" s="8">
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
         <v>440900</v>
       </c>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8" t="s">
+      <c r="C219" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D219" s="9">
+      <c r="D219" s="3">
         <v>3279.31</v>
       </c>
-      <c r="E219" s="10">
+      <c r="E219" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="11" customFormat="1">
-      <c r="A220" s="8">
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
         <v>441200</v>
       </c>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8" t="s">
+      <c r="C220" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D220" s="9">
+      <c r="D220" s="3">
         <v>2311.65</v>
       </c>
-      <c r="E220" s="10">
+      <c r="E220" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="11" customFormat="1">
-      <c r="A221" s="8">
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
         <v>441300</v>
       </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8" t="s">
+      <c r="C221" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="3">
         <v>4221.79</v>
       </c>
-      <c r="E221" s="10">
+      <c r="E221" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" s="11" customFormat="1">
-      <c r="A222" s="8">
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
         <v>441400</v>
       </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D222" s="9">
+      <c r="D222" s="3">
         <v>1207.98</v>
       </c>
-      <c r="E222" s="10">
+      <c r="E222" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="11" customFormat="1">
-      <c r="A223" s="8">
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
         <v>441500</v>
       </c>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="3">
         <v>1123.81</v>
       </c>
-      <c r="E223" s="10">
+      <c r="E223" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="11" customFormat="1">
-      <c r="A224" s="8">
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
         <v>441600</v>
       </c>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D224" s="9">
+      <c r="D224" s="3">
         <v>1102.74</v>
       </c>
-      <c r="E224" s="10">
+      <c r="E224" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="11" customFormat="1">
-      <c r="A225" s="8">
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
         <v>441700</v>
       </c>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8" t="s">
+      <c r="C225" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D225" s="9">
+      <c r="D225" s="3">
         <v>1360.44</v>
       </c>
-      <c r="E225" s="10">
+      <c r="E225" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="11" customFormat="1">
-      <c r="A226" s="8">
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
         <v>441800</v>
       </c>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8" t="s">
+      <c r="C226" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D226" s="9">
+      <c r="D226" s="3">
         <v>1777.15</v>
       </c>
-      <c r="E226" s="10">
+      <c r="E226" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="11" customFormat="1">
-      <c r="A227" s="8">
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
         <v>441900</v>
       </c>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8" t="s">
+      <c r="C227" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D227" s="9">
+      <c r="D227" s="3">
         <v>9650.19</v>
       </c>
-      <c r="E227" s="10">
+      <c r="E227" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="11" customFormat="1">
-      <c r="A228" s="8">
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
         <v>442000</v>
       </c>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D228" s="9">
+      <c r="D228" s="3">
         <v>3151.59</v>
       </c>
-      <c r="E228" s="10">
+      <c r="E228" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="11" customFormat="1">
-      <c r="A229" s="8">
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
         <v>445100</v>
       </c>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D229" s="9">
+      <c r="D229" s="3">
         <v>1096.98</v>
       </c>
-      <c r="E229" s="10">
+      <c r="E229" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="11" customFormat="1">
-      <c r="A230" s="8">
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
         <v>445200</v>
       </c>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D230" s="9">
+      <c r="D230" s="3">
         <v>2102.14</v>
       </c>
-      <c r="E230" s="10">
+      <c r="E230" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="11" customFormat="1">
-      <c r="A231" s="8">
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
         <v>445300</v>
       </c>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D231" s="9">
+      <c r="D231" s="3">
         <v>1002.18</v>
       </c>
-      <c r="E231" s="10">
+      <c r="E231" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" s="11" customFormat="1">
-      <c r="A232" s="8">
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
         <v>450000</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C232" s="8"/>
-      <c r="D232" s="9">
+      <c r="D232" s="3">
         <v>22156.69</v>
       </c>
-      <c r="E232" s="10">
+      <c r="E232" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" s="11" customFormat="1">
-      <c r="A233" s="8">
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
         <v>450100</v>
       </c>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8" t="s">
+      <c r="C233" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D233" s="9">
+      <c r="D233" s="3">
         <v>4726.34</v>
       </c>
-      <c r="E233" s="10">
+      <c r="E233" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="11" customFormat="1">
-      <c r="A234" s="8">
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
         <v>450200</v>
       </c>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8" t="s">
+      <c r="C234" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D234" s="9">
+      <c r="D234" s="3">
         <v>3176.9</v>
       </c>
-      <c r="E234" s="10">
+      <c r="E234" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" s="11" customFormat="1">
-      <c r="A235" s="8">
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
         <v>450300</v>
       </c>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8" t="s">
+      <c r="C235" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D235" s="9">
+      <c r="D235" s="3">
         <v>2130.41</v>
       </c>
-      <c r="E235" s="10">
+      <c r="E235" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="11" customFormat="1">
-      <c r="A236" s="8">
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
         <v>450400</v>
       </c>
-      <c r="B236" s="8"/>
-      <c r="C236" s="8" t="s">
+      <c r="C236" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D236" s="9">
+      <c r="D236" s="3">
         <v>1081.3399999999999</v>
       </c>
-      <c r="E236" s="10">
+      <c r="E236" s="4">
         <v>0.08</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="11" customFormat="1">
-      <c r="A237" s="8">
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
         <v>450500</v>
       </c>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8" t="s">
+      <c r="C237" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D237" s="9">
+      <c r="D237" s="3">
         <v>1276.9100000000001</v>
       </c>
-      <c r="E237" s="10">
+      <c r="E237" s="4">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" s="11" customFormat="1">
-      <c r="A238" s="8">
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
         <v>450600</v>
       </c>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8" t="s">
+      <c r="C238" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D238" s="9">
+      <c r="D238" s="3">
         <v>732.81</v>
       </c>
-      <c r="E238" s="10">
+      <c r="E238" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="11" customFormat="1">
-      <c r="A239" s="8">
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
         <v>450700</v>
       </c>
-      <c r="B239" s="8"/>
-      <c r="C239" s="8" t="s">
+      <c r="C239" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D239" s="9">
+      <c r="D239" s="3">
         <v>1388</v>
       </c>
-      <c r="E239" s="10">
+      <c r="E239" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" s="11" customFormat="1">
-      <c r="A240" s="8">
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
         <v>450800</v>
       </c>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8" t="s">
+      <c r="C240" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D240" s="9">
+      <c r="D240" s="3">
         <v>1352.73</v>
       </c>
-      <c r="E240" s="10">
+      <c r="E240" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" s="11" customFormat="1">
-      <c r="A241" s="8">
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
         <v>450900</v>
       </c>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8" t="s">
+      <c r="C241" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D241" s="9">
+      <c r="D241" s="3">
         <v>1761.08</v>
       </c>
-      <c r="E241" s="10">
+      <c r="E241" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" s="11" customFormat="1">
-      <c r="A242" s="8">
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
         <v>451000</v>
       </c>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D242" s="9">
+      <c r="D242" s="3">
         <v>1333.73</v>
       </c>
-      <c r="E242" s="10">
+      <c r="E242" s="4">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" s="11" customFormat="1">
-      <c r="A243" s="8">
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
         <v>451100</v>
       </c>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8" t="s">
+      <c r="C243" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D243" s="9">
+      <c r="D243" s="3">
         <v>753.95</v>
       </c>
-      <c r="E243" s="10">
+      <c r="E243" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" s="11" customFormat="1">
-      <c r="A244" s="8">
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
         <v>451200</v>
       </c>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8" t="s">
+      <c r="C244" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D244" s="9">
+      <c r="D244" s="3">
         <v>927.71</v>
       </c>
-      <c r="E244" s="10">
+      <c r="E244" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" s="11" customFormat="1">
-      <c r="A245" s="8">
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
         <v>451300</v>
       </c>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8" t="s">
+      <c r="C245" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D245" s="9">
+      <c r="D245" s="3">
         <v>705.72</v>
       </c>
-      <c r="E245" s="10">
+      <c r="E245" s="4">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="11" customFormat="1">
-      <c r="A246" s="8">
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
         <v>451400</v>
       </c>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8" t="s">
+      <c r="C246" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D246" s="9">
+      <c r="D246" s="3">
         <v>809</v>
       </c>
-      <c r="E246" s="10">
+      <c r="E246" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" s="11" customFormat="1">
-      <c r="A247" s="8">
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
         <v>460000</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C247" s="8"/>
-      <c r="D247" s="9">
+      <c r="D247" s="3">
         <v>5532.39</v>
       </c>
-      <c r="E247" s="10">
+      <c r="E247" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="11" customFormat="1">
-      <c r="A248" s="8">
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
         <v>460100</v>
       </c>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8" t="s">
+      <c r="C248" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D248" s="9">
+      <c r="D248" s="3">
         <v>1791.58</v>
       </c>
-      <c r="E248" s="10">
+      <c r="E248" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="11" customFormat="1">
-      <c r="A249" s="8">
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
         <v>460200</v>
       </c>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8" t="s">
+      <c r="C249" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D249" s="9">
+      <c r="D249" s="3">
         <v>695.41</v>
       </c>
-      <c r="E249" s="10">
+      <c r="E249" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" s="11" customFormat="1">
-      <c r="A250" s="8">
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
         <v>460300</v>
       </c>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8" t="s">
+      <c r="C250" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D250" s="9"/>
-      <c r="E250" s="10"/>
-    </row>
-    <row r="251" spans="1:5" s="11" customFormat="1">
-      <c r="A251" s="8">
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
         <v>460400</v>
       </c>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D251" s="9">
+      <c r="D251" s="3">
         <v>639</v>
       </c>
-      <c r="E251" s="10">
+      <c r="E251" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" s="11" customFormat="1">
-      <c r="A252" s="8">
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
         <v>500000</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C252" s="8"/>
-      <c r="D252" s="9">
+      <c r="D252" s="3">
         <v>25002.79</v>
       </c>
-      <c r="E252" s="10">
+      <c r="E252" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:5" s="11" customFormat="1">
-      <c r="A253" s="8">
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
         <v>510000</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C253" s="8"/>
-      <c r="D253" s="9">
+      <c r="D253" s="3">
         <v>48598.76</v>
       </c>
-      <c r="E253" s="10">
+      <c r="E253" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" s="11" customFormat="1">
-      <c r="A254" s="8">
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
         <v>510100</v>
       </c>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8" t="s">
+      <c r="C254" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D254" s="9">
+      <c r="D254" s="3">
         <v>17716.68</v>
       </c>
-      <c r="E254" s="10">
+      <c r="E254" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="255" spans="1:5" s="11" customFormat="1">
-      <c r="A255" s="8">
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
         <v>510300</v>
       </c>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8" t="s">
+      <c r="C255" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D255" s="9">
+      <c r="D255" s="3">
         <v>1458.44</v>
       </c>
-      <c r="E255" s="10">
+      <c r="E255" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:5" s="11" customFormat="1">
-      <c r="A256" s="8">
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
         <v>510400</v>
       </c>
-      <c r="B256" s="8"/>
-      <c r="C256" s="8" t="s">
+      <c r="C256" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D256" s="9">
+      <c r="D256" s="3">
         <v>1040.82</v>
       </c>
-      <c r="E256" s="10">
+      <c r="E256" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" s="11" customFormat="1">
-      <c r="A257" s="8">
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
         <v>510500</v>
       </c>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8" t="s">
+      <c r="C257" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D257" s="9">
+      <c r="D257" s="3">
         <v>2157.1999999999998</v>
       </c>
-      <c r="E257" s="10">
+      <c r="E257" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:5" s="11" customFormat="1">
-      <c r="A258" s="8">
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
         <v>510600</v>
       </c>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D258" s="9">
+      <c r="D258" s="3">
         <v>2404.13</v>
       </c>
-      <c r="E258" s="10">
+      <c r="E258" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" s="11" customFormat="1">
-      <c r="A259" s="8">
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
         <v>510700</v>
       </c>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8" t="s">
+      <c r="C259" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D259" s="9">
+      <c r="D259" s="3">
         <v>3010.08</v>
       </c>
-      <c r="E259" s="10">
+      <c r="E259" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="11" customFormat="1">
-      <c r="A260" s="8">
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
         <v>510800</v>
       </c>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8" t="s">
+      <c r="C260" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D260" s="9">
+      <c r="D260" s="3">
         <v>1008.01</v>
       </c>
-      <c r="E260" s="10">
+      <c r="E260" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="11" customFormat="1">
-      <c r="A261" s="8">
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
         <v>510900</v>
       </c>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D261" s="9">
+      <c r="D261" s="3">
         <v>1403.18</v>
       </c>
-      <c r="E261" s="10">
+      <c r="E261" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" s="11" customFormat="1">
-      <c r="A262" s="8">
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
         <v>511000</v>
       </c>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8" t="s">
+      <c r="C262" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D262" s="9">
+      <c r="D262" s="3">
         <v>1465.88</v>
       </c>
-      <c r="E262" s="10">
+      <c r="E262" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:5" s="11" customFormat="1">
-      <c r="A263" s="8">
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
         <v>511100</v>
       </c>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8" t="s">
+      <c r="C263" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D263" s="9">
+      <c r="D263" s="3">
         <v>2003.42</v>
       </c>
-      <c r="E263" s="10">
+      <c r="E263" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:5" s="11" customFormat="1">
-      <c r="A264" s="8">
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
         <v>511300</v>
       </c>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8" t="s">
+      <c r="C264" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D264" s="9">
+      <c r="D264" s="3">
         <v>2401.08</v>
       </c>
-      <c r="E264" s="10">
+      <c r="E264" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:5" s="11" customFormat="1">
-      <c r="A265" s="8">
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
         <v>511400</v>
       </c>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8" t="s">
+      <c r="C265" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D265" s="9">
+      <c r="D265" s="3">
         <v>1423.74</v>
       </c>
-      <c r="E265" s="10">
+      <c r="E265" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:5" s="11" customFormat="1">
-      <c r="A266" s="8">
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
         <v>511500</v>
       </c>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8" t="s">
+      <c r="C266" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D266" s="9">
+      <c r="D266" s="3">
         <v>2802.12</v>
       </c>
-      <c r="E266" s="10">
+      <c r="E266" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:5" s="11" customFormat="1">
-      <c r="A267" s="8">
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
         <v>511600</v>
       </c>
-      <c r="B267" s="8"/>
-      <c r="C267" s="8" t="s">
+      <c r="C267" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D267" s="9">
+      <c r="D267" s="3">
         <v>1301.5999999999999</v>
       </c>
-      <c r="E267" s="10">
+      <c r="E267" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:5" s="11" customFormat="1">
-      <c r="A268" s="8">
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
         <v>511700</v>
       </c>
-      <c r="B268" s="8"/>
-      <c r="C268" s="8" t="s">
+      <c r="C268" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D268" s="9">
+      <c r="D268" s="3">
         <v>2118</v>
       </c>
-      <c r="E268" s="10">
+      <c r="E268" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:5" s="11" customFormat="1">
-      <c r="A269" s="8">
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
         <v>511800</v>
       </c>
-      <c r="B269" s="8"/>
-      <c r="C269" s="8" t="s">
+      <c r="C269" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D269" s="9">
+      <c r="D269" s="3">
         <v>754.59</v>
       </c>
-      <c r="E269" s="10">
+      <c r="E269" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:5" s="11" customFormat="1">
-      <c r="A270" s="8">
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
         <v>511900</v>
       </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8" t="s">
+      <c r="C270" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D270" s="9">
+      <c r="D270" s="3">
         <v>766.99</v>
       </c>
-      <c r="E270" s="10">
+      <c r="E270" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:5" s="11" customFormat="1">
-      <c r="A271" s="8">
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
         <v>512000</v>
       </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="8" t="s">
+      <c r="C271" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D271" s="9">
+      <c r="D271" s="3">
         <v>807.5</v>
       </c>
-      <c r="E271" s="10">
+      <c r="E271" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="272" spans="1:5" s="11" customFormat="1">
-      <c r="A272" s="8">
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
         <v>513200</v>
       </c>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8" t="s">
+      <c r="C272" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D272" s="9">
+      <c r="D272" s="3">
         <v>411.75</v>
       </c>
-      <c r="E272" s="10">
+      <c r="E272" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:5" s="11" customFormat="1">
-      <c r="A273" s="8">
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
         <v>513300</v>
       </c>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8" t="s">
+      <c r="C273" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D273" s="9">
+      <c r="D273" s="3">
         <v>410.61</v>
       </c>
-      <c r="E273" s="10">
+      <c r="E273" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:5" s="11" customFormat="1">
-      <c r="A274" s="8">
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
         <v>513400</v>
       </c>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8" t="s">
+      <c r="C274" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D274" s="9">
+      <c r="D274" s="3">
         <v>1733.15</v>
       </c>
-      <c r="E274" s="10">
+      <c r="E274" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:5" s="11" customFormat="1">
-      <c r="A275" s="8">
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
         <v>520000</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C275" s="8"/>
-      <c r="D275" s="9">
+      <c r="D275" s="3">
         <v>17826.560000000001</v>
       </c>
-      <c r="E275" s="10">
+      <c r="E275" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:5" s="11" customFormat="1">
-      <c r="A276" s="8">
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
         <v>520100</v>
       </c>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8" t="s">
+      <c r="C276" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D276" s="9">
+      <c r="D276" s="3">
         <v>4311.6499999999996</v>
       </c>
-      <c r="E276" s="10">
+      <c r="E276" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="277" spans="1:5" s="11" customFormat="1">
-      <c r="A277" s="8">
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
         <v>520200</v>
       </c>
-      <c r="B277" s="8"/>
-      <c r="C277" s="8" t="s">
+      <c r="C277" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D277" s="9">
+      <c r="D277" s="3">
         <v>1339.62</v>
       </c>
-      <c r="E277" s="10">
+      <c r="E277" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:5" s="11" customFormat="1">
-      <c r="A278" s="8">
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
         <v>520300</v>
       </c>
-      <c r="B278" s="8"/>
-      <c r="C278" s="8" t="s">
+      <c r="C278" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D278" s="9">
+      <c r="D278" s="3">
         <v>3720.05</v>
       </c>
-      <c r="E278" s="10">
+      <c r="E278" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:5" s="11" customFormat="1">
-      <c r="A279" s="8">
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
         <v>520400</v>
       </c>
-      <c r="B279" s="8"/>
-      <c r="C279" s="8" t="s">
+      <c r="C279" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D279" s="9">
+      <c r="D279" s="3">
         <v>966.74</v>
       </c>
-      <c r="E279" s="10">
+      <c r="E279" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:5" s="11" customFormat="1">
-      <c r="A280" s="8">
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
         <v>520500</v>
       </c>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8" t="s">
+      <c r="C280" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D280" s="9">
+      <c r="D280" s="3">
         <v>2020.39</v>
       </c>
-      <c r="E280" s="10">
+      <c r="E280" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:5" s="11" customFormat="1">
-      <c r="A281" s="8">
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
         <v>520600</v>
       </c>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D281" s="9">
+      <c r="D281" s="3">
         <v>1327.79</v>
       </c>
-      <c r="E281" s="10">
+      <c r="E281" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:5" s="11" customFormat="1">
-      <c r="A282" s="8">
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
         <v>522300</v>
       </c>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8" t="s">
+      <c r="C282" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D282" s="9">
+      <c r="D282" s="3">
         <v>1353.4</v>
       </c>
-      <c r="E282" s="10">
+      <c r="E282" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:5" s="11" customFormat="1">
-      <c r="A283" s="8">
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
         <v>522600</v>
       </c>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8" t="s">
+      <c r="C283" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D283" s="9">
+      <c r="D283" s="3">
         <v>1191.52</v>
       </c>
-      <c r="E283" s="10">
+      <c r="E283" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:5" s="11" customFormat="1">
-      <c r="A284" s="8">
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
         <v>522700</v>
       </c>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8" t="s">
+      <c r="C284" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D284" s="9">
+      <c r="D284" s="3">
         <v>1595.4</v>
       </c>
-      <c r="E284" s="10">
+      <c r="E284" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="285" spans="1:5" s="11" customFormat="1">
-      <c r="A285" s="8">
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
         <v>530000</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C285" s="8"/>
-      <c r="D285" s="9">
+      <c r="D285" s="3">
         <v>24521.9</v>
       </c>
-      <c r="E285" s="10">
+      <c r="E285" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="286" spans="1:5" s="11" customFormat="1">
-      <c r="A286" s="8">
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
         <v>530100</v>
       </c>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8" t="s">
+      <c r="C286" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D286" s="9">
+      <c r="D286" s="3">
         <v>6733.79</v>
       </c>
-      <c r="E286" s="10">
+      <c r="E286" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:5" s="11" customFormat="1">
-      <c r="A287" s="8">
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
         <v>530300</v>
       </c>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D287" s="9">
+      <c r="D287" s="3">
         <v>2959.35</v>
       </c>
-      <c r="E287" s="10">
+      <c r="E287" s="4">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:5" s="11" customFormat="1">
-      <c r="A288" s="8">
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
         <v>530400</v>
       </c>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8" t="s">
+      <c r="C288" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D288" s="9">
+      <c r="D288" s="3">
         <v>2058.14</v>
       </c>
-      <c r="E288" s="10">
+      <c r="E288" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:5" s="11" customFormat="1">
-      <c r="A289" s="8">
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
         <v>530500</v>
       </c>
-      <c r="B289" s="8"/>
-      <c r="C289" s="8" t="s">
+      <c r="C289" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D289" s="9">
+      <c r="D289" s="3">
         <v>1052.58</v>
       </c>
-      <c r="E289" s="10">
+      <c r="E289" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:5" s="11" customFormat="1">
-      <c r="A290" s="8">
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
         <v>530600</v>
       </c>
-      <c r="B290" s="8"/>
-      <c r="C290" s="8" t="s">
+      <c r="C290" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D290" s="9">
+      <c r="D290" s="3">
         <v>1288.74</v>
       </c>
-      <c r="E290" s="10">
+      <c r="E290" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" s="11" customFormat="1">
-      <c r="A291" s="8">
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
         <v>530700</v>
       </c>
-      <c r="B291" s="8"/>
-      <c r="C291" s="8" t="s">
+      <c r="C291" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D291" s="9">
+      <c r="D291" s="3">
         <v>521.75</v>
       </c>
-      <c r="E291" s="10">
+      <c r="E291" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" s="11" customFormat="1">
-      <c r="A292" s="8">
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
         <v>530800</v>
       </c>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8" t="s">
+      <c r="C292" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D292" s="9">
+      <c r="D292" s="3">
         <v>945.42</v>
       </c>
-      <c r="E292" s="10">
+      <c r="E292" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" s="11" customFormat="1">
-      <c r="A293" s="8">
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
         <v>530900</v>
       </c>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D293" s="9">
+      <c r="D293" s="3">
         <v>821.32</v>
       </c>
-      <c r="E293" s="10">
+      <c r="E293" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:5" s="11" customFormat="1">
-      <c r="A294" s="8">
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
         <v>532300</v>
       </c>
-      <c r="B294" s="8"/>
-      <c r="C294" s="8" t="s">
+      <c r="C294" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D294" s="9">
+      <c r="D294" s="3">
         <v>1372.16</v>
       </c>
-      <c r="E294" s="10">
+      <c r="E294" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="295" spans="1:5" s="11" customFormat="1">
-      <c r="A295" s="8">
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
         <v>532500</v>
       </c>
-      <c r="B295" s="8"/>
-      <c r="C295" s="8" t="s">
+      <c r="C295" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D295" s="9">
+      <c r="D295" s="3">
         <v>2417.4699999999998</v>
       </c>
-      <c r="E295" s="10">
+      <c r="E295" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="11" customFormat="1">
-      <c r="A296" s="8">
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
         <v>532600</v>
       </c>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8" t="s">
+      <c r="C296" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D296" s="9">
+      <c r="D296" s="3">
         <v>1185.1199999999999</v>
       </c>
-      <c r="E296" s="10">
+      <c r="E296" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:5" s="11" customFormat="1">
-      <c r="A297" s="8">
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
         <v>532800</v>
       </c>
-      <c r="B297" s="8"/>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D297" s="9">
+      <c r="D297" s="3">
         <v>604.17999999999995</v>
       </c>
-      <c r="E297" s="10">
+      <c r="E297" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:5" s="11" customFormat="1">
-      <c r="A298" s="8">
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
         <v>532900</v>
       </c>
-      <c r="B298" s="8"/>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D298" s="9">
+      <c r="D298" s="3">
         <v>1484.04</v>
       </c>
-      <c r="E298" s="10">
+      <c r="E298" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="299" spans="1:5" s="11" customFormat="1">
-      <c r="A299" s="8">
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
         <v>533100</v>
       </c>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8" t="s">
+      <c r="C299" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D299" s="9">
+      <c r="D299" s="3">
         <v>575.54</v>
       </c>
-      <c r="E299" s="10">
+      <c r="E299" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:5" s="11" customFormat="1">
-      <c r="A300" s="8">
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
         <v>533300</v>
       </c>
-      <c r="B300" s="8"/>
-      <c r="C300" s="8" t="s">
+      <c r="C300" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D300" s="9">
+      <c r="D300" s="3">
         <v>210.73</v>
       </c>
-      <c r="E300" s="10">
+      <c r="E300" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:5" s="11" customFormat="1">
-      <c r="A301" s="8">
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
         <v>533400</v>
       </c>
-      <c r="B301" s="8"/>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D301" s="9">
+      <c r="D301" s="3">
         <v>266.94</v>
       </c>
-      <c r="E301" s="10">
+      <c r="E301" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:5" s="11" customFormat="1">
-      <c r="A302" s="8">
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
         <v>540000</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C302" s="8"/>
-      <c r="D302" s="9">
+      <c r="D302" s="3">
         <v>1902.74</v>
       </c>
-      <c r="E302" s="10">
+      <c r="E302" s="4">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:5" s="11" customFormat="1">
-      <c r="A303" s="8">
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
         <v>540100</v>
       </c>
-      <c r="B303" s="8"/>
-      <c r="C303" s="8" t="s">
+      <c r="C303" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D303" s="9"/>
-      <c r="E303" s="10"/>
-    </row>
-    <row r="304" spans="1:5" s="11" customFormat="1">
-      <c r="A304" s="8">
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
         <v>540200</v>
       </c>
-      <c r="B304" s="8"/>
-      <c r="C304" s="8" t="s">
+      <c r="C304" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D304" s="9"/>
-      <c r="E304" s="10"/>
-    </row>
-    <row r="305" spans="1:5" s="11" customFormat="1">
-      <c r="A305" s="8">
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
         <v>540300</v>
       </c>
-      <c r="B305" s="8"/>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D305" s="9"/>
-      <c r="E305" s="10"/>
-    </row>
-    <row r="306" spans="1:5" s="11" customFormat="1">
-      <c r="A306" s="8">
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
         <v>540400</v>
       </c>
-      <c r="B306" s="8"/>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D306" s="9"/>
-      <c r="E306" s="10"/>
-    </row>
-    <row r="307" spans="1:5" s="11" customFormat="1">
-      <c r="A307" s="8">
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
         <v>540500</v>
       </c>
-      <c r="B307" s="8"/>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D307" s="9"/>
-      <c r="E307" s="10"/>
-    </row>
-    <row r="308" spans="1:5" s="11" customFormat="1">
-      <c r="A308" s="8">
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
         <v>540600</v>
       </c>
-      <c r="B308" s="8"/>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D308" s="9"/>
-      <c r="E308" s="10"/>
-    </row>
-    <row r="309" spans="1:5" s="11" customFormat="1">
-      <c r="A309" s="8">
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
         <v>542500</v>
       </c>
-      <c r="B309" s="8"/>
-      <c r="C309" s="8" t="s">
+      <c r="C309" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D309" s="9"/>
-      <c r="E309" s="10"/>
-    </row>
-    <row r="310" spans="1:5" s="11" customFormat="1">
-      <c r="A310" s="8">
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
         <v>610000</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C310" s="8"/>
-      <c r="D310" s="9">
+      <c r="D310" s="3">
         <v>26181.86</v>
       </c>
-      <c r="E310" s="10">
+      <c r="E310" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:5" s="11" customFormat="1">
-      <c r="A311" s="8">
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
         <v>610100</v>
       </c>
-      <c r="B311" s="8"/>
-      <c r="C311" s="8" t="s">
+      <c r="C311" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D311" s="9">
+      <c r="D311" s="3">
         <v>10020.39</v>
       </c>
-      <c r="E311" s="10">
+      <c r="E311" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:5" s="11" customFormat="1">
-      <c r="A312" s="8">
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
         <v>610200</v>
       </c>
-      <c r="B312" s="8"/>
-      <c r="C312" s="8" t="s">
+      <c r="C312" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D312" s="9">
+      <c r="D312" s="3">
         <v>381.75</v>
       </c>
-      <c r="E312" s="10">
+      <c r="E312" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="313" spans="1:5" s="11" customFormat="1">
-      <c r="A313" s="8">
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
         <v>610300</v>
       </c>
-      <c r="B313" s="8"/>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D313" s="9">
+      <c r="D313" s="3">
         <v>2276.9499999999998</v>
       </c>
-      <c r="E313" s="10">
+      <c r="E313" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" s="11" customFormat="1">
-      <c r="A314" s="8">
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
         <v>610400</v>
       </c>
-      <c r="B314" s="8"/>
-      <c r="C314" s="8" t="s">
+      <c r="C314" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D314" s="9">
+      <c r="D314" s="3">
         <v>2204.81</v>
       </c>
-      <c r="E314" s="10">
+      <c r="E314" s="4">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:5" s="11" customFormat="1">
-      <c r="A315" s="8">
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
         <v>610500</v>
       </c>
-      <c r="B315" s="8"/>
-      <c r="C315" s="8" t="s">
+      <c r="C315" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D315" s="9">
+      <c r="D315" s="3">
         <v>1866.27</v>
       </c>
-      <c r="E315" s="10">
+      <c r="E315" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" s="11" customFormat="1">
-      <c r="A316" s="8">
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
         <v>610600</v>
       </c>
-      <c r="B316" s="8"/>
-      <c r="C316" s="8" t="s">
+      <c r="C316" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D316" s="9">
+      <c r="D316" s="3">
         <v>1601.48</v>
       </c>
-      <c r="E316" s="10">
+      <c r="E316" s="4">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:5" s="11" customFormat="1">
-      <c r="A317" s="8">
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
         <v>610700</v>
       </c>
-      <c r="B317" s="8"/>
-      <c r="C317" s="8" t="s">
+      <c r="C317" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D317" s="9">
+      <c r="D317" s="3">
         <v>1593.4</v>
       </c>
-      <c r="E317" s="10">
+      <c r="E317" s="4">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" s="11" customFormat="1">
-      <c r="A318" s="8">
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
         <v>610800</v>
       </c>
-      <c r="B318" s="8"/>
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D318" s="9">
+      <c r="D318" s="3">
         <v>4089.66</v>
       </c>
-      <c r="E318" s="10">
+      <c r="E318" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" s="11" customFormat="1">
-      <c r="A319" s="8">
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
         <v>610900</v>
       </c>
-      <c r="B319" s="8"/>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D319" s="9">
+      <c r="D319" s="3">
         <v>1088.78</v>
       </c>
-      <c r="E319" s="10">
+      <c r="E319" s="4">
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" s="11" customFormat="1">
-      <c r="A320" s="8">
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
         <v>611000</v>
       </c>
-      <c r="B320" s="8"/>
-      <c r="C320" s="8" t="s">
+      <c r="C320" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D320" s="9">
+      <c r="D320" s="3">
         <v>739.46</v>
       </c>
-      <c r="E320" s="10">
+      <c r="E320" s="4">
         <v>-0.112</v>
       </c>
     </row>
-    <row r="321" spans="1:5" s="11" customFormat="1">
-      <c r="A321" s="8">
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
         <v>620000</v>
       </c>
-      <c r="B321" s="8" t="s">
+      <c r="B321" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C321" s="8"/>
-      <c r="D321" s="9">
+      <c r="D321" s="3">
         <v>9016.7000000000007</v>
       </c>
-      <c r="E321" s="10">
+      <c r="E321" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" s="11" customFormat="1">
-      <c r="A322" s="8">
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
         <v>620100</v>
       </c>
-      <c r="B322" s="8"/>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D322" s="9">
+      <c r="D322" s="3">
         <v>2886.74</v>
       </c>
-      <c r="E322" s="10">
+      <c r="E322" s="4">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" s="11" customFormat="1">
-      <c r="A323" s="8">
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
         <v>620200</v>
       </c>
-      <c r="B323" s="8"/>
-      <c r="C323" s="8" t="s">
+      <c r="C323" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D323" s="9">
+      <c r="D323" s="3">
         <v>281.60000000000002</v>
       </c>
-      <c r="E323" s="10">
+      <c r="E323" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" s="11" customFormat="1">
-      <c r="A324" s="8">
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
         <v>620300</v>
       </c>
-      <c r="B324" s="8"/>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D324" s="9">
+      <c r="D324" s="3">
         <v>358.62</v>
       </c>
-      <c r="E324" s="10">
+      <c r="E324" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:5" s="11" customFormat="1">
-      <c r="A325" s="8">
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
         <v>620400</v>
       </c>
-      <c r="B325" s="8"/>
-      <c r="C325" s="8" t="s">
+      <c r="C325" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D325" s="9">
+      <c r="D325" s="3">
         <v>497.27</v>
       </c>
-      <c r="E325" s="10">
+      <c r="E325" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" s="11" customFormat="1">
-      <c r="A326" s="8">
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
         <v>620500</v>
       </c>
-      <c r="B326" s="8"/>
-      <c r="C326" s="8" t="s">
+      <c r="C326" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D326" s="9">
+      <c r="D326" s="3">
         <v>666.9</v>
       </c>
-      <c r="E326" s="10">
+      <c r="E326" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:5" s="11" customFormat="1">
-      <c r="A327" s="8">
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
         <v>620600</v>
       </c>
-      <c r="B327" s="8"/>
-      <c r="C327" s="8" t="s">
+      <c r="C327" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D327" s="9">
+      <c r="D327" s="3">
         <v>526.41</v>
       </c>
-      <c r="E327" s="10">
+      <c r="E327" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:5" s="11" customFormat="1">
-      <c r="A328" s="8">
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
         <v>620700</v>
       </c>
-      <c r="B328" s="8"/>
-      <c r="C328" s="8" t="s">
+      <c r="C328" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D328" s="9">
+      <c r="D328" s="3">
         <v>467.05</v>
       </c>
-      <c r="E328" s="10">
+      <c r="E328" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" s="11" customFormat="1">
-      <c r="A329" s="8">
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
         <v>620800</v>
       </c>
-      <c r="B329" s="12"/>
-      <c r="C329" s="8" t="s">
+      <c r="B329" s="8"/>
+      <c r="C329" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D329" s="9">
+      <c r="D329" s="3">
         <v>476.16</v>
       </c>
-      <c r="E329" s="10">
+      <c r="E329" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:5" s="11" customFormat="1">
-      <c r="A330" s="8">
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
         <v>620900</v>
       </c>
-      <c r="B330" s="8"/>
-      <c r="C330" s="8" t="s">
+      <c r="C330" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D330" s="9">
+      <c r="D330" s="3">
         <v>657.7</v>
       </c>
-      <c r="E330" s="10">
+      <c r="E330" s="4">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:5" s="11" customFormat="1">
-      <c r="A331" s="8">
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
         <v>621000</v>
       </c>
-      <c r="B331" s="8"/>
-      <c r="C331" s="8" t="s">
+      <c r="C331" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D331" s="9">
+      <c r="D331" s="3">
         <v>754.73</v>
       </c>
-      <c r="E331" s="10">
+      <c r="E331" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:5" s="11" customFormat="1">
-      <c r="A332" s="8">
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
         <v>621100</v>
       </c>
-      <c r="B332" s="8"/>
-      <c r="C332" s="8" t="s">
+      <c r="C332" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D332" s="9">
+      <c r="D332" s="3">
         <v>441.36</v>
       </c>
-      <c r="E332" s="10">
+      <c r="E332" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:5" s="11" customFormat="1">
-      <c r="A333" s="8">
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
         <v>621200</v>
       </c>
-      <c r="B333" s="8"/>
-      <c r="C333" s="8" t="s">
+      <c r="C333" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D333" s="9">
+      <c r="D333" s="3">
         <v>451.8</v>
       </c>
-      <c r="E333" s="10">
+      <c r="E333" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" s="11" customFormat="1">
-      <c r="A334" s="8">
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
         <v>622900</v>
       </c>
-      <c r="B334" s="8"/>
-      <c r="C334" s="8" t="s">
+      <c r="C334" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D334" s="9">
+      <c r="D334" s="3">
         <v>331.3</v>
       </c>
-      <c r="E334" s="10">
+      <c r="E334" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:5" s="11" customFormat="1">
-      <c r="A335" s="8">
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
         <v>623000</v>
       </c>
-      <c r="B335" s="8"/>
-      <c r="C335" s="8" t="s">
+      <c r="C335" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D335" s="9">
+      <c r="D335" s="3">
         <v>219.06</v>
       </c>
-      <c r="E335" s="10">
+      <c r="E335" s="4">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:5" s="11" customFormat="1">
-      <c r="A336" s="8">
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
         <v>630000</v>
       </c>
-      <c r="B336" s="8" t="s">
+      <c r="B336" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C336" s="8"/>
-      <c r="D336" s="9">
+      <c r="D336" s="3">
         <v>3005.92</v>
       </c>
-      <c r="E336" s="10">
+      <c r="E336" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:5" s="11" customFormat="1">
-      <c r="A337" s="8">
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
         <v>630100</v>
       </c>
-      <c r="B337" s="8"/>
-      <c r="C337" s="8" t="s">
+      <c r="C337" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D337" s="9">
+      <c r="D337" s="3">
         <v>1732.98</v>
       </c>
-      <c r="E337" s="10">
+      <c r="E337" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:5" s="11" customFormat="1">
-      <c r="A338" s="8">
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
         <v>630200</v>
       </c>
-      <c r="B338" s="8"/>
-      <c r="C338" s="8" t="s">
+      <c r="C338" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D338" s="9">
+      <c r="D338" s="3">
         <v>514.6</v>
       </c>
-      <c r="E338" s="10">
+      <c r="E338" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:5" s="11" customFormat="1">
-      <c r="A339" s="8">
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
         <v>632200</v>
       </c>
-      <c r="B339" s="8"/>
-      <c r="C339" s="8" t="s">
+      <c r="C339" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D339" s="9">
+      <c r="D339" s="3">
         <v>95.09</v>
       </c>
-      <c r="E339" s="10">
+      <c r="E339" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:5" s="11" customFormat="1">
-      <c r="A340" s="8">
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
         <v>632300</v>
       </c>
-      <c r="B340" s="8"/>
-      <c r="C340" s="8" t="s">
+      <c r="C340" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D340" s="9">
+      <c r="D340" s="3">
         <v>109.39</v>
       </c>
-      <c r="E340" s="10">
+      <c r="E340" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="11" customFormat="1">
-      <c r="A341" s="8">
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
         <v>632500</v>
       </c>
-      <c r="B341" s="8"/>
-      <c r="C341" s="8" t="s">
+      <c r="C341" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D341" s="9"/>
-      <c r="E341" s="10"/>
-    </row>
-    <row r="342" spans="1:5" s="11" customFormat="1">
-      <c r="A342" s="8">
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
         <v>632600</v>
       </c>
-      <c r="B342" s="8"/>
-      <c r="C342" s="8" t="s">
+      <c r="C342" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D342" s="9"/>
-      <c r="E342" s="10"/>
-    </row>
-    <row r="343" spans="1:5" s="11" customFormat="1">
-      <c r="A343" s="8">
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
         <v>632700</v>
       </c>
-      <c r="B343" s="8"/>
-      <c r="C343" s="8" t="s">
+      <c r="C343" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D343" s="9"/>
-      <c r="E343" s="10"/>
-    </row>
-    <row r="344" spans="1:5" s="11" customFormat="1">
-      <c r="A344" s="8">
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
         <v>632800</v>
       </c>
-      <c r="B344" s="8"/>
-      <c r="C344" s="8" t="s">
+      <c r="C344" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D344" s="9"/>
-      <c r="E344" s="10"/>
-    </row>
-    <row r="345" spans="1:5" s="11" customFormat="1">
-      <c r="A345" s="8">
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1">
         <v>640000</v>
       </c>
-      <c r="B345" s="8" t="s">
+      <c r="B345" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C345" s="8"/>
-      <c r="D345" s="9">
+      <c r="D345" s="3">
         <v>3920.55</v>
       </c>
-      <c r="E345" s="10">
+      <c r="E345" s="4">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:5" s="11" customFormat="1">
-      <c r="A346" s="8">
+    <row r="346" spans="1:5">
+      <c r="A346" s="1">
         <v>640100</v>
       </c>
-      <c r="B346" s="8"/>
-      <c r="C346" s="8" t="s">
+      <c r="C346" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D346" s="9">
+      <c r="D346" s="3">
         <v>1964.37</v>
       </c>
-      <c r="E346" s="10">
+      <c r="E346" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:5" s="11" customFormat="1">
-      <c r="A347" s="8">
+    <row r="347" spans="1:5">
+      <c r="A347" s="1">
         <v>640200</v>
       </c>
-      <c r="B347" s="8"/>
-      <c r="C347" s="8" t="s">
+      <c r="C347" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D347" s="9">
+      <c r="D347" s="3">
         <v>541.62</v>
       </c>
-      <c r="E347" s="10">
+      <c r="E347" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="348" spans="1:5" s="11" customFormat="1">
-      <c r="A348" s="8">
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
         <v>640300</v>
       </c>
-      <c r="B348" s="8"/>
-      <c r="C348" s="8" t="s">
+      <c r="C348" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D348" s="9">
+      <c r="D348" s="3">
         <v>621.77</v>
       </c>
-      <c r="E348" s="10">
+      <c r="E348" s="4">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:5" s="11" customFormat="1">
-      <c r="A349" s="8">
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
         <v>640400</v>
       </c>
-      <c r="B349" s="8"/>
-      <c r="C349" s="8" t="s">
+      <c r="C349" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D349" s="9">
+      <c r="D349" s="3">
         <v>352.46</v>
       </c>
-      <c r="E349" s="10">
+      <c r="E349" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" s="11" customFormat="1">
-      <c r="A350" s="8">
+    <row r="350" spans="1:5">
+      <c r="A350" s="1">
         <v>640500</v>
       </c>
-      <c r="B350" s="8"/>
-      <c r="C350" s="8" t="s">
+      <c r="C350" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D350" s="9">
+      <c r="D350" s="3">
         <v>440.32</v>
       </c>
-      <c r="E350" s="10">
+      <c r="E350" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:5" s="11" customFormat="1">
-      <c r="A351" s="8">
+    <row r="351" spans="1:5">
+      <c r="A351" s="1">
         <v>650000</v>
       </c>
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C351" s="8"/>
-      <c r="D351" s="9">
+      <c r="D351" s="3">
         <v>13797.58</v>
       </c>
-      <c r="E351" s="10">
+      <c r="E351" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="11" customFormat="1">
-      <c r="A352" s="8">
+    <row r="352" spans="1:5">
+      <c r="A352" s="1">
         <v>650100</v>
       </c>
-      <c r="B352" s="8"/>
-      <c r="C352" s="8" t="s">
+      <c r="C352" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D352" s="9">
+      <c r="D352" s="3">
         <v>3337.32</v>
       </c>
-      <c r="E352" s="10">
+      <c r="E352" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="11" customFormat="1">
-      <c r="A353" s="8">
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
         <v>650200</v>
       </c>
-      <c r="B353" s="8"/>
-      <c r="C353" s="8" t="s">
+      <c r="C353" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D353" s="9">
+      <c r="D353" s="3">
         <v>886.9</v>
       </c>
-      <c r="E353" s="10">
+      <c r="E353" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="11" customFormat="1">
-      <c r="A354" s="8">
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
         <v>650400</v>
       </c>
-      <c r="B354" s="8"/>
-      <c r="C354" s="8" t="s">
+      <c r="C354" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D354" s="9">
+      <c r="D354" s="3">
         <v>373.41</v>
       </c>
-      <c r="E354" s="10">
+      <c r="E354" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="11" customFormat="1">
-      <c r="A355" s="8">
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
         <v>650500</v>
       </c>
-      <c r="B355" s="8"/>
-      <c r="C355" s="8" t="s">
+      <c r="C355" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D355" s="9">
+      <c r="D355" s="3">
         <v>607.91</v>
       </c>
-      <c r="E355" s="10">
+      <c r="E355" s="4">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="11" customFormat="1">
-      <c r="A356" s="8">
+    <row r="356" spans="1:5">
+      <c r="A356" s="1">
         <v>652300</v>
       </c>
-      <c r="B356" s="8"/>
-      <c r="C356" s="8" t="s">
+      <c r="C356" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D356" s="9">
+      <c r="D356" s="3">
         <v>1387.25</v>
       </c>
-      <c r="E356" s="10">
+      <c r="E356" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="11" customFormat="1">
-      <c r="A357" s="8">
+    <row r="357" spans="1:5">
+      <c r="A357" s="1">
         <v>652700</v>
       </c>
-      <c r="B357" s="8"/>
-      <c r="C357" s="8" t="s">
+      <c r="C357" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D357" s="9">
+      <c r="D357" s="3">
         <v>377.14</v>
       </c>
-      <c r="E357" s="10">
+      <c r="E357" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="11" customFormat="1">
-      <c r="A358" s="8">
+    <row r="358" spans="1:5">
+      <c r="A358" s="1">
         <v>652800</v>
       </c>
-      <c r="B358" s="8"/>
-      <c r="C358" s="8" t="s">
+      <c r="C358" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D358" s="9">
+      <c r="D358" s="3">
         <v>1106.29</v>
       </c>
-      <c r="E358" s="10">
+      <c r="E358" s="4">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="11" customFormat="1">
-      <c r="A359" s="8">
+    <row r="359" spans="1:5">
+      <c r="A359" s="1">
         <v>652900</v>
       </c>
-      <c r="B359" s="8"/>
-      <c r="C359" s="8" t="s">
+      <c r="C359" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D359" s="9">
+      <c r="D359" s="3">
         <v>1315.05</v>
       </c>
-      <c r="E359" s="10">
+      <c r="E359" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="11" customFormat="1">
-      <c r="A360" s="8">
+    <row r="360" spans="1:5">
+      <c r="A360" s="1">
         <v>653000</v>
       </c>
-      <c r="B360" s="8"/>
-      <c r="C360" s="8" t="s">
+      <c r="C360" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D360" s="9">
+      <c r="D360" s="3">
         <v>169.24</v>
       </c>
-      <c r="E360" s="10">
+      <c r="E360" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="11" customFormat="1">
-      <c r="A361" s="8">
+    <row r="361" spans="1:5">
+      <c r="A361" s="1">
         <v>653100</v>
       </c>
-      <c r="B361" s="8"/>
-      <c r="C361" s="8" t="s">
+      <c r="C361" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D361" s="9">
+      <c r="D361" s="3">
         <v>1130.22</v>
       </c>
-      <c r="E361" s="10">
+      <c r="E361" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="11" customFormat="1">
-      <c r="A362" s="8">
+    <row r="362" spans="1:5">
+      <c r="A362" s="1">
         <v>653200</v>
       </c>
-      <c r="B362" s="8"/>
-      <c r="C362" s="8" t="s">
+      <c r="C362" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D362" s="9">
+      <c r="D362" s="3">
         <v>406.32</v>
       </c>
-      <c r="E362" s="10">
+      <c r="E362" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="11" customFormat="1">
-      <c r="A363" s="8">
+    <row r="363" spans="1:5">
+      <c r="A363" s="1">
         <v>654000</v>
       </c>
-      <c r="B363" s="8"/>
-      <c r="C363" s="8" t="s">
+      <c r="C363" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D363" s="9">
+      <c r="D363" s="3">
         <v>1266.01</v>
       </c>
-      <c r="E363" s="10">
+      <c r="E363" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="11" customFormat="1">
-      <c r="A364" s="8">
+    <row r="364" spans="1:5">
+      <c r="A364" s="1">
         <v>654200</v>
       </c>
-      <c r="B364" s="8"/>
-      <c r="C364" s="8" t="s">
+      <c r="C364" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D364" s="9">
+      <c r="D364" s="3">
         <v>737.57</v>
       </c>
-      <c r="E364" s="10">
+      <c r="E364" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="11" customFormat="1">
-      <c r="A365" s="8">
+    <row r="365" spans="1:5">
+      <c r="A365" s="1">
         <v>654300</v>
       </c>
-      <c r="B365" s="8"/>
-      <c r="C365" s="8" t="s">
+      <c r="C365" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D365" s="9">
+      <c r="D365" s="3">
         <v>334.53</v>
       </c>
-      <c r="E365" s="10">
+      <c r="E365" s="4">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="11" customFormat="1">
-      <c r="A366" s="8">
+    <row r="366" spans="1:5">
+      <c r="A366" s="1">
         <v>710000</v>
       </c>
-      <c r="B366" s="8" t="s">
+      <c r="B366" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C366" s="8"/>
-      <c r="D366" s="9"/>
-      <c r="E366" s="10"/>
-    </row>
-    <row r="367" spans="1:5" s="11" customFormat="1">
-      <c r="A367" s="8">
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1">
         <v>810000</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C367" s="8"/>
-      <c r="D367" s="9"/>
-      <c r="E367" s="10"/>
-    </row>
-    <row r="368" spans="1:5" s="11" customFormat="1">
-      <c r="A368" s="8">
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1">
         <v>820000</v>
       </c>
-      <c r="B368" s="8" t="s">
+      <c r="B368" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D368" s="9"/>
-      <c r="E368" s="10"/>
+      <c r="C368" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E368">
-    <sortCondition ref="A341:A368"/>
+    <sortCondition ref="A2:A368"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2CE1AB-0491-EB4E-BBDD-D1225E838549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F45DCE7-DB8F-A443-A269-1FEA5D4FAA6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="-26980" windowWidth="27800" windowHeight="22900" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="372">
   <si>
     <t>行政区划代码</t>
   </si>
@@ -1216,7 +1216,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1236,9 +1236,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1559,7 +1556,7 @@
   <dimension ref="A1:E368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1633,6 +1630,9 @@
       <c r="A5" s="1">
         <v>130100</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1647,6 +1647,9 @@
       <c r="A6" s="1">
         <v>130200</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1661,6 +1664,9 @@
       <c r="A7" s="1">
         <v>130300</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1675,6 +1681,9 @@
       <c r="A8" s="1">
         <v>130400</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1689,6 +1698,9 @@
       <c r="A9" s="1">
         <v>130500</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1703,6 +1715,9 @@
       <c r="A10" s="1">
         <v>130600</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1714,6 +1729,9 @@
       <c r="A11" s="1">
         <v>130700</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1728,6 +1746,9 @@
       <c r="A12" s="1">
         <v>130800</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1742,6 +1763,9 @@
       <c r="A13" s="1">
         <v>130900</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1756,6 +1780,9 @@
       <c r="A14" s="1">
         <v>131000</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1770,6 +1797,9 @@
       <c r="A15" s="1">
         <v>131100</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1798,6 +1828,9 @@
       <c r="A17" s="1">
         <v>140100</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1812,6 +1845,9 @@
       <c r="A18" s="1">
         <v>140200</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1826,6 +1862,9 @@
       <c r="A19" s="1">
         <v>140300</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1840,6 +1879,9 @@
       <c r="A20" s="1">
         <v>140400</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1854,6 +1896,9 @@
       <c r="A21" s="1">
         <v>140500</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1868,6 +1913,9 @@
       <c r="A22" s="1">
         <v>140600</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1882,6 +1930,9 @@
       <c r="A23" s="1">
         <v>140700</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1896,6 +1947,9 @@
       <c r="A24" s="1">
         <v>140800</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,6 +1964,9 @@
       <c r="A25" s="1">
         <v>140900</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,6 +1981,9 @@
       <c r="A26" s="1">
         <v>141000</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1938,6 +1998,9 @@
       <c r="A27" s="1">
         <v>141100</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1966,6 +2029,9 @@
       <c r="A29" s="1">
         <v>150100</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1980,6 +2046,9 @@
       <c r="A30" s="1">
         <v>150200</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1994,6 +2063,9 @@
       <c r="A31" s="1">
         <v>150300</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
@@ -2008,6 +2080,9 @@
       <c r="A32" s="1">
         <v>150400</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
@@ -2022,6 +2097,9 @@
       <c r="A33" s="1">
         <v>150500</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2036,6 +2114,9 @@
       <c r="A34" s="1">
         <v>150600</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2050,6 +2131,9 @@
       <c r="A35" s="1">
         <v>150700</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2064,6 +2148,9 @@
       <c r="A36" s="1">
         <v>150800</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
@@ -2078,6 +2165,9 @@
       <c r="A37" s="1">
         <v>150900</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2092,6 +2182,9 @@
       <c r="A38" s="1">
         <v>152200</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
@@ -2106,6 +2199,9 @@
       <c r="A39" s="1">
         <v>152500</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2120,6 +2216,9 @@
       <c r="A40" s="1">
         <v>152900</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2148,6 +2247,9 @@
       <c r="A42" s="1">
         <v>210100</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
@@ -2162,6 +2264,9 @@
       <c r="A43" s="1">
         <v>210200</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
@@ -2176,6 +2281,9 @@
       <c r="A44" s="1">
         <v>210300</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>47</v>
       </c>
@@ -2190,6 +2298,9 @@
       <c r="A45" s="1">
         <v>210400</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>48</v>
       </c>
@@ -2204,6 +2315,9 @@
       <c r="A46" s="1">
         <v>210500</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>49</v>
       </c>
@@ -2218,6 +2332,9 @@
       <c r="A47" s="1">
         <v>210600</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>50</v>
       </c>
@@ -2232,6 +2349,9 @@
       <c r="A48" s="1">
         <v>210700</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>51</v>
       </c>
@@ -2246,6 +2366,9 @@
       <c r="A49" s="1">
         <v>210800</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>52</v>
       </c>
@@ -2260,6 +2383,9 @@
       <c r="A50" s="1">
         <v>210900</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>53</v>
       </c>
@@ -2274,6 +2400,9 @@
       <c r="A51" s="1">
         <v>211000</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>54</v>
       </c>
@@ -2288,6 +2417,9 @@
       <c r="A52" s="1">
         <v>211100</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>55</v>
       </c>
@@ -2302,6 +2434,9 @@
       <c r="A53" s="1">
         <v>211200</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,6 +2451,9 @@
       <c r="A54" s="1">
         <v>211300</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>57</v>
       </c>
@@ -2330,6 +2468,9 @@
       <c r="A55" s="1">
         <v>211400</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>58</v>
       </c>
@@ -2358,6 +2499,9 @@
       <c r="A57" s="1">
         <v>220100</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>60</v>
       </c>
@@ -2372,6 +2516,9 @@
       <c r="A58" s="1">
         <v>220200</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,6 +2531,9 @@
       <c r="A59" s="1">
         <v>220300</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>62</v>
       </c>
@@ -2396,6 +2546,9 @@
       <c r="A60" s="1">
         <v>220400</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
@@ -2408,6 +2561,9 @@
       <c r="A61" s="1">
         <v>220500</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>64</v>
       </c>
@@ -2420,6 +2576,9 @@
       <c r="A62" s="1">
         <v>220600</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>65</v>
       </c>
@@ -2432,6 +2591,9 @@
       <c r="A63" s="1">
         <v>220700</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>66</v>
       </c>
@@ -2444,6 +2606,9 @@
       <c r="A64" s="1">
         <v>220800</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>67</v>
       </c>
@@ -2456,6 +2621,9 @@
       <c r="A65" s="1">
         <v>222400</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>68</v>
       </c>
@@ -2484,6 +2652,9 @@
       <c r="A67" s="1">
         <v>230100</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>70</v>
       </c>
@@ -2498,6 +2669,9 @@
       <c r="A68" s="1">
         <v>230200</v>
       </c>
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>71</v>
       </c>
@@ -2512,6 +2686,9 @@
       <c r="A69" s="1">
         <v>230300</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>72</v>
       </c>
@@ -2526,6 +2703,9 @@
       <c r="A70" s="1">
         <v>230400</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>73</v>
       </c>
@@ -2534,6 +2714,9 @@
       <c r="A71" s="1">
         <v>230500</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>74</v>
       </c>
@@ -2548,6 +2731,9 @@
       <c r="A72" s="1">
         <v>230600</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>75</v>
       </c>
@@ -2559,6 +2745,9 @@
       <c r="A73" s="1">
         <v>230700</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>76</v>
       </c>
@@ -2573,6 +2762,9 @@
       <c r="A74" s="1">
         <v>230800</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>77</v>
       </c>
@@ -2587,6 +2779,9 @@
       <c r="A75" s="1">
         <v>230900</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>78</v>
       </c>
@@ -2595,6 +2790,9 @@
       <c r="A76" s="1">
         <v>231000</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>79</v>
       </c>
@@ -2609,6 +2807,9 @@
       <c r="A77" s="1">
         <v>231100</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>80</v>
       </c>
@@ -2623,6 +2824,9 @@
       <c r="A78" s="1">
         <v>231200</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>81</v>
       </c>
@@ -2631,6 +2835,9 @@
       <c r="A79" s="1">
         <v>232700</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>82</v>
       </c>
@@ -2667,6 +2874,9 @@
       <c r="A82" s="1">
         <v>320100</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>85</v>
       </c>
@@ -2681,6 +2891,9 @@
       <c r="A83" s="1">
         <v>320200</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>86</v>
       </c>
@@ -2695,6 +2908,9 @@
       <c r="A84" s="1">
         <v>320300</v>
       </c>
+      <c r="B84" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>87</v>
       </c>
@@ -2709,6 +2925,9 @@
       <c r="A85" s="1">
         <v>320400</v>
       </c>
+      <c r="B85" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>88</v>
       </c>
@@ -2723,6 +2942,9 @@
       <c r="A86" s="1">
         <v>320500</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>89</v>
       </c>
@@ -2737,6 +2959,9 @@
       <c r="A87" s="1">
         <v>320600</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>90</v>
       </c>
@@ -2751,6 +2976,9 @@
       <c r="A88" s="1">
         <v>320700</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>91</v>
       </c>
@@ -2765,6 +2993,9 @@
       <c r="A89" s="1">
         <v>320800</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>92</v>
       </c>
@@ -2779,6 +3010,9 @@
       <c r="A90" s="1">
         <v>320900</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>93</v>
       </c>
@@ -2793,6 +3027,9 @@
       <c r="A91" s="1">
         <v>321000</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>94</v>
       </c>
@@ -2807,6 +3044,9 @@
       <c r="A92" s="1">
         <v>321100</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>95</v>
       </c>
@@ -2821,6 +3061,9 @@
       <c r="A93" s="1">
         <v>321200</v>
       </c>
+      <c r="B93" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>96</v>
       </c>
@@ -2835,6 +3078,9 @@
       <c r="A94" s="1">
         <v>321300</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>97</v>
       </c>
@@ -2863,6 +3109,9 @@
       <c r="A96" s="1">
         <v>330100</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>99</v>
       </c>
@@ -2877,6 +3126,9 @@
       <c r="A97" s="1">
         <v>330200</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>100</v>
       </c>
@@ -2891,6 +3143,9 @@
       <c r="A98" s="1">
         <v>330300</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>101</v>
       </c>
@@ -2905,6 +3160,9 @@
       <c r="A99" s="1">
         <v>330400</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>102</v>
       </c>
@@ -2919,6 +3177,9 @@
       <c r="A100" s="1">
         <v>330500</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>103</v>
       </c>
@@ -2933,6 +3194,9 @@
       <c r="A101" s="1">
         <v>330600</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>104</v>
       </c>
@@ -2947,6 +3211,9 @@
       <c r="A102" s="1">
         <v>330700</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>105</v>
       </c>
@@ -2961,6 +3228,9 @@
       <c r="A103" s="1">
         <v>330800</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>106</v>
       </c>
@@ -2975,6 +3245,9 @@
       <c r="A104" s="1">
         <v>330900</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>107</v>
       </c>
@@ -2989,6 +3262,9 @@
       <c r="A105" s="1">
         <v>331000</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>108</v>
       </c>
@@ -3003,6 +3279,9 @@
       <c r="A106" s="1">
         <v>331100</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>109</v>
       </c>
@@ -3031,6 +3310,9 @@
       <c r="A108" s="1">
         <v>340100</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>111</v>
       </c>
@@ -3045,6 +3327,9 @@
       <c r="A109" s="1">
         <v>340200</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>112</v>
       </c>
@@ -3059,6 +3344,9 @@
       <c r="A110" s="1">
         <v>340300</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C110" s="1" t="s">
         <v>113</v>
       </c>
@@ -3073,6 +3361,9 @@
       <c r="A111" s="1">
         <v>340400</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>114</v>
       </c>
@@ -3087,6 +3378,9 @@
       <c r="A112" s="1">
         <v>340500</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>115</v>
       </c>
@@ -3101,6 +3395,9 @@
       <c r="A113" s="1">
         <v>340600</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>116</v>
       </c>
@@ -3115,6 +3412,9 @@
       <c r="A114" s="1">
         <v>340700</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>117</v>
       </c>
@@ -3129,6 +3429,9 @@
       <c r="A115" s="1">
         <v>340800</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>118</v>
       </c>
@@ -3143,6 +3446,9 @@
       <c r="A116" s="1">
         <v>341000</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>119</v>
       </c>
@@ -3157,6 +3463,9 @@
       <c r="A117" s="1">
         <v>341100</v>
       </c>
+      <c r="B117" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>120</v>
       </c>
@@ -3171,6 +3480,9 @@
       <c r="A118" s="1">
         <v>341200</v>
       </c>
+      <c r="B118" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>121</v>
       </c>
@@ -3185,6 +3497,9 @@
       <c r="A119" s="1">
         <v>341300</v>
       </c>
+      <c r="B119" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>122</v>
       </c>
@@ -3199,6 +3514,9 @@
       <c r="A120" s="1">
         <v>341500</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>123</v>
       </c>
@@ -3213,6 +3531,9 @@
       <c r="A121" s="1">
         <v>341600</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>124</v>
       </c>
@@ -3227,6 +3548,9 @@
       <c r="A122" s="1">
         <v>341700</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>125</v>
       </c>
@@ -3241,6 +3565,9 @@
       <c r="A123" s="1">
         <v>341800</v>
       </c>
+      <c r="B123" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C123" s="1" t="s">
         <v>126</v>
       </c>
@@ -3269,6 +3596,9 @@
       <c r="A125" s="1">
         <v>350100</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>128</v>
       </c>
@@ -3283,6 +3613,9 @@
       <c r="A126" s="1">
         <v>350200</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>129</v>
       </c>
@@ -3297,6 +3630,9 @@
       <c r="A127" s="1">
         <v>350300</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>130</v>
       </c>
@@ -3311,6 +3647,9 @@
       <c r="A128" s="1">
         <v>350400</v>
       </c>
+      <c r="B128" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>131</v>
       </c>
@@ -3325,6 +3664,9 @@
       <c r="A129" s="1">
         <v>350500</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>132</v>
       </c>
@@ -3339,6 +3681,9 @@
       <c r="A130" s="1">
         <v>350600</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>133</v>
       </c>
@@ -3347,6 +3692,9 @@
       <c r="A131" s="1">
         <v>350700</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>134</v>
       </c>
@@ -3361,6 +3709,9 @@
       <c r="A132" s="1">
         <v>350800</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3375,6 +3726,9 @@
       <c r="A133" s="1">
         <v>350900</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>136</v>
       </c>
@@ -3403,6 +3757,9 @@
       <c r="A135" s="1">
         <v>360100</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C135" s="1" t="s">
         <v>138</v>
       </c>
@@ -3417,6 +3774,9 @@
       <c r="A136" s="1">
         <v>360200</v>
       </c>
+      <c r="B136" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C136" s="1" t="s">
         <v>139</v>
       </c>
@@ -3431,6 +3791,9 @@
       <c r="A137" s="1">
         <v>360300</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C137" s="1" t="s">
         <v>140</v>
       </c>
@@ -3445,6 +3808,9 @@
       <c r="A138" s="1">
         <v>360400</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C138" s="1" t="s">
         <v>141</v>
       </c>
@@ -3459,6 +3825,9 @@
       <c r="A139" s="1">
         <v>360500</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C139" s="1" t="s">
         <v>142</v>
       </c>
@@ -3473,6 +3842,9 @@
       <c r="A140" s="1">
         <v>360600</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>143</v>
       </c>
@@ -3487,6 +3859,9 @@
       <c r="A141" s="1">
         <v>360700</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C141" s="1" t="s">
         <v>144</v>
       </c>
@@ -3501,6 +3876,9 @@
       <c r="A142" s="1">
         <v>360800</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C142" s="1" t="s">
         <v>145</v>
       </c>
@@ -3515,6 +3893,9 @@
       <c r="A143" s="1">
         <v>360900</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>146</v>
       </c>
@@ -3529,6 +3910,9 @@
       <c r="A144" s="1">
         <v>361000</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C144" s="1" t="s">
         <v>147</v>
       </c>
@@ -3543,6 +3927,9 @@
       <c r="A145" s="1">
         <v>361100</v>
       </c>
+      <c r="B145" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C145" s="1" t="s">
         <v>148</v>
       </c>
@@ -3571,6 +3958,9 @@
       <c r="A147" s="1">
         <v>370100</v>
       </c>
+      <c r="B147" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C147" s="1" t="s">
         <v>150</v>
       </c>
@@ -3585,6 +3975,9 @@
       <c r="A148" s="1">
         <v>370200</v>
       </c>
+      <c r="B148" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C148" s="1" t="s">
         <v>151</v>
       </c>
@@ -3599,6 +3992,9 @@
       <c r="A149" s="1">
         <v>370300</v>
       </c>
+      <c r="B149" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C149" s="1" t="s">
         <v>152</v>
       </c>
@@ -3613,6 +4009,9 @@
       <c r="A150" s="1">
         <v>370400</v>
       </c>
+      <c r="B150" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C150" s="1" t="s">
         <v>153</v>
       </c>
@@ -3627,6 +4026,9 @@
       <c r="A151" s="1">
         <v>370500</v>
       </c>
+      <c r="B151" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C151" s="1" t="s">
         <v>154</v>
       </c>
@@ -3641,6 +4043,9 @@
       <c r="A152" s="1">
         <v>370600</v>
       </c>
+      <c r="B152" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>155</v>
       </c>
@@ -3655,6 +4060,9 @@
       <c r="A153" s="1">
         <v>370700</v>
       </c>
+      <c r="B153" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C153" s="1" t="s">
         <v>156</v>
       </c>
@@ -3669,6 +4077,9 @@
       <c r="A154" s="1">
         <v>370800</v>
       </c>
+      <c r="B154" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C154" s="1" t="s">
         <v>157</v>
       </c>
@@ -3683,6 +4094,9 @@
       <c r="A155" s="1">
         <v>370900</v>
       </c>
+      <c r="B155" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C155" s="1" t="s">
         <v>158</v>
       </c>
@@ -3697,6 +4111,9 @@
       <c r="A156" s="1">
         <v>371000</v>
       </c>
+      <c r="B156" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C156" s="1" t="s">
         <v>159</v>
       </c>
@@ -3711,6 +4128,9 @@
       <c r="A157" s="1">
         <v>371100</v>
       </c>
+      <c r="B157" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C157" s="1" t="s">
         <v>160</v>
       </c>
@@ -3725,6 +4145,9 @@
       <c r="A158" s="1">
         <v>371300</v>
       </c>
+      <c r="B158" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>161</v>
       </c>
@@ -3739,6 +4162,9 @@
       <c r="A159" s="1">
         <v>371400</v>
       </c>
+      <c r="B159" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>162</v>
       </c>
@@ -3753,6 +4179,9 @@
       <c r="A160" s="1">
         <v>371500</v>
       </c>
+      <c r="B160" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C160" s="1" t="s">
         <v>163</v>
       </c>
@@ -3767,6 +4196,9 @@
       <c r="A161" s="1">
         <v>371600</v>
       </c>
+      <c r="B161" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>164</v>
       </c>
@@ -3781,6 +4213,9 @@
       <c r="A162" s="1">
         <v>371700</v>
       </c>
+      <c r="B162" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C162" s="1" t="s">
         <v>165</v>
       </c>
@@ -3809,6 +4244,9 @@
       <c r="A164" s="1">
         <v>410100</v>
       </c>
+      <c r="B164" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C164" s="1" t="s">
         <v>167</v>
       </c>
@@ -3823,6 +4261,9 @@
       <c r="A165" s="1">
         <v>410200</v>
       </c>
+      <c r="B165" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C165" s="1" t="s">
         <v>168</v>
       </c>
@@ -3837,6 +4278,9 @@
       <c r="A166" s="1">
         <v>410300</v>
       </c>
+      <c r="B166" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>169</v>
       </c>
@@ -3851,6 +4295,9 @@
       <c r="A167" s="1">
         <v>410400</v>
       </c>
+      <c r="B167" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>170</v>
       </c>
@@ -3865,6 +4312,9 @@
       <c r="A168" s="1">
         <v>410500</v>
       </c>
+      <c r="B168" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>171</v>
       </c>
@@ -3879,6 +4329,9 @@
       <c r="A169" s="1">
         <v>410600</v>
       </c>
+      <c r="B169" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>172</v>
       </c>
@@ -3893,6 +4346,9 @@
       <c r="A170" s="1">
         <v>410700</v>
       </c>
+      <c r="B170" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>173</v>
       </c>
@@ -3907,6 +4363,9 @@
       <c r="A171" s="1">
         <v>410800</v>
       </c>
+      <c r="B171" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C171" s="1" t="s">
         <v>174</v>
       </c>
@@ -3921,6 +4380,9 @@
       <c r="A172" s="1">
         <v>410900</v>
       </c>
+      <c r="B172" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C172" s="1" t="s">
         <v>175</v>
       </c>
@@ -3935,6 +4397,9 @@
       <c r="A173" s="1">
         <v>411000</v>
       </c>
+      <c r="B173" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C173" s="1" t="s">
         <v>176</v>
       </c>
@@ -3949,6 +4414,9 @@
       <c r="A174" s="1">
         <v>411100</v>
       </c>
+      <c r="B174" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C174" s="1" t="s">
         <v>177</v>
       </c>
@@ -3963,6 +4431,9 @@
       <c r="A175" s="1">
         <v>411200</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C175" s="1" t="s">
         <v>178</v>
       </c>
@@ -3977,6 +4448,9 @@
       <c r="A176" s="1">
         <v>411300</v>
       </c>
+      <c r="B176" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C176" s="1" t="s">
         <v>179</v>
       </c>
@@ -3991,6 +4465,9 @@
       <c r="A177" s="1">
         <v>411400</v>
       </c>
+      <c r="B177" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>180</v>
       </c>
@@ -4005,6 +4482,9 @@
       <c r="A178" s="1">
         <v>411500</v>
       </c>
+      <c r="B178" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>181</v>
       </c>
@@ -4019,6 +4499,9 @@
       <c r="A179" s="1">
         <v>411600</v>
       </c>
+      <c r="B179" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>182</v>
       </c>
@@ -4033,6 +4516,9 @@
       <c r="A180" s="1">
         <v>411700</v>
       </c>
+      <c r="B180" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>183</v>
       </c>
@@ -4061,6 +4547,9 @@
       <c r="A182" s="1">
         <v>420100</v>
       </c>
+      <c r="B182" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C182" s="1" t="s">
         <v>185</v>
       </c>
@@ -4075,6 +4564,9 @@
       <c r="A183" s="1">
         <v>420200</v>
       </c>
+      <c r="B183" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>186</v>
       </c>
@@ -4086,6 +4578,9 @@
       <c r="A184" s="1">
         <v>420300</v>
       </c>
+      <c r="B184" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C184" s="1" t="s">
         <v>187</v>
       </c>
@@ -4100,6 +4595,9 @@
       <c r="A185" s="1">
         <v>420500</v>
       </c>
+      <c r="B185" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C185" s="1" t="s">
         <v>188</v>
       </c>
@@ -4114,6 +4612,9 @@
       <c r="A186" s="1">
         <v>420600</v>
       </c>
+      <c r="B186" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C186" s="1" t="s">
         <v>189</v>
       </c>
@@ -4128,6 +4629,9 @@
       <c r="A187" s="1">
         <v>420700</v>
       </c>
+      <c r="B187" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C187" s="1" t="s">
         <v>190</v>
       </c>
@@ -4142,6 +4646,9 @@
       <c r="A188" s="1">
         <v>420800</v>
       </c>
+      <c r="B188" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C188" s="1" t="s">
         <v>191</v>
       </c>
@@ -4156,6 +4663,9 @@
       <c r="A189" s="1">
         <v>420900</v>
       </c>
+      <c r="B189" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C189" s="1" t="s">
         <v>192</v>
       </c>
@@ -4170,6 +4680,9 @@
       <c r="A190" s="1">
         <v>421000</v>
       </c>
+      <c r="B190" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C190" s="1" t="s">
         <v>193</v>
       </c>
@@ -4184,6 +4697,9 @@
       <c r="A191" s="1">
         <v>421100</v>
       </c>
+      <c r="B191" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C191" s="1" t="s">
         <v>194</v>
       </c>
@@ -4198,6 +4714,9 @@
       <c r="A192" s="1">
         <v>421200</v>
       </c>
+      <c r="B192" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C192" s="1" t="s">
         <v>195</v>
       </c>
@@ -4212,6 +4731,9 @@
       <c r="A193" s="1">
         <v>421300</v>
       </c>
+      <c r="B193" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C193" s="1" t="s">
         <v>196</v>
       </c>
@@ -4226,6 +4748,9 @@
       <c r="A194" s="1">
         <v>422800</v>
       </c>
+      <c r="B194" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C194" s="1" t="s">
         <v>197</v>
       </c>
@@ -4254,6 +4779,9 @@
       <c r="A196" s="1">
         <v>430100</v>
       </c>
+      <c r="B196" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C196" s="1" t="s">
         <v>199</v>
       </c>
@@ -4268,6 +4796,9 @@
       <c r="A197" s="1">
         <v>430200</v>
       </c>
+      <c r="B197" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C197" s="1" t="s">
         <v>200</v>
       </c>
@@ -4282,6 +4813,9 @@
       <c r="A198" s="1">
         <v>430300</v>
       </c>
+      <c r="B198" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C198" s="1" t="s">
         <v>201</v>
       </c>
@@ -4296,6 +4830,9 @@
       <c r="A199" s="1">
         <v>430400</v>
       </c>
+      <c r="B199" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C199" s="1" t="s">
         <v>202</v>
       </c>
@@ -4310,6 +4847,9 @@
       <c r="A200" s="1">
         <v>430500</v>
       </c>
+      <c r="B200" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C200" s="1" t="s">
         <v>203</v>
       </c>
@@ -4324,6 +4864,9 @@
       <c r="A201" s="1">
         <v>430600</v>
       </c>
+      <c r="B201" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C201" s="1" t="s">
         <v>204</v>
       </c>
@@ -4338,6 +4881,9 @@
       <c r="A202" s="1">
         <v>430700</v>
       </c>
+      <c r="B202" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C202" s="1" t="s">
         <v>205</v>
       </c>
@@ -4352,6 +4898,9 @@
       <c r="A203" s="1">
         <v>430800</v>
       </c>
+      <c r="B203" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C203" s="1" t="s">
         <v>206</v>
       </c>
@@ -4366,6 +4915,9 @@
       <c r="A204" s="1">
         <v>430900</v>
       </c>
+      <c r="B204" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C204" s="1" t="s">
         <v>207</v>
       </c>
@@ -4380,6 +4932,9 @@
       <c r="A205" s="1">
         <v>431000</v>
       </c>
+      <c r="B205" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C205" s="1" t="s">
         <v>212</v>
       </c>
@@ -4394,6 +4949,9 @@
       <c r="A206" s="1">
         <v>431100</v>
       </c>
+      <c r="B206" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C206" s="1" t="s">
         <v>208</v>
       </c>
@@ -4408,6 +4966,9 @@
       <c r="A207" s="1">
         <v>431200</v>
       </c>
+      <c r="B207" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C207" s="1" t="s">
         <v>209</v>
       </c>
@@ -4422,6 +4983,9 @@
       <c r="A208" s="1">
         <v>431300</v>
       </c>
+      <c r="B208" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C208" s="1" t="s">
         <v>210</v>
       </c>
@@ -4436,6 +5000,9 @@
       <c r="A209" s="1">
         <v>433100</v>
       </c>
+      <c r="B209" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C209" s="1" t="s">
         <v>211</v>
       </c>
@@ -4464,6 +5031,9 @@
       <c r="A211" s="1">
         <v>440100</v>
       </c>
+      <c r="B211" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C211" s="1" t="s">
         <v>214</v>
       </c>
@@ -4478,6 +5048,9 @@
       <c r="A212" s="1">
         <v>440200</v>
       </c>
+      <c r="B212" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C212" s="1" t="s">
         <v>215</v>
       </c>
@@ -4492,6 +5065,9 @@
       <c r="A213" s="1">
         <v>440300</v>
       </c>
+      <c r="B213" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C213" s="1" t="s">
         <v>216</v>
       </c>
@@ -4506,6 +5082,9 @@
       <c r="A214" s="1">
         <v>440400</v>
       </c>
+      <c r="B214" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C214" s="1" t="s">
         <v>217</v>
       </c>
@@ -4520,6 +5099,9 @@
       <c r="A215" s="1">
         <v>440500</v>
       </c>
+      <c r="B215" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C215" s="1" t="s">
         <v>218</v>
       </c>
@@ -4534,6 +5116,9 @@
       <c r="A216" s="1">
         <v>440600</v>
       </c>
+      <c r="B216" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C216" s="1" t="s">
         <v>219</v>
       </c>
@@ -4548,6 +5133,9 @@
       <c r="A217" s="1">
         <v>440700</v>
       </c>
+      <c r="B217" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C217" s="1" t="s">
         <v>220</v>
       </c>
@@ -4562,6 +5150,9 @@
       <c r="A218" s="1">
         <v>440800</v>
       </c>
+      <c r="B218" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C218" s="1" t="s">
         <v>221</v>
       </c>
@@ -4576,6 +5167,9 @@
       <c r="A219" s="1">
         <v>440900</v>
       </c>
+      <c r="B219" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C219" s="1" t="s">
         <v>222</v>
       </c>
@@ -4590,6 +5184,9 @@
       <c r="A220" s="1">
         <v>441200</v>
       </c>
+      <c r="B220" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C220" s="1" t="s">
         <v>223</v>
       </c>
@@ -4604,6 +5201,9 @@
       <c r="A221" s="1">
         <v>441300</v>
       </c>
+      <c r="B221" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C221" s="1" t="s">
         <v>224</v>
       </c>
@@ -4618,6 +5218,9 @@
       <c r="A222" s="1">
         <v>441400</v>
       </c>
+      <c r="B222" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C222" s="1" t="s">
         <v>225</v>
       </c>
@@ -4632,6 +5235,9 @@
       <c r="A223" s="1">
         <v>441500</v>
       </c>
+      <c r="B223" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C223" s="1" t="s">
         <v>226</v>
       </c>
@@ -4646,6 +5252,9 @@
       <c r="A224" s="1">
         <v>441600</v>
       </c>
+      <c r="B224" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C224" s="1" t="s">
         <v>227</v>
       </c>
@@ -4660,6 +5269,9 @@
       <c r="A225" s="1">
         <v>441700</v>
       </c>
+      <c r="B225" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C225" s="1" t="s">
         <v>228</v>
       </c>
@@ -4674,6 +5286,9 @@
       <c r="A226" s="1">
         <v>441800</v>
       </c>
+      <c r="B226" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C226" s="1" t="s">
         <v>229</v>
       </c>
@@ -4688,6 +5303,9 @@
       <c r="A227" s="1">
         <v>441900</v>
       </c>
+      <c r="B227" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C227" s="1" t="s">
         <v>230</v>
       </c>
@@ -4702,6 +5320,9 @@
       <c r="A228" s="1">
         <v>442000</v>
       </c>
+      <c r="B228" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C228" s="1" t="s">
         <v>231</v>
       </c>
@@ -4716,6 +5337,9 @@
       <c r="A229" s="1">
         <v>445100</v>
       </c>
+      <c r="B229" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C229" s="1" t="s">
         <v>232</v>
       </c>
@@ -4730,6 +5354,9 @@
       <c r="A230" s="1">
         <v>445200</v>
       </c>
+      <c r="B230" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C230" s="1" t="s">
         <v>233</v>
       </c>
@@ -4744,6 +5371,9 @@
       <c r="A231" s="1">
         <v>445300</v>
       </c>
+      <c r="B231" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C231" s="1" t="s">
         <v>234</v>
       </c>
@@ -4772,6 +5402,9 @@
       <c r="A233" s="1">
         <v>450100</v>
       </c>
+      <c r="B233" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C233" s="1" t="s">
         <v>236</v>
       </c>
@@ -4786,6 +5419,9 @@
       <c r="A234" s="1">
         <v>450200</v>
       </c>
+      <c r="B234" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C234" s="1" t="s">
         <v>237</v>
       </c>
@@ -4800,6 +5436,9 @@
       <c r="A235" s="1">
         <v>450300</v>
       </c>
+      <c r="B235" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C235" s="1" t="s">
         <v>238</v>
       </c>
@@ -4814,6 +5453,9 @@
       <c r="A236" s="1">
         <v>450400</v>
       </c>
+      <c r="B236" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C236" s="1" t="s">
         <v>239</v>
       </c>
@@ -4828,6 +5470,9 @@
       <c r="A237" s="1">
         <v>450500</v>
       </c>
+      <c r="B237" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C237" s="1" t="s">
         <v>240</v>
       </c>
@@ -4842,6 +5487,9 @@
       <c r="A238" s="1">
         <v>450600</v>
       </c>
+      <c r="B238" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C238" s="1" t="s">
         <v>241</v>
       </c>
@@ -4856,6 +5504,9 @@
       <c r="A239" s="1">
         <v>450700</v>
       </c>
+      <c r="B239" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C239" s="1" t="s">
         <v>242</v>
       </c>
@@ -4870,6 +5521,9 @@
       <c r="A240" s="1">
         <v>450800</v>
       </c>
+      <c r="B240" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C240" s="1" t="s">
         <v>243</v>
       </c>
@@ -4884,6 +5538,9 @@
       <c r="A241" s="1">
         <v>450900</v>
       </c>
+      <c r="B241" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C241" s="1" t="s">
         <v>244</v>
       </c>
@@ -4898,6 +5555,9 @@
       <c r="A242" s="1">
         <v>451000</v>
       </c>
+      <c r="B242" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C242" s="1" t="s">
         <v>245</v>
       </c>
@@ -4912,6 +5572,9 @@
       <c r="A243" s="1">
         <v>451100</v>
       </c>
+      <c r="B243" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C243" s="1" t="s">
         <v>246</v>
       </c>
@@ -4926,6 +5589,9 @@
       <c r="A244" s="1">
         <v>451200</v>
       </c>
+      <c r="B244" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C244" s="1" t="s">
         <v>247</v>
       </c>
@@ -4940,6 +5606,9 @@
       <c r="A245" s="1">
         <v>451300</v>
       </c>
+      <c r="B245" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C245" s="1" t="s">
         <v>248</v>
       </c>
@@ -4954,6 +5623,9 @@
       <c r="A246" s="1">
         <v>451400</v>
       </c>
+      <c r="B246" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C246" s="1" t="s">
         <v>249</v>
       </c>
@@ -4982,6 +5654,9 @@
       <c r="A248" s="1">
         <v>460100</v>
       </c>
+      <c r="B248" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C248" s="1" t="s">
         <v>251</v>
       </c>
@@ -4996,6 +5671,9 @@
       <c r="A249" s="1">
         <v>460200</v>
       </c>
+      <c r="B249" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C249" s="1" t="s">
         <v>252</v>
       </c>
@@ -5010,6 +5688,9 @@
       <c r="A250" s="1">
         <v>460300</v>
       </c>
+      <c r="B250" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C250" s="1" t="s">
         <v>253</v>
       </c>
@@ -5018,6 +5699,9 @@
       <c r="A251" s="1">
         <v>460400</v>
       </c>
+      <c r="B251" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C251" s="1" t="s">
         <v>254</v>
       </c>
@@ -5060,6 +5744,9 @@
       <c r="A254" s="1">
         <v>510100</v>
       </c>
+      <c r="B254" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C254" s="1" t="s">
         <v>257</v>
       </c>
@@ -5074,6 +5761,9 @@
       <c r="A255" s="1">
         <v>510300</v>
       </c>
+      <c r="B255" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C255" s="1" t="s">
         <v>258</v>
       </c>
@@ -5088,6 +5778,9 @@
       <c r="A256" s="1">
         <v>510400</v>
       </c>
+      <c r="B256" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C256" s="1" t="s">
         <v>259</v>
       </c>
@@ -5102,6 +5795,9 @@
       <c r="A257" s="1">
         <v>510500</v>
       </c>
+      <c r="B257" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C257" s="1" t="s">
         <v>260</v>
       </c>
@@ -5116,6 +5812,9 @@
       <c r="A258" s="1">
         <v>510600</v>
       </c>
+      <c r="B258" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C258" s="1" t="s">
         <v>261</v>
       </c>
@@ -5130,6 +5829,9 @@
       <c r="A259" s="1">
         <v>510700</v>
       </c>
+      <c r="B259" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C259" s="1" t="s">
         <v>262</v>
       </c>
@@ -5144,6 +5846,9 @@
       <c r="A260" s="1">
         <v>510800</v>
       </c>
+      <c r="B260" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C260" s="1" t="s">
         <v>263</v>
       </c>
@@ -5158,6 +5863,9 @@
       <c r="A261" s="1">
         <v>510900</v>
       </c>
+      <c r="B261" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C261" s="1" t="s">
         <v>264</v>
       </c>
@@ -5172,6 +5880,9 @@
       <c r="A262" s="1">
         <v>511000</v>
       </c>
+      <c r="B262" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C262" s="1" t="s">
         <v>265</v>
       </c>
@@ -5186,6 +5897,9 @@
       <c r="A263" s="1">
         <v>511100</v>
       </c>
+      <c r="B263" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C263" s="1" t="s">
         <v>266</v>
       </c>
@@ -5200,6 +5914,9 @@
       <c r="A264" s="1">
         <v>511300</v>
       </c>
+      <c r="B264" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C264" s="1" t="s">
         <v>267</v>
       </c>
@@ -5214,6 +5931,9 @@
       <c r="A265" s="1">
         <v>511400</v>
       </c>
+      <c r="B265" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C265" s="1" t="s">
         <v>268</v>
       </c>
@@ -5228,6 +5948,9 @@
       <c r="A266" s="1">
         <v>511500</v>
       </c>
+      <c r="B266" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C266" s="1" t="s">
         <v>269</v>
       </c>
@@ -5242,6 +5965,9 @@
       <c r="A267" s="1">
         <v>511600</v>
       </c>
+      <c r="B267" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C267" s="1" t="s">
         <v>270</v>
       </c>
@@ -5256,6 +5982,9 @@
       <c r="A268" s="1">
         <v>511700</v>
       </c>
+      <c r="B268" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C268" s="1" t="s">
         <v>271</v>
       </c>
@@ -5270,6 +5999,9 @@
       <c r="A269" s="1">
         <v>511800</v>
       </c>
+      <c r="B269" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C269" s="1" t="s">
         <v>272</v>
       </c>
@@ -5284,6 +6016,9 @@
       <c r="A270" s="1">
         <v>511900</v>
       </c>
+      <c r="B270" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C270" s="1" t="s">
         <v>273</v>
       </c>
@@ -5298,6 +6033,9 @@
       <c r="A271" s="1">
         <v>512000</v>
       </c>
+      <c r="B271" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C271" s="1" t="s">
         <v>274</v>
       </c>
@@ -5312,6 +6050,9 @@
       <c r="A272" s="1">
         <v>513200</v>
       </c>
+      <c r="B272" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C272" s="1" t="s">
         <v>275</v>
       </c>
@@ -5326,6 +6067,9 @@
       <c r="A273" s="1">
         <v>513300</v>
       </c>
+      <c r="B273" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C273" s="1" t="s">
         <v>276</v>
       </c>
@@ -5340,6 +6084,9 @@
       <c r="A274" s="1">
         <v>513400</v>
       </c>
+      <c r="B274" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C274" s="1" t="s">
         <v>277</v>
       </c>
@@ -5368,6 +6115,9 @@
       <c r="A276" s="1">
         <v>520100</v>
       </c>
+      <c r="B276" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C276" s="1" t="s">
         <v>279</v>
       </c>
@@ -5382,6 +6132,9 @@
       <c r="A277" s="1">
         <v>520200</v>
       </c>
+      <c r="B277" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C277" s="1" t="s">
         <v>280</v>
       </c>
@@ -5396,6 +6149,9 @@
       <c r="A278" s="1">
         <v>520300</v>
       </c>
+      <c r="B278" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C278" s="1" t="s">
         <v>281</v>
       </c>
@@ -5410,6 +6166,9 @@
       <c r="A279" s="1">
         <v>520400</v>
       </c>
+      <c r="B279" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C279" s="1" t="s">
         <v>282</v>
       </c>
@@ -5424,6 +6183,9 @@
       <c r="A280" s="1">
         <v>520500</v>
       </c>
+      <c r="B280" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C280" s="1" t="s">
         <v>283</v>
       </c>
@@ -5438,6 +6200,9 @@
       <c r="A281" s="1">
         <v>520600</v>
       </c>
+      <c r="B281" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C281" s="1" t="s">
         <v>284</v>
       </c>
@@ -5452,6 +6217,9 @@
       <c r="A282" s="1">
         <v>522300</v>
       </c>
+      <c r="B282" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C282" s="1" t="s">
         <v>285</v>
       </c>
@@ -5466,6 +6234,9 @@
       <c r="A283" s="1">
         <v>522600</v>
       </c>
+      <c r="B283" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C283" s="1" t="s">
         <v>286</v>
       </c>
@@ -5480,6 +6251,9 @@
       <c r="A284" s="1">
         <v>522700</v>
       </c>
+      <c r="B284" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C284" s="1" t="s">
         <v>287</v>
       </c>
@@ -5508,6 +6282,9 @@
       <c r="A286" s="1">
         <v>530100</v>
       </c>
+      <c r="B286" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C286" s="1" t="s">
         <v>289</v>
       </c>
@@ -5522,6 +6299,9 @@
       <c r="A287" s="1">
         <v>530300</v>
       </c>
+      <c r="B287" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C287" s="1" t="s">
         <v>290</v>
       </c>
@@ -5536,6 +6316,9 @@
       <c r="A288" s="1">
         <v>530400</v>
       </c>
+      <c r="B288" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C288" s="1" t="s">
         <v>291</v>
       </c>
@@ -5550,6 +6333,9 @@
       <c r="A289" s="1">
         <v>530500</v>
       </c>
+      <c r="B289" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C289" s="1" t="s">
         <v>292</v>
       </c>
@@ -5564,6 +6350,9 @@
       <c r="A290" s="1">
         <v>530600</v>
       </c>
+      <c r="B290" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C290" s="1" t="s">
         <v>293</v>
       </c>
@@ -5578,6 +6367,9 @@
       <c r="A291" s="1">
         <v>530700</v>
       </c>
+      <c r="B291" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C291" s="1" t="s">
         <v>294</v>
       </c>
@@ -5592,6 +6384,9 @@
       <c r="A292" s="1">
         <v>530800</v>
       </c>
+      <c r="B292" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C292" s="1" t="s">
         <v>295</v>
       </c>
@@ -5606,6 +6401,9 @@
       <c r="A293" s="1">
         <v>530900</v>
       </c>
+      <c r="B293" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C293" s="1" t="s">
         <v>296</v>
       </c>
@@ -5620,6 +6418,9 @@
       <c r="A294" s="1">
         <v>532300</v>
       </c>
+      <c r="B294" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C294" s="1" t="s">
         <v>297</v>
       </c>
@@ -5634,6 +6435,9 @@
       <c r="A295" s="1">
         <v>532500</v>
       </c>
+      <c r="B295" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C295" s="1" t="s">
         <v>298</v>
       </c>
@@ -5648,6 +6452,9 @@
       <c r="A296" s="1">
         <v>532600</v>
       </c>
+      <c r="B296" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C296" s="1" t="s">
         <v>299</v>
       </c>
@@ -5662,6 +6469,9 @@
       <c r="A297" s="1">
         <v>532800</v>
       </c>
+      <c r="B297" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C297" s="1" t="s">
         <v>300</v>
       </c>
@@ -5676,6 +6486,9 @@
       <c r="A298" s="1">
         <v>532900</v>
       </c>
+      <c r="B298" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C298" s="1" t="s">
         <v>301</v>
       </c>
@@ -5690,6 +6503,9 @@
       <c r="A299" s="1">
         <v>533100</v>
       </c>
+      <c r="B299" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C299" s="1" t="s">
         <v>304</v>
       </c>
@@ -5704,6 +6520,9 @@
       <c r="A300" s="1">
         <v>533300</v>
       </c>
+      <c r="B300" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C300" s="1" t="s">
         <v>302</v>
       </c>
@@ -5718,6 +6537,9 @@
       <c r="A301" s="1">
         <v>533400</v>
       </c>
+      <c r="B301" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C301" s="1" t="s">
         <v>303</v>
       </c>
@@ -5746,6 +6568,9 @@
       <c r="A303" s="1">
         <v>540100</v>
       </c>
+      <c r="B303" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C303" s="1" t="s">
         <v>306</v>
       </c>
@@ -5754,6 +6579,9 @@
       <c r="A304" s="1">
         <v>540200</v>
       </c>
+      <c r="B304" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C304" s="1" t="s">
         <v>307</v>
       </c>
@@ -5762,6 +6590,9 @@
       <c r="A305" s="1">
         <v>540300</v>
       </c>
+      <c r="B305" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C305" s="1" t="s">
         <v>308</v>
       </c>
@@ -5770,6 +6601,9 @@
       <c r="A306" s="1">
         <v>540400</v>
       </c>
+      <c r="B306" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C306" s="1" t="s">
         <v>309</v>
       </c>
@@ -5778,6 +6612,9 @@
       <c r="A307" s="1">
         <v>540500</v>
       </c>
+      <c r="B307" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C307" s="1" t="s">
         <v>310</v>
       </c>
@@ -5786,6 +6623,9 @@
       <c r="A308" s="1">
         <v>540600</v>
       </c>
+      <c r="B308" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C308" s="1" t="s">
         <v>311</v>
       </c>
@@ -5794,6 +6634,9 @@
       <c r="A309" s="1">
         <v>542500</v>
       </c>
+      <c r="B309" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C309" s="1" t="s">
         <v>312</v>
       </c>
@@ -5816,6 +6659,9 @@
       <c r="A311" s="1">
         <v>610100</v>
       </c>
+      <c r="B311" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C311" s="1" t="s">
         <v>314</v>
       </c>
@@ -5830,6 +6676,9 @@
       <c r="A312" s="1">
         <v>610200</v>
       </c>
+      <c r="B312" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C312" s="1" t="s">
         <v>315</v>
       </c>
@@ -5844,6 +6693,9 @@
       <c r="A313" s="1">
         <v>610300</v>
       </c>
+      <c r="B313" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C313" s="1" t="s">
         <v>316</v>
       </c>
@@ -5858,6 +6710,9 @@
       <c r="A314" s="1">
         <v>610400</v>
       </c>
+      <c r="B314" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C314" s="1" t="s">
         <v>317</v>
       </c>
@@ -5872,6 +6727,9 @@
       <c r="A315" s="1">
         <v>610500</v>
       </c>
+      <c r="B315" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C315" s="1" t="s">
         <v>318</v>
       </c>
@@ -5886,6 +6744,9 @@
       <c r="A316" s="1">
         <v>610600</v>
       </c>
+      <c r="B316" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C316" s="1" t="s">
         <v>319</v>
       </c>
@@ -5900,6 +6761,9 @@
       <c r="A317" s="1">
         <v>610700</v>
       </c>
+      <c r="B317" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C317" s="1" t="s">
         <v>320</v>
       </c>
@@ -5914,6 +6778,9 @@
       <c r="A318" s="1">
         <v>610800</v>
       </c>
+      <c r="B318" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C318" s="1" t="s">
         <v>321</v>
       </c>
@@ -5928,6 +6795,9 @@
       <c r="A319" s="1">
         <v>610900</v>
       </c>
+      <c r="B319" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C319" s="1" t="s">
         <v>322</v>
       </c>
@@ -5942,6 +6812,9 @@
       <c r="A320" s="1">
         <v>611000</v>
       </c>
+      <c r="B320" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C320" s="1" t="s">
         <v>323</v>
       </c>
@@ -5970,6 +6843,9 @@
       <c r="A322" s="1">
         <v>620100</v>
       </c>
+      <c r="B322" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C322" s="1" t="s">
         <v>325</v>
       </c>
@@ -5984,6 +6860,9 @@
       <c r="A323" s="1">
         <v>620200</v>
       </c>
+      <c r="B323" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C323" s="1" t="s">
         <v>335</v>
       </c>
@@ -5998,6 +6877,9 @@
       <c r="A324" s="1">
         <v>620300</v>
       </c>
+      <c r="B324" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C324" s="1" t="s">
         <v>336</v>
       </c>
@@ -6012,6 +6894,9 @@
       <c r="A325" s="1">
         <v>620400</v>
       </c>
+      <c r="B325" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C325" s="1" t="s">
         <v>337</v>
       </c>
@@ -6026,6 +6911,9 @@
       <c r="A326" s="1">
         <v>620500</v>
       </c>
+      <c r="B326" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C326" s="1" t="s">
         <v>338</v>
       </c>
@@ -6040,6 +6928,9 @@
       <c r="A327" s="1">
         <v>620600</v>
       </c>
+      <c r="B327" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C327" s="1" t="s">
         <v>339</v>
       </c>
@@ -6054,6 +6945,9 @@
       <c r="A328" s="1">
         <v>620700</v>
       </c>
+      <c r="B328" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C328" s="1" t="s">
         <v>340</v>
       </c>
@@ -6068,7 +6962,9 @@
       <c r="A329" s="1">
         <v>620800</v>
       </c>
-      <c r="B329" s="8"/>
+      <c r="B329" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C329" s="1" t="s">
         <v>341</v>
       </c>
@@ -6083,6 +6979,9 @@
       <c r="A330" s="1">
         <v>620900</v>
       </c>
+      <c r="B330" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C330" s="1" t="s">
         <v>342</v>
       </c>
@@ -6097,6 +6996,9 @@
       <c r="A331" s="1">
         <v>621000</v>
       </c>
+      <c r="B331" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C331" s="1" t="s">
         <v>343</v>
       </c>
@@ -6111,6 +7013,9 @@
       <c r="A332" s="1">
         <v>621100</v>
       </c>
+      <c r="B332" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C332" s="1" t="s">
         <v>344</v>
       </c>
@@ -6125,6 +7030,9 @@
       <c r="A333" s="1">
         <v>621200</v>
       </c>
+      <c r="B333" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C333" s="1" t="s">
         <v>345</v>
       </c>
@@ -6139,6 +7047,9 @@
       <c r="A334" s="1">
         <v>622900</v>
       </c>
+      <c r="B334" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C334" s="1" t="s">
         <v>346</v>
       </c>
@@ -6153,6 +7064,9 @@
       <c r="A335" s="1">
         <v>623000</v>
       </c>
+      <c r="B335" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C335" s="1" t="s">
         <v>347</v>
       </c>
@@ -6181,6 +7095,9 @@
       <c r="A337" s="1">
         <v>630100</v>
       </c>
+      <c r="B337" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C337" s="1" t="s">
         <v>332</v>
       </c>
@@ -6195,6 +7112,9 @@
       <c r="A338" s="1">
         <v>630200</v>
       </c>
+      <c r="B338" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C338" s="1" t="s">
         <v>348</v>
       </c>
@@ -6209,6 +7129,9 @@
       <c r="A339" s="1">
         <v>632200</v>
       </c>
+      <c r="B339" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C339" s="1" t="s">
         <v>349</v>
       </c>
@@ -6223,6 +7146,9 @@
       <c r="A340" s="1">
         <v>632300</v>
       </c>
+      <c r="B340" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C340" s="1" t="s">
         <v>350</v>
       </c>
@@ -6237,6 +7163,9 @@
       <c r="A341" s="1">
         <v>632500</v>
       </c>
+      <c r="B341" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C341" s="1" t="s">
         <v>351</v>
       </c>
@@ -6245,6 +7174,9 @@
       <c r="A342" s="1">
         <v>632600</v>
       </c>
+      <c r="B342" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C342" s="1" t="s">
         <v>352</v>
       </c>
@@ -6253,6 +7185,9 @@
       <c r="A343" s="1">
         <v>632700</v>
       </c>
+      <c r="B343" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C343" s="1" t="s">
         <v>353</v>
       </c>
@@ -6261,6 +7196,9 @@
       <c r="A344" s="1">
         <v>632800</v>
       </c>
+      <c r="B344" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C344" s="1" t="s">
         <v>354</v>
       </c>
@@ -6283,6 +7221,9 @@
       <c r="A346" s="1">
         <v>640100</v>
       </c>
+      <c r="B346" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C346" s="1" t="s">
         <v>333</v>
       </c>
@@ -6297,6 +7238,9 @@
       <c r="A347" s="1">
         <v>640200</v>
       </c>
+      <c r="B347" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C347" s="1" t="s">
         <v>355</v>
       </c>
@@ -6311,6 +7255,9 @@
       <c r="A348" s="1">
         <v>640300</v>
       </c>
+      <c r="B348" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C348" s="1" t="s">
         <v>356</v>
       </c>
@@ -6325,6 +7272,9 @@
       <c r="A349" s="1">
         <v>640400</v>
       </c>
+      <c r="B349" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C349" s="1" t="s">
         <v>357</v>
       </c>
@@ -6339,6 +7289,9 @@
       <c r="A350" s="1">
         <v>640500</v>
       </c>
+      <c r="B350" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C350" s="1" t="s">
         <v>358</v>
       </c>
@@ -6367,6 +7320,9 @@
       <c r="A352" s="1">
         <v>650100</v>
       </c>
+      <c r="B352" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C352" s="1" t="s">
         <v>334</v>
       </c>
@@ -6381,6 +7337,9 @@
       <c r="A353" s="1">
         <v>650200</v>
       </c>
+      <c r="B353" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C353" s="1" t="s">
         <v>359</v>
       </c>
@@ -6395,6 +7354,9 @@
       <c r="A354" s="1">
         <v>650400</v>
       </c>
+      <c r="B354" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C354" s="1" t="s">
         <v>360</v>
       </c>
@@ -6409,6 +7371,9 @@
       <c r="A355" s="1">
         <v>650500</v>
       </c>
+      <c r="B355" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C355" s="1" t="s">
         <v>361</v>
       </c>
@@ -6423,6 +7388,9 @@
       <c r="A356" s="1">
         <v>652300</v>
       </c>
+      <c r="B356" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C356" s="1" t="s">
         <v>362</v>
       </c>
@@ -6437,6 +7405,9 @@
       <c r="A357" s="1">
         <v>652700</v>
       </c>
+      <c r="B357" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C357" s="1" t="s">
         <v>363</v>
       </c>
@@ -6451,6 +7422,9 @@
       <c r="A358" s="1">
         <v>652800</v>
       </c>
+      <c r="B358" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C358" s="1" t="s">
         <v>364</v>
       </c>
@@ -6465,6 +7439,9 @@
       <c r="A359" s="1">
         <v>652900</v>
       </c>
+      <c r="B359" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C359" s="1" t="s">
         <v>365</v>
       </c>
@@ -6479,6 +7456,9 @@
       <c r="A360" s="1">
         <v>653000</v>
       </c>
+      <c r="B360" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C360" s="1" t="s">
         <v>366</v>
       </c>
@@ -6493,6 +7473,9 @@
       <c r="A361" s="1">
         <v>653100</v>
       </c>
+      <c r="B361" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C361" s="1" t="s">
         <v>367</v>
       </c>
@@ -6507,6 +7490,9 @@
       <c r="A362" s="1">
         <v>653200</v>
       </c>
+      <c r="B362" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C362" s="1" t="s">
         <v>368</v>
       </c>
@@ -6521,6 +7507,9 @@
       <c r="A363" s="1">
         <v>654000</v>
       </c>
+      <c r="B363" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C363" s="1" t="s">
         <v>369</v>
       </c>
@@ -6535,6 +7524,9 @@
       <c r="A364" s="1">
         <v>654200</v>
       </c>
+      <c r="B364" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C364" s="1" t="s">
         <v>370</v>
       </c>
@@ -6548,6 +7540,9 @@
     <row r="365" spans="1:5">
       <c r="A365" s="1">
         <v>654300</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>371</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangci/Desktop/repositories/gdps_china/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D94D7C-C4B8-C144-9A54-919B79D89136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446A811C-1152-B24E-B114-A064AFB7F688}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="-23220" windowWidth="27800" windowHeight="22900" activeTab="1" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
+    <workbookView xWindow="1920" yWindow="-23220" windowWidth="27800" windowHeight="22900" xr2:uid="{D904F256-2BAB-5249-AB8A-9ED9AF388F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2DD9AE-BCB2-FE4B-B482-CAC9A8767623}">
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2650,7 +2650,6 @@
       <c r="D53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="1"/>
       <c r="F53" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -2668,7 +2667,9 @@
       <c r="D54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="3">
+        <v>526.6</v>
+      </c>
       <c r="F54" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -2686,7 +2687,6 @@
       <c r="D55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="1"/>
       <c r="F55" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -2704,7 +2704,6 @@
       <c r="D56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="1"/>
       <c r="F56" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -2722,7 +2721,9 @@
       <c r="D57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="3">
+        <v>509.42</v>
+      </c>
       <c r="F57" s="4">
         <v>1E-3</v>
       </c>
@@ -2740,7 +2741,6 @@
       <c r="D58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="1"/>
       <c r="F58" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -2758,7 +2758,6 @@
       <c r="D59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="1"/>
       <c r="F59" s="4">
         <v>1.4E-2</v>
       </c>
@@ -2890,6 +2889,9 @@
       <c r="D66" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E66" s="3">
+        <v>2301.1</v>
+      </c>
       <c r="F66" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -3001,6 +3003,12 @@
       <c r="D72" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="E72" s="3">
+        <v>1150.2</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
@@ -7853,6 +7861,12 @@
       </c>
       <c r="D319" s="1" t="s">
         <v>354</v>
+      </c>
+      <c r="E319" s="3">
+        <v>619.80999999999995</v>
+      </c>
+      <c r="F319" s="4">
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8248,7 +8262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22E65D0-0A0D-724C-AE36-7A3F5B9BFAA0}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16300"/>
+    <workbookView windowWidth="27760" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -1167,10 +1167,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1224,31 +1224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,30 +1240,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1310,6 +1264,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1317,7 +1278,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1331,7 +1315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,6 +1326,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1366,7 +1366,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,7 +1450,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,61 +1480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,60 +1510,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1528,7 +1522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,15 +1563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1587,15 +1578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1607,6 +1589,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,143 +1636,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2135,8 +2135,8 @@
   <sheetPr/>
   <dimension ref="A1:F338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -3200,6 +3200,9 @@
       <c r="D53" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="E53" s="6">
+        <v>1452.6</v>
+      </c>
       <c r="F53" s="9">
         <v>0.006</v>
       </c>
@@ -3237,6 +3240,9 @@
       <c r="D55" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="E55" s="6">
+        <v>429.9</v>
+      </c>
       <c r="F55" s="9">
         <v>0.037</v>
       </c>
@@ -3254,6 +3260,9 @@
       <c r="D56" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="E56" s="6">
+        <v>531.7</v>
+      </c>
       <c r="F56" s="9">
         <v>0.021</v>
       </c>
@@ -3291,6 +3300,9 @@
       <c r="D58" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="E58" s="6">
+        <v>752.88</v>
+      </c>
       <c r="F58" s="9">
         <v>0.021</v>
       </c>
@@ -3308,6 +3320,9 @@
       <c r="D59" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="E59" s="6">
+        <v>510.18</v>
+      </c>
       <c r="F59" s="9">
         <v>0.014</v>
       </c>
@@ -3392,7 +3407,7 @@
         <v>0.021</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:6">
       <c r="A64" s="5">
         <v>230400</v>
       </c>
@@ -3404,6 +3419,12 @@
       </c>
       <c r="D64" s="5" t="s">
         <v>76</v>
+      </c>
+      <c r="E64" s="6">
+        <v>340.2</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0.003</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3486,7 +3507,7 @@
         <v>0.028</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:6">
       <c r="A69" s="5">
         <v>230900</v>
       </c>
@@ -3498,6 +3519,12 @@
       </c>
       <c r="D69" s="5" t="s">
         <v>81</v>
+      </c>
+      <c r="E69" s="6">
+        <v>206.4</v>
+      </c>
+      <c r="F69" s="9">
+        <v>-0.025</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3560,7 +3587,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:6">
       <c r="A73" s="5">
         <v>232700</v>
       </c>
@@ -3572,6 +3599,12 @@
       </c>
       <c r="D73" s="5" t="s">
         <v>85</v>
+      </c>
+      <c r="E73" s="6">
+        <v>141.9</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0.027</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4494,7 +4527,7 @@
         <v>0.029</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:5">
       <c r="A120" s="5">
         <v>350600</v>
       </c>
@@ -4506,6 +4539,9 @@
       </c>
       <c r="D120" s="5" t="s">
         <v>137</v>
+      </c>
+      <c r="E120" s="6">
+        <v>4545.61</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7699,7 +7735,7 @@
         <v>0.051</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:5">
       <c r="A281" s="5">
         <v>540100</v>
       </c>
@@ -7711,6 +7747,9 @@
       </c>
       <c r="D281" s="5" t="s">
         <v>312</v>
+      </c>
+      <c r="E281" s="6">
+        <v>678.16</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7755,7 +7794,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:6">
       <c r="A285" s="5">
         <v>540500</v>
       </c>
@@ -7767,6 +7806,12 @@
       </c>
       <c r="D285" s="5" t="s">
         <v>316</v>
+      </c>
+      <c r="E285" s="6">
+        <v>215.4</v>
+      </c>
+      <c r="F285" s="9">
+        <v>0.079</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8291,7 +8336,7 @@
         <v>347</v>
       </c>
       <c r="E312" s="6">
-        <v>1732.98</v>
+        <v>1372.98</v>
       </c>
       <c r="F312" s="9">
         <v>0.018</v>
@@ -8357,7 +8402,7 @@
         <v>0.053</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:6">
       <c r="A316" s="5">
         <v>632500</v>
       </c>
@@ -8369,6 +8414,12 @@
       </c>
       <c r="D316" s="5" t="s">
         <v>351</v>
+      </c>
+      <c r="E316" s="6">
+        <v>181.56</v>
+      </c>
+      <c r="F316" s="9">
+        <v>0.029</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -8813,8 +8864,8 @@
   <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
